--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_マイページ画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_マイページ画面.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C072F4-4DF1-3E4A-8756-258EAF03085D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ED61F6-514E-EE4F-B32D-F3D47EA1F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72000" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-72000" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
     <sheet name="改訂履歴" sheetId="3" r:id="rId2"/>
-    <sheet name="会員登録画面" sheetId="1" r:id="rId3"/>
+    <sheet name="マイページ画面" sheetId="1" r:id="rId3"/>
     <sheet name="パスワード使用できる記号" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">会員登録画面!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">マイページ画面!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">会員登録画面!$A$1:$AY$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">マイページ画面!$A$1:$AY$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="133">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -271,26 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本設計書_会員登録画面</t>
-    <rPh sb="0" eb="5">
-      <t>キホンセッケイショ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カイイn</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>糸井</t>
-    <rPh sb="0" eb="2">
-      <t>イトイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキストフォーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,23 +278,6 @@
     <t>入力形式</t>
     <rPh sb="0" eb="4">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>糸井</t>
-    <rPh sb="0" eb="1">
-      <t>イトイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード可視化アイコンの追加、バリデーション項目追加</t>
-    <rPh sb="5" eb="8">
-      <t xml:space="preserve">カシカ </t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -741,12 +704,181 @@
     <t>パスワードは6桁以上10桁未満で入力してください</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>基本設計書_マイページ画面</t>
+    <rPh sb="0" eb="5">
+      <t>キホンセッケイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠山</t>
+    <rPh sb="0" eb="2">
+      <t>トオヤｍア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ケｔア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6桁以上10桁未満制御</t>
+    <rPh sb="1" eb="2">
+      <t>ケｔア</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケｔア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミマｎン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認</t>
+    <rPh sb="5" eb="7">
+      <t>カクニｎン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認は入力必須です</t>
+    <rPh sb="5" eb="7">
+      <t>カクニｎン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認は6桁以上10桁未満で入力してください</t>
+    <rPh sb="5" eb="7">
+      <t>カクニｎン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードは半角英語、半角数字、半角記号を全て使用して入力してください</t>
+  </si>
+  <si>
+    <t>形式チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシｋイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードは半角英語、半角数字、半角記号のみ使用して入力してください</t>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョｋウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認は半角英語、半角数字、半角記号を全て使用して入力してください</t>
+    <rPh sb="5" eb="7">
+      <t>カクニｎン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認は半角英語、半角数字、半角記号のみ使用して入力してください</t>
+    <rPh sb="5" eb="7">
+      <t>カクニｎン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョｋウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードで使用できる記号は ` ˜ ! @ # $ % ^ &amp; * ( ) _です</t>
+  </si>
+  <si>
+    <t>パスワード確認で使用できる記号は ` ˜ ! @ # $ % ^ &amp; * ( ) _です</t>
+    <rPh sb="5" eb="7">
+      <t>カクニｎン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5、6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード、パスワード確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一致チェック</t>
+    <rPh sb="0" eb="2">
+      <t>イｔｔイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字、半角記号</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカｋウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ハンカｋウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>` ˜ ! @ # $ % ^ &amp; * ( ) _</t>
+  </si>
+  <si>
+    <t>パスワードとパスワード確認が一致しません</t>
+    <rPh sb="11" eb="13">
+      <t>カクニｎン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字種類使用チェック</t>
+    <rPh sb="0" eb="4">
+      <t>モｚイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号種類チェック</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -885,6 +1017,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MeiryoUI"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="MeiryoUI"/>
@@ -1063,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,6 +1350,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1383,7 +1524,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3901"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3967"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1425,7 +1566,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>127001</xdr:colOff>
+          <xdr:colOff>101852</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>75084</xdr:rowOff>
         </xdr:to>
@@ -1442,7 +1583,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2874"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2940"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1494,8 +1635,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228097" y="2906414"/>
-          <a:ext cx="10019923" cy="6425320"/>
+          <a:off x="228097" y="2933952"/>
+          <a:ext cx="10147300" cy="6489700"/>
           <a:chOff x="177800" y="2895600"/>
           <a:chExt cx="10121900" cy="6489700"/>
         </a:xfrm>
@@ -1521,7 +1662,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3581400" y="2895600"/>
+            <a:off x="3555996" y="2895600"/>
             <a:ext cx="3073400" cy="6451600"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3933,197 +4074,193 @@
   <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="59" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="59" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="59" t="s">
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="59" t="s">
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="59" t="s">
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="59" t="s">
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="62"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="62" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="68">
-        <v>44555</v>
-      </c>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="68">
-        <v>44570</v>
-      </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="69">
+        <v>44577</v>
+      </c>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="65"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="67"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="68"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -4164,9 +4301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B6673E-2360-A946-8C72-565FE4FC3012}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:P15"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
@@ -4254,184 +4389,175 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="74">
-        <v>44555</v>
-      </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="77" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="75">
+        <v>44577</v>
+      </c>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="79"/>
+      <c r="AQ8" s="79"/>
+      <c r="AR8" s="79"/>
+      <c r="AS8" s="79"/>
+      <c r="AT8" s="79"/>
+      <c r="AU8" s="79"/>
+      <c r="AV8" s="79"/>
+      <c r="AW8" s="79"/>
+      <c r="AX8" s="79"/>
+      <c r="AY8" s="79"/>
+      <c r="AZ8" s="80"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="9">
-        <f t="shared" ref="A9:A35" si="0">IF(G9="","",ROW()-7)</f>
-        <v>2</v>
-      </c>
+      <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="74">
-        <v>44570</v>
-      </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="79"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="80"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A10:A35" si="0">IF(G10="","",ROW()-7)</f>
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="79"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="80"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -4439,56 +4565,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="79"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="80"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="80"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -4496,56 +4622,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="79"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
+      <c r="AS12" s="79"/>
+      <c r="AT12" s="79"/>
+      <c r="AU12" s="79"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AX12" s="79"/>
+      <c r="AY12" s="79"/>
+      <c r="AZ12" s="80"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -4553,56 +4679,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="79"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="78"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="78"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="78"/>
-      <c r="AZ13" s="79"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="80"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="79"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="80"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -4610,56 +4736,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="79"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="78"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="78"/>
-      <c r="AR14" s="78"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="78"/>
-      <c r="AZ14" s="79"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="79"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="79"/>
+      <c r="AT14" s="79"/>
+      <c r="AU14" s="79"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+      <c r="AY14" s="79"/>
+      <c r="AZ14" s="80"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -4667,56 +4793,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="79"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="79"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
+      <c r="AS15" s="79"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="79"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="79"/>
+      <c r="AY15" s="79"/>
+      <c r="AZ15" s="80"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -4724,56 +4850,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="78"/>
-      <c r="AZ16" s="79"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="79"/>
+      <c r="AS16" s="79"/>
+      <c r="AT16" s="79"/>
+      <c r="AU16" s="79"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+      <c r="AY16" s="79"/>
+      <c r="AZ16" s="80"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -4781,56 +4907,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="78"/>
-      <c r="AZ17" s="79"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="79"/>
+      <c r="AR17" s="79"/>
+      <c r="AS17" s="79"/>
+      <c r="AT17" s="79"/>
+      <c r="AU17" s="79"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="79"/>
+      <c r="AX17" s="79"/>
+      <c r="AY17" s="79"/>
+      <c r="AZ17" s="80"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -4838,56 +4964,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="79"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="79"/>
+      <c r="AT18" s="79"/>
+      <c r="AU18" s="79"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+      <c r="AY18" s="79"/>
+      <c r="AZ18" s="80"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -4895,56 +5021,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="78"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="79"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="79"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="79"/>
+      <c r="AS19" s="79"/>
+      <c r="AT19" s="79"/>
+      <c r="AU19" s="79"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="79"/>
+      <c r="AY19" s="79"/>
+      <c r="AZ19" s="80"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -4952,56 +5078,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="78"/>
-      <c r="AZ20" s="79"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="79"/>
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="79"/>
+      <c r="AR20" s="79"/>
+      <c r="AS20" s="79"/>
+      <c r="AT20" s="79"/>
+      <c r="AU20" s="79"/>
+      <c r="AV20" s="79"/>
+      <c r="AW20" s="79"/>
+      <c r="AX20" s="79"/>
+      <c r="AY20" s="79"/>
+      <c r="AZ20" s="80"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -5009,56 +5135,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="78"/>
-      <c r="AZ21" s="79"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="80"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -5066,56 +5192,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="79"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="80"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="80"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -5123,56 +5249,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="78"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="79"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="78"/>
-      <c r="AP23" s="78"/>
-      <c r="AQ23" s="78"/>
-      <c r="AR23" s="78"/>
-      <c r="AS23" s="78"/>
-      <c r="AT23" s="78"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="78"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="78"/>
-      <c r="AY23" s="78"/>
-      <c r="AZ23" s="79"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="80"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -5180,56 +5306,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="78"/>
-      <c r="AC24" s="78"/>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="78"/>
-      <c r="AF24" s="78"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="78"/>
-      <c r="AI24" s="78"/>
-      <c r="AJ24" s="78"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="79"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="78"/>
-      <c r="AO24" s="78"/>
-      <c r="AP24" s="78"/>
-      <c r="AQ24" s="78"/>
-      <c r="AR24" s="78"/>
-      <c r="AS24" s="78"/>
-      <c r="AT24" s="78"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="78"/>
-      <c r="AW24" s="78"/>
-      <c r="AX24" s="78"/>
-      <c r="AY24" s="78"/>
-      <c r="AZ24" s="79"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="80"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="79"/>
+      <c r="AO24" s="79"/>
+      <c r="AP24" s="79"/>
+      <c r="AQ24" s="79"/>
+      <c r="AR24" s="79"/>
+      <c r="AS24" s="79"/>
+      <c r="AT24" s="79"/>
+      <c r="AU24" s="79"/>
+      <c r="AV24" s="79"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="79"/>
+      <c r="AZ24" s="80"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -5237,56 +5363,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="78"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="78"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="78"/>
-      <c r="AO25" s="78"/>
-      <c r="AP25" s="78"/>
-      <c r="AQ25" s="78"/>
-      <c r="AR25" s="78"/>
-      <c r="AS25" s="78"/>
-      <c r="AT25" s="78"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="78"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="78"/>
-      <c r="AY25" s="78"/>
-      <c r="AZ25" s="79"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="80"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="79"/>
+      <c r="AQ25" s="79"/>
+      <c r="AR25" s="79"/>
+      <c r="AS25" s="79"/>
+      <c r="AT25" s="79"/>
+      <c r="AU25" s="79"/>
+      <c r="AV25" s="79"/>
+      <c r="AW25" s="79"/>
+      <c r="AX25" s="79"/>
+      <c r="AY25" s="79"/>
+      <c r="AZ25" s="80"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -5294,56 +5420,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
-      <c r="AC26" s="78"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="78"/>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="78"/>
-      <c r="AP26" s="78"/>
-      <c r="AQ26" s="78"/>
-      <c r="AR26" s="78"/>
-      <c r="AS26" s="78"/>
-      <c r="AT26" s="78"/>
-      <c r="AU26" s="78"/>
-      <c r="AV26" s="78"/>
-      <c r="AW26" s="78"/>
-      <c r="AX26" s="78"/>
-      <c r="AY26" s="78"/>
-      <c r="AZ26" s="79"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="80"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -5351,56 +5477,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="78"/>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="78"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="78"/>
-      <c r="AO27" s="78"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78"/>
-      <c r="AZ27" s="79"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="80"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -5408,56 +5534,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="78"/>
-      <c r="AZ28" s="79"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="80"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -5465,56 +5591,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="78"/>
-      <c r="AH29" s="78"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="78"/>
-      <c r="AK29" s="78"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="78"/>
-      <c r="AO29" s="78"/>
-      <c r="AP29" s="78"/>
-      <c r="AQ29" s="78"/>
-      <c r="AR29" s="78"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="78"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="78"/>
-      <c r="AY29" s="78"/>
-      <c r="AZ29" s="79"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="80"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -5522,56 +5648,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="78"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="78"/>
-      <c r="AO30" s="78"/>
-      <c r="AP30" s="78"/>
-      <c r="AQ30" s="78"/>
-      <c r="AR30" s="78"/>
-      <c r="AS30" s="78"/>
-      <c r="AT30" s="78"/>
-      <c r="AU30" s="78"/>
-      <c r="AV30" s="78"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="78"/>
-      <c r="AY30" s="78"/>
-      <c r="AZ30" s="79"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="79"/>
+      <c r="AT30" s="79"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="79"/>
+      <c r="AZ30" s="80"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -5579,56 +5705,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="78"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="78"/>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="78"/>
-      <c r="AH31" s="78"/>
-      <c r="AI31" s="78"/>
-      <c r="AJ31" s="78"/>
-      <c r="AK31" s="78"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="78"/>
-      <c r="AO31" s="78"/>
-      <c r="AP31" s="78"/>
-      <c r="AQ31" s="78"/>
-      <c r="AR31" s="78"/>
-      <c r="AS31" s="78"/>
-      <c r="AT31" s="78"/>
-      <c r="AU31" s="78"/>
-      <c r="AV31" s="78"/>
-      <c r="AW31" s="78"/>
-      <c r="AX31" s="78"/>
-      <c r="AY31" s="78"/>
-      <c r="AZ31" s="79"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="80"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="79"/>
+      <c r="AP31" s="79"/>
+      <c r="AQ31" s="79"/>
+      <c r="AR31" s="79"/>
+      <c r="AS31" s="79"/>
+      <c r="AT31" s="79"/>
+      <c r="AU31" s="79"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="79"/>
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="79"/>
+      <c r="AZ31" s="80"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -5636,56 +5762,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="78"/>
-      <c r="AI32" s="78"/>
-      <c r="AJ32" s="78"/>
-      <c r="AK32" s="78"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="78"/>
-      <c r="AO32" s="78"/>
-      <c r="AP32" s="78"/>
-      <c r="AQ32" s="78"/>
-      <c r="AR32" s="78"/>
-      <c r="AS32" s="78"/>
-      <c r="AT32" s="78"/>
-      <c r="AU32" s="78"/>
-      <c r="AV32" s="78"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="78"/>
-      <c r="AY32" s="78"/>
-      <c r="AZ32" s="79"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="80"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="79"/>
+      <c r="AT32" s="79"/>
+      <c r="AU32" s="79"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="79"/>
+      <c r="AZ32" s="80"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -5693,56 +5819,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="78"/>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="78"/>
-      <c r="AJ33" s="78"/>
-      <c r="AK33" s="78"/>
-      <c r="AL33" s="79"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="78"/>
-      <c r="AO33" s="78"/>
-      <c r="AP33" s="78"/>
-      <c r="AQ33" s="78"/>
-      <c r="AR33" s="78"/>
-      <c r="AS33" s="78"/>
-      <c r="AT33" s="78"/>
-      <c r="AU33" s="78"/>
-      <c r="AV33" s="78"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="78"/>
-      <c r="AY33" s="78"/>
-      <c r="AZ33" s="79"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="79"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="79"/>
+      <c r="AJ33" s="79"/>
+      <c r="AK33" s="79"/>
+      <c r="AL33" s="80"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="79"/>
+      <c r="AO33" s="79"/>
+      <c r="AP33" s="79"/>
+      <c r="AQ33" s="79"/>
+      <c r="AR33" s="79"/>
+      <c r="AS33" s="79"/>
+      <c r="AT33" s="79"/>
+      <c r="AU33" s="79"/>
+      <c r="AV33" s="79"/>
+      <c r="AW33" s="79"/>
+      <c r="AX33" s="79"/>
+      <c r="AY33" s="79"/>
+      <c r="AZ33" s="80"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -5750,56 +5876,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="78"/>
-      <c r="AC34" s="78"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="78"/>
-      <c r="AF34" s="78"/>
-      <c r="AG34" s="78"/>
-      <c r="AH34" s="78"/>
-      <c r="AI34" s="78"/>
-      <c r="AJ34" s="78"/>
-      <c r="AK34" s="78"/>
-      <c r="AL34" s="79"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="78"/>
-      <c r="AO34" s="78"/>
-      <c r="AP34" s="78"/>
-      <c r="AQ34" s="78"/>
-      <c r="AR34" s="78"/>
-      <c r="AS34" s="78"/>
-      <c r="AT34" s="78"/>
-      <c r="AU34" s="78"/>
-      <c r="AV34" s="78"/>
-      <c r="AW34" s="78"/>
-      <c r="AX34" s="78"/>
-      <c r="AY34" s="78"/>
-      <c r="AZ34" s="79"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="80"/>
+      <c r="AM34" s="78"/>
+      <c r="AN34" s="79"/>
+      <c r="AO34" s="79"/>
+      <c r="AP34" s="79"/>
+      <c r="AQ34" s="79"/>
+      <c r="AR34" s="79"/>
+      <c r="AS34" s="79"/>
+      <c r="AT34" s="79"/>
+      <c r="AU34" s="79"/>
+      <c r="AV34" s="79"/>
+      <c r="AW34" s="79"/>
+      <c r="AX34" s="79"/>
+      <c r="AY34" s="79"/>
+      <c r="AZ34" s="80"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -5807,56 +5933,56 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="78"/>
-      <c r="AC35" s="78"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="78"/>
-      <c r="AF35" s="78"/>
-      <c r="AG35" s="78"/>
-      <c r="AH35" s="78"/>
-      <c r="AI35" s="78"/>
-      <c r="AJ35" s="78"/>
-      <c r="AK35" s="78"/>
-      <c r="AL35" s="79"/>
-      <c r="AM35" s="77"/>
-      <c r="AN35" s="78"/>
-      <c r="AO35" s="78"/>
-      <c r="AP35" s="78"/>
-      <c r="AQ35" s="78"/>
-      <c r="AR35" s="78"/>
-      <c r="AS35" s="78"/>
-      <c r="AT35" s="78"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="78"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="78"/>
-      <c r="AY35" s="78"/>
-      <c r="AZ35" s="79"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
+      <c r="AL35" s="80"/>
+      <c r="AM35" s="78"/>
+      <c r="AN35" s="79"/>
+      <c r="AO35" s="79"/>
+      <c r="AP35" s="79"/>
+      <c r="AQ35" s="79"/>
+      <c r="AR35" s="79"/>
+      <c r="AS35" s="79"/>
+      <c r="AT35" s="79"/>
+      <c r="AU35" s="79"/>
+      <c r="AV35" s="79"/>
+      <c r="AW35" s="79"/>
+      <c r="AX35" s="79"/>
+      <c r="AY35" s="79"/>
+      <c r="AZ35" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="140">
@@ -6011,13 +6137,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BE83"/>
+  <dimension ref="A1:BE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="9" width="3.33203125" style="13"/>
+    <col min="1" max="1" width="3.33203125" style="13"/>
+    <col min="2" max="2" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="3.33203125" style="13"/>
     <col min="10" max="10" width="2.5" style="13" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" style="13" customWidth="1"/>
     <col min="12" max="34" width="3.33203125" style="13"/>
@@ -6259,7 +6387,7 @@
     </row>
     <row r="6" spans="1:51" customFormat="1">
       <c r="A6" s="36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6307,7 +6435,7 @@
     </row>
     <row r="7" spans="1:51">
       <c r="A7" s="36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -6355,7 +6483,7 @@
     </row>
     <row r="8" spans="1:51">
       <c r="A8" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -6693,7 +6821,7 @@
     <row r="15" spans="1:51">
       <c r="A15" s="44"/>
       <c r="B15" s="45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -6709,7 +6837,7 @@
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
       <c r="P15" s="45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="45"/>
       <c r="R15" s="45"/>
@@ -6725,7 +6853,7 @@
       <c r="AB15" s="45"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AE15" s="45"/>
       <c r="AF15" s="45"/>
@@ -8649,7 +8777,7 @@
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
       <c r="U54" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V54" s="24"/>
       <c r="W54" s="24"/>
@@ -8668,7 +8796,7 @@
       <c r="AH54" s="26"/>
       <c r="AI54" s="23"/>
       <c r="AJ54" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK54" s="26"/>
       <c r="AL54" s="26"/>
@@ -8694,7 +8822,7 @@
       </c>
       <c r="C55" s="40"/>
       <c r="D55" s="38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
@@ -8708,7 +8836,7 @@
       <c r="N55" s="39"/>
       <c r="O55" s="40"/>
       <c r="P55" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q55" s="39"/>
       <c r="R55" s="39"/>
@@ -8743,7 +8871,7 @@
       <c r="AO55" s="39"/>
       <c r="AP55" s="40"/>
       <c r="AQ55" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AR55" s="39"/>
       <c r="AS55" s="39"/>
@@ -8760,7 +8888,7 @@
       </c>
       <c r="C56" s="40"/>
       <c r="D56" s="38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
@@ -8774,7 +8902,7 @@
       <c r="N56" s="39"/>
       <c r="O56" s="40"/>
       <c r="P56" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q56" s="39"/>
       <c r="R56" s="39"/>
@@ -8824,7 +8952,7 @@
       </c>
       <c r="C57" s="40"/>
       <c r="D57" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
@@ -8838,14 +8966,14 @@
       <c r="N57" s="39"/>
       <c r="O57" s="40"/>
       <c r="P57" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
       <c r="S57" s="39"/>
       <c r="T57" s="40"/>
       <c r="U57" s="38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
@@ -8888,7 +9016,7 @@
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
@@ -8902,7 +9030,7 @@
       <c r="N58" s="39"/>
       <c r="O58" s="40"/>
       <c r="P58" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="39"/>
       <c r="R58" s="39"/>
@@ -8952,7 +9080,7 @@
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
@@ -8966,14 +9094,14 @@
       <c r="N59" s="39"/>
       <c r="O59" s="40"/>
       <c r="P59" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="39"/>
       <c r="R59" s="39"/>
       <c r="S59" s="39"/>
       <c r="T59" s="40"/>
       <c r="U59" s="38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
@@ -8992,7 +9120,7 @@
       <c r="AH59" s="39"/>
       <c r="AI59" s="40"/>
       <c r="AJ59" s="38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AK59" s="39"/>
       <c r="AL59" s="39"/>
@@ -9016,7 +9144,7 @@
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
@@ -9030,14 +9158,14 @@
       <c r="N60" s="39"/>
       <c r="O60" s="40"/>
       <c r="P60" s="38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
       <c r="T60" s="40"/>
       <c r="U60" s="38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
@@ -9080,7 +9208,7 @@
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="39"/>
@@ -9094,14 +9222,14 @@
       <c r="N61" s="39"/>
       <c r="O61" s="40"/>
       <c r="P61" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
       <c r="S61" s="39"/>
       <c r="T61" s="40"/>
       <c r="U61" s="38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
@@ -9120,7 +9248,7 @@
       <c r="AH61" s="39"/>
       <c r="AI61" s="40"/>
       <c r="AJ61" s="38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AK61" s="39"/>
       <c r="AL61" s="39"/>
@@ -9144,7 +9272,7 @@
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E62" s="39"/>
       <c r="F62" s="39"/>
@@ -9158,14 +9286,14 @@
       <c r="N62" s="39"/>
       <c r="O62" s="40"/>
       <c r="P62" s="38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q62" s="39"/>
       <c r="R62" s="39"/>
       <c r="S62" s="39"/>
       <c r="T62" s="40"/>
       <c r="U62" s="38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V62" s="39"/>
       <c r="W62" s="39"/>
@@ -9208,7 +9336,7 @@
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E63" s="39"/>
       <c r="F63" s="39"/>
@@ -9222,14 +9350,14 @@
       <c r="N63" s="39"/>
       <c r="O63" s="40"/>
       <c r="P63" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q63" s="39"/>
       <c r="R63" s="39"/>
       <c r="S63" s="39"/>
       <c r="T63" s="40"/>
       <c r="U63" s="38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
@@ -9272,7 +9400,7 @@
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
@@ -9286,14 +9414,14 @@
       <c r="N64" s="39"/>
       <c r="O64" s="40"/>
       <c r="P64" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q64" s="39"/>
       <c r="R64" s="39"/>
       <c r="S64" s="39"/>
       <c r="T64" s="40"/>
       <c r="U64" s="38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V64" s="39"/>
       <c r="W64" s="39"/>
@@ -9328,7 +9456,7 @@
       <c r="AV64" s="39"/>
       <c r="AW64" s="40"/>
     </row>
-    <row r="65" spans="1:54">
+    <row r="65" spans="1:57">
       <c r="A65" s="36"/>
       <c r="B65" s="35"/>
       <c r="C65" s="21"/>
@@ -9376,7 +9504,7 @@
       <c r="AS65" s="21"/>
       <c r="AT65" s="21"/>
     </row>
-    <row r="66" spans="1:54">
+    <row r="66" spans="1:57">
       <c r="A66" s="36"/>
       <c r="B66" s="35" t="s">
         <v>32</v>
@@ -9429,7 +9557,7 @@
       <c r="AV66" s="21"/>
       <c r="AW66" s="21"/>
     </row>
-    <row r="67" spans="1:54" s="27" customFormat="1">
+    <row r="67" spans="1:57" s="27" customFormat="1">
       <c r="A67" s="36"/>
       <c r="B67" s="22" t="s">
         <v>17</v>
@@ -9449,16 +9577,16 @@
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="16"/>
-      <c r="P67" s="86" t="s">
+      <c r="P67" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="87"/>
-      <c r="S67" s="87"/>
-      <c r="T67" s="87"/>
-      <c r="U67" s="87"/>
-      <c r="V67" s="87"/>
-      <c r="W67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="89"/>
       <c r="X67" s="22" t="s">
         <v>29</v>
       </c>
@@ -9481,7 +9609,7 @@
       <c r="AO67" s="26"/>
       <c r="AP67" s="23"/>
     </row>
-    <row r="68" spans="1:54">
+    <row r="68" spans="1:57">
       <c r="A68" s="36"/>
       <c r="B68" s="41">
         <f>ROW()-67</f>
@@ -9489,7 +9617,7 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E68" s="39"/>
       <c r="F68" s="39"/>
@@ -9513,7 +9641,7 @@
       <c r="V68" s="39"/>
       <c r="W68" s="40"/>
       <c r="X68" s="38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y68" s="39"/>
       <c r="Z68" s="39"/>
@@ -9534,7 +9662,7 @@
       <c r="AO68" s="39"/>
       <c r="AP68" s="40"/>
     </row>
-    <row r="69" spans="1:54">
+    <row r="69" spans="1:57">
       <c r="A69" s="36"/>
       <c r="B69" s="41">
         <f t="shared" ref="B69:B72" si="1">ROW()-67</f>
@@ -9542,7 +9670,7 @@
       </c>
       <c r="C69" s="40"/>
       <c r="D69" s="38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="39"/>
@@ -9566,7 +9694,7 @@
       <c r="V69" s="39"/>
       <c r="W69" s="40"/>
       <c r="X69" s="38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y69" s="39"/>
       <c r="Z69" s="39"/>
@@ -9587,7 +9715,7 @@
       <c r="AO69" s="39"/>
       <c r="AP69" s="40"/>
     </row>
-    <row r="70" spans="1:54">
+    <row r="70" spans="1:57">
       <c r="A70" s="36"/>
       <c r="B70" s="41">
         <f t="shared" si="1"/>
@@ -9595,7 +9723,7 @@
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39"/>
@@ -9619,7 +9747,7 @@
       <c r="V70" s="39"/>
       <c r="W70" s="40"/>
       <c r="X70" s="38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y70" s="39"/>
       <c r="Z70" s="39"/>
@@ -9640,7 +9768,7 @@
       <c r="AO70" s="39"/>
       <c r="AP70" s="40"/>
     </row>
-    <row r="71" spans="1:54">
+    <row r="71" spans="1:57">
       <c r="A71" s="36"/>
       <c r="B71" s="41">
         <f t="shared" si="1"/>
@@ -9648,7 +9776,7 @@
       </c>
       <c r="C71" s="40"/>
       <c r="D71" s="38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
@@ -9672,7 +9800,7 @@
       <c r="V71" s="39"/>
       <c r="W71" s="40"/>
       <c r="X71" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y71" s="39"/>
       <c r="Z71" s="39"/>
@@ -9693,7 +9821,7 @@
       <c r="AO71" s="39"/>
       <c r="AP71" s="40"/>
     </row>
-    <row r="72" spans="1:54">
+    <row r="72" spans="1:57">
       <c r="A72" s="36"/>
       <c r="B72" s="41">
         <f t="shared" si="1"/>
@@ -9701,7 +9829,7 @@
       </c>
       <c r="C72" s="40"/>
       <c r="D72" s="38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
@@ -9725,7 +9853,7 @@
       <c r="V72" s="39"/>
       <c r="W72" s="40"/>
       <c r="X72" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Y72" s="39"/>
       <c r="Z72" s="39"/>
@@ -9746,7 +9874,7 @@
       <c r="AO72" s="39"/>
       <c r="AP72" s="40"/>
     </row>
-    <row r="73" spans="1:54">
+    <row r="73" spans="1:57">
       <c r="A73" s="36"/>
       <c r="B73" s="35"/>
       <c r="C73" s="21"/>
@@ -9789,18 +9917,11 @@
       <c r="AN73" s="21"/>
       <c r="AO73" s="21"/>
       <c r="AP73" s="21"/>
-      <c r="AQ73" s="21"/>
-      <c r="AR73" s="21"/>
-      <c r="AS73" s="21"/>
-      <c r="AT73" s="21"/>
-      <c r="AU73" s="21"/>
-      <c r="AV73" s="21"/>
-      <c r="AW73" s="21"/>
-    </row>
-    <row r="74" spans="1:54">
+    </row>
+    <row r="74" spans="1:57">
       <c r="A74" s="36"/>
       <c r="B74" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
@@ -9849,18 +9970,20 @@
       <c r="AU74" s="21"/>
       <c r="AV74" s="21"/>
       <c r="AW74" s="21"/>
-    </row>
-    <row r="75" spans="1:54" s="27" customFormat="1" ht="32" customHeight="1">
+      <c r="AX74" s="21"/>
+      <c r="AY74" s="21"/>
+    </row>
+    <row r="75" spans="1:57" s="27" customFormat="1" ht="32" customHeight="1">
       <c r="A75" s="36"/>
       <c r="B75" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="23"/>
-      <c r="D75" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75" s="84"/>
-      <c r="F75" s="85"/>
+      <c r="D75" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="85"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="14" t="s">
         <v>19</v>
       </c>
@@ -9869,30 +9992,30 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
-      <c r="M75" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="O75" s="15"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="T75" s="15"/>
       <c r="U75" s="15"/>
       <c r="V75" s="15"/>
-      <c r="W75" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="W75" s="15"/>
       <c r="X75" s="15"/>
       <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
+      <c r="Z75" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="AA75" s="15"/>
-      <c r="AB75" s="48"/>
-      <c r="AC75" s="48"/>
-      <c r="AD75" s="48"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
       <c r="AE75" s="48"/>
       <c r="AF75" s="48"/>
       <c r="AG75" s="48"/>
@@ -9905,22 +10028,26 @@
       <c r="AN75" s="48"/>
       <c r="AO75" s="48"/>
       <c r="AP75" s="48"/>
-      <c r="AQ75" s="49"/>
-      <c r="AR75" s="43"/>
-      <c r="AS75" s="43"/>
-      <c r="AT75" s="43"/>
+      <c r="AQ75" s="48"/>
+      <c r="AR75" s="48"/>
+      <c r="AS75" s="48"/>
+      <c r="AT75" s="49"/>
       <c r="AU75" s="43"/>
       <c r="AV75" s="43"/>
       <c r="AW75" s="43"/>
       <c r="AX75" s="43"/>
-      <c r="AY75" s="21"/>
-      <c r="AZ75" s="21"/>
-      <c r="BA75" s="21"/>
-      <c r="BB75" s="13"/>
-    </row>
-    <row r="76" spans="1:54">
+      <c r="AY75" s="43"/>
+      <c r="AZ75" s="43"/>
+      <c r="BA75" s="43"/>
+      <c r="BB75" s="21"/>
+      <c r="BC75" s="21"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="13"/>
+    </row>
+    <row r="76" spans="1:57">
       <c r="A76" s="36"/>
       <c r="B76" s="41">
+        <f>ROW()-75</f>
         <v>1</v>
       </c>
       <c r="C76" s="40"/>
@@ -9930,33 +10057,33 @@
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
       <c r="G76" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39"/>
       <c r="L76" s="39"/>
-      <c r="M76" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="N76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="38" t="s">
+        <v>101</v>
+      </c>
       <c r="O76" s="39"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="38" t="s">
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
       <c r="T76" s="39"/>
       <c r="U76" s="39"/>
       <c r="V76" s="39"/>
-      <c r="W76" s="38" t="s">
-        <v>109</v>
-      </c>
+      <c r="W76" s="39"/>
       <c r="X76" s="39"/>
       <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
+      <c r="Z76" s="38" t="s">
+        <v>105</v>
+      </c>
       <c r="AA76" s="39"/>
       <c r="AB76" s="39"/>
       <c r="AC76" s="39"/>
@@ -9973,21 +10100,25 @@
       <c r="AN76" s="39"/>
       <c r="AO76" s="39"/>
       <c r="AP76" s="39"/>
-      <c r="AQ76" s="40"/>
-      <c r="AR76" s="37"/>
-      <c r="AS76" s="37"/>
-      <c r="AT76" s="37"/>
+      <c r="AQ76" s="39"/>
+      <c r="AR76" s="39"/>
+      <c r="AS76" s="39"/>
+      <c r="AT76" s="40"/>
       <c r="AU76" s="37"/>
       <c r="AV76" s="37"/>
       <c r="AW76" s="37"/>
       <c r="AX76" s="37"/>
-      <c r="AY76" s="17"/>
-      <c r="AZ76" s="17"/>
-      <c r="BA76" s="17"/>
-    </row>
-    <row r="77" spans="1:54">
+      <c r="AY76" s="37"/>
+      <c r="AZ76" s="37"/>
+      <c r="BA76" s="37"/>
+      <c r="BB76" s="17"/>
+      <c r="BC76" s="17"/>
+      <c r="BD76" s="17"/>
+    </row>
+    <row r="77" spans="1:57">
       <c r="A77" s="36"/>
       <c r="B77" s="41">
+        <f t="shared" ref="B77:B88" si="2">ROW()-75</f>
         <v>2</v>
       </c>
       <c r="C77" s="40"/>
@@ -10000,26 +10131,26 @@
       <c r="J77" s="39"/>
       <c r="K77" s="39"/>
       <c r="L77" s="39"/>
-      <c r="M77" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="38" t="s">
+        <v>107</v>
+      </c>
       <c r="O77" s="39"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="50" t="s">
+        <v>104</v>
+      </c>
       <c r="T77" s="39"/>
       <c r="U77" s="39"/>
       <c r="V77" s="39"/>
-      <c r="W77" s="38" t="s">
-        <v>110</v>
-      </c>
+      <c r="W77" s="39"/>
       <c r="X77" s="39"/>
       <c r="Y77" s="39"/>
-      <c r="Z77" s="39"/>
+      <c r="Z77" s="38" t="s">
+        <v>106</v>
+      </c>
       <c r="AA77" s="39"/>
       <c r="AB77" s="39"/>
       <c r="AC77" s="39"/>
@@ -10036,22 +10167,26 @@
       <c r="AN77" s="39"/>
       <c r="AO77" s="39"/>
       <c r="AP77" s="39"/>
-      <c r="AQ77" s="40"/>
-      <c r="AR77" s="37"/>
-      <c r="AS77" s="37"/>
-      <c r="AT77" s="37"/>
+      <c r="AQ77" s="39"/>
+      <c r="AR77" s="39"/>
+      <c r="AS77" s="39"/>
+      <c r="AT77" s="40"/>
       <c r="AU77" s="37"/>
       <c r="AV77" s="37"/>
       <c r="AW77" s="37"/>
       <c r="AX77" s="37"/>
-      <c r="AY77" s="17"/>
-      <c r="AZ77" s="17"/>
-      <c r="BA77" s="17"/>
-    </row>
-    <row r="78" spans="1:54">
+      <c r="AY77" s="37"/>
+      <c r="AZ77" s="37"/>
+      <c r="BA77" s="37"/>
+      <c r="BB77" s="17"/>
+      <c r="BC77" s="17"/>
+      <c r="BD77" s="17"/>
+    </row>
+    <row r="78" spans="1:57">
       <c r="A78" s="36"/>
       <c r="B78" s="41">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="C78" s="40"/>
       <c r="D78" s="38">
@@ -10060,33 +10195,33 @@
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
       <c r="G78" s="38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="39"/>
       <c r="J78" s="39"/>
       <c r="K78" s="39"/>
       <c r="L78" s="39"/>
-      <c r="M78" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="N78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="38" t="s">
+        <v>101</v>
+      </c>
       <c r="O78" s="39"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="38" t="s">
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
       <c r="T78" s="39"/>
       <c r="U78" s="39"/>
       <c r="V78" s="39"/>
-      <c r="W78" s="38" t="s">
-        <v>113</v>
-      </c>
+      <c r="W78" s="39"/>
       <c r="X78" s="39"/>
       <c r="Y78" s="39"/>
-      <c r="Z78" s="39"/>
+      <c r="Z78" s="38" t="s">
+        <v>109</v>
+      </c>
       <c r="AA78" s="39"/>
       <c r="AB78" s="39"/>
       <c r="AC78" s="39"/>
@@ -10103,22 +10238,26 @@
       <c r="AN78" s="39"/>
       <c r="AO78" s="39"/>
       <c r="AP78" s="39"/>
-      <c r="AQ78" s="40"/>
-      <c r="AR78" s="37"/>
-      <c r="AS78" s="37"/>
-      <c r="AT78" s="37"/>
+      <c r="AQ78" s="39"/>
+      <c r="AR78" s="39"/>
+      <c r="AS78" s="39"/>
+      <c r="AT78" s="40"/>
       <c r="AU78" s="37"/>
       <c r="AV78" s="37"/>
       <c r="AW78" s="37"/>
       <c r="AX78" s="37"/>
-      <c r="AY78" s="17"/>
-      <c r="AZ78" s="17"/>
-      <c r="BA78" s="17"/>
-    </row>
-    <row r="79" spans="1:54">
+      <c r="AY78" s="37"/>
+      <c r="AZ78" s="37"/>
+      <c r="BA78" s="37"/>
+      <c r="BB78" s="17"/>
+      <c r="BC78" s="17"/>
+      <c r="BD78" s="17"/>
+    </row>
+    <row r="79" spans="1:57">
       <c r="A79" s="36"/>
       <c r="B79" s="41">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="C79" s="40"/>
       <c r="D79" s="38"/>
@@ -10130,26 +10269,26 @@
       <c r="J79" s="39"/>
       <c r="K79" s="39"/>
       <c r="L79" s="39"/>
-      <c r="M79" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="38" t="s">
+        <v>113</v>
+      </c>
       <c r="O79" s="39"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="50" t="s">
+        <v>114</v>
+      </c>
       <c r="T79" s="39"/>
       <c r="U79" s="39"/>
       <c r="V79" s="39"/>
-      <c r="W79" s="38" t="s">
-        <v>114</v>
-      </c>
+      <c r="W79" s="39"/>
       <c r="X79" s="39"/>
       <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
+      <c r="Z79" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="AA79" s="39"/>
       <c r="AB79" s="39"/>
       <c r="AC79" s="39"/>
@@ -10166,37 +10305,641 @@
       <c r="AN79" s="39"/>
       <c r="AO79" s="39"/>
       <c r="AP79" s="39"/>
-      <c r="AQ79" s="40"/>
-      <c r="AR79" s="37"/>
-      <c r="AS79" s="37"/>
-      <c r="AT79" s="37"/>
+      <c r="AQ79" s="39"/>
+      <c r="AR79" s="39"/>
+      <c r="AS79" s="39"/>
+      <c r="AT79" s="40"/>
       <c r="AU79" s="37"/>
       <c r="AV79" s="37"/>
       <c r="AW79" s="37"/>
       <c r="AX79" s="37"/>
-      <c r="AY79" s="17"/>
-      <c r="AZ79" s="17"/>
-      <c r="BA79" s="17"/>
-    </row>
-    <row r="80" spans="1:54">
-      <c r="A80" s="28"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="29"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="28"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="28"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="29"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="28"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="29"/>
+      <c r="AY79" s="37"/>
+      <c r="AZ79" s="37"/>
+      <c r="BA79" s="37"/>
+      <c r="BB79" s="17"/>
+      <c r="BC79" s="17"/>
+      <c r="BD79" s="17"/>
+    </row>
+    <row r="80" spans="1:57">
+      <c r="A80" s="36"/>
+      <c r="B80" s="41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="39"/>
+      <c r="Z80" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA80" s="39"/>
+      <c r="AB80" s="39"/>
+      <c r="AC80" s="39"/>
+      <c r="AD80" s="39"/>
+      <c r="AE80" s="39"/>
+      <c r="AF80" s="39"/>
+      <c r="AG80" s="39"/>
+      <c r="AH80" s="39"/>
+      <c r="AI80" s="39"/>
+      <c r="AJ80" s="39"/>
+      <c r="AK80" s="39"/>
+      <c r="AL80" s="39"/>
+      <c r="AM80" s="39"/>
+      <c r="AN80" s="39"/>
+      <c r="AO80" s="39"/>
+      <c r="AP80" s="39"/>
+      <c r="AQ80" s="39"/>
+      <c r="AR80" s="39"/>
+      <c r="AS80" s="39"/>
+      <c r="AT80" s="40"/>
+      <c r="AU80" s="37"/>
+      <c r="AV80" s="37"/>
+      <c r="AW80" s="37"/>
+      <c r="AX80" s="37"/>
+      <c r="AY80" s="37"/>
+      <c r="AZ80" s="37"/>
+      <c r="BA80" s="37"/>
+      <c r="BB80" s="17"/>
+      <c r="BC80" s="17"/>
+      <c r="BD80" s="17"/>
+    </row>
+    <row r="81" spans="1:56">
+      <c r="A81" s="36"/>
+      <c r="B81" s="41">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA81" s="39"/>
+      <c r="AB81" s="39"/>
+      <c r="AC81" s="39"/>
+      <c r="AD81" s="39"/>
+      <c r="AE81" s="39"/>
+      <c r="AF81" s="39"/>
+      <c r="AG81" s="39"/>
+      <c r="AH81" s="39"/>
+      <c r="AI81" s="39"/>
+      <c r="AJ81" s="39"/>
+      <c r="AK81" s="39"/>
+      <c r="AL81" s="39"/>
+      <c r="AM81" s="39"/>
+      <c r="AN81" s="39"/>
+      <c r="AO81" s="39"/>
+      <c r="AP81" s="39"/>
+      <c r="AQ81" s="39"/>
+      <c r="AR81" s="39"/>
+      <c r="AS81" s="39"/>
+      <c r="AT81" s="40"/>
+      <c r="AU81" s="37"/>
+      <c r="AV81" s="37"/>
+      <c r="AW81" s="37"/>
+      <c r="AX81" s="37"/>
+      <c r="AY81" s="37"/>
+      <c r="AZ81" s="37"/>
+      <c r="BA81" s="37"/>
+      <c r="BB81" s="17"/>
+      <c r="BC81" s="17"/>
+      <c r="BD81" s="17"/>
+    </row>
+    <row r="82" spans="1:56">
+      <c r="A82" s="36"/>
+      <c r="B82" s="41">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
+      <c r="Z82" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA82" s="39"/>
+      <c r="AB82" s="39"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="39"/>
+      <c r="AE82" s="39"/>
+      <c r="AF82" s="39"/>
+      <c r="AG82" s="39"/>
+      <c r="AH82" s="39"/>
+      <c r="AI82" s="39"/>
+      <c r="AJ82" s="39"/>
+      <c r="AK82" s="39"/>
+      <c r="AL82" s="39"/>
+      <c r="AM82" s="39"/>
+      <c r="AN82" s="39"/>
+      <c r="AO82" s="39"/>
+      <c r="AP82" s="39"/>
+      <c r="AQ82" s="39"/>
+      <c r="AR82" s="39"/>
+      <c r="AS82" s="39"/>
+      <c r="AT82" s="40"/>
+      <c r="AU82" s="37"/>
+      <c r="AV82" s="37"/>
+      <c r="AW82" s="37"/>
+      <c r="AX82" s="37"/>
+      <c r="AY82" s="37"/>
+      <c r="AZ82" s="37"/>
+      <c r="BA82" s="37"/>
+      <c r="BB82" s="17"/>
+      <c r="BC82" s="17"/>
+      <c r="BD82" s="17"/>
+    </row>
+    <row r="83" spans="1:56">
+      <c r="A83" s="36"/>
+      <c r="B83" s="41">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="38">
+        <v>6</v>
+      </c>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
+      <c r="Z83" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA83" s="39"/>
+      <c r="AB83" s="39"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="39"/>
+      <c r="AF83" s="39"/>
+      <c r="AG83" s="39"/>
+      <c r="AH83" s="39"/>
+      <c r="AI83" s="39"/>
+      <c r="AJ83" s="39"/>
+      <c r="AK83" s="39"/>
+      <c r="AL83" s="39"/>
+      <c r="AM83" s="39"/>
+      <c r="AN83" s="39"/>
+      <c r="AO83" s="39"/>
+      <c r="AP83" s="39"/>
+      <c r="AQ83" s="39"/>
+      <c r="AR83" s="39"/>
+      <c r="AS83" s="39"/>
+      <c r="AT83" s="40"/>
+      <c r="AU83" s="37"/>
+      <c r="AV83" s="37"/>
+      <c r="AW83" s="37"/>
+      <c r="AX83" s="37"/>
+      <c r="AY83" s="37"/>
+      <c r="AZ83" s="37"/>
+      <c r="BA83" s="37"/>
+      <c r="BB83" s="17"/>
+      <c r="BC83" s="17"/>
+      <c r="BD83" s="17"/>
+    </row>
+    <row r="84" spans="1:56">
+      <c r="A84" s="36"/>
+      <c r="B84" s="41">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C84" s="40"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
+      <c r="Z84" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA84" s="39"/>
+      <c r="AB84" s="39"/>
+      <c r="AC84" s="39"/>
+      <c r="AD84" s="39"/>
+      <c r="AE84" s="39"/>
+      <c r="AF84" s="39"/>
+      <c r="AG84" s="39"/>
+      <c r="AH84" s="39"/>
+      <c r="AI84" s="39"/>
+      <c r="AJ84" s="39"/>
+      <c r="AK84" s="39"/>
+      <c r="AL84" s="39"/>
+      <c r="AM84" s="39"/>
+      <c r="AN84" s="39"/>
+      <c r="AO84" s="39"/>
+      <c r="AP84" s="39"/>
+      <c r="AQ84" s="39"/>
+      <c r="AR84" s="39"/>
+      <c r="AS84" s="39"/>
+      <c r="AT84" s="40"/>
+      <c r="AU84" s="37"/>
+      <c r="AV84" s="37"/>
+      <c r="AW84" s="37"/>
+      <c r="AX84" s="37"/>
+      <c r="AY84" s="37"/>
+      <c r="AZ84" s="37"/>
+      <c r="BA84" s="37"/>
+      <c r="BB84" s="17"/>
+      <c r="BC84" s="17"/>
+      <c r="BD84" s="17"/>
+    </row>
+    <row r="85" spans="1:56">
+      <c r="A85" s="36"/>
+      <c r="B85" s="41">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="39"/>
+      <c r="Y85" s="39"/>
+      <c r="Z85" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA85" s="39"/>
+      <c r="AB85" s="39"/>
+      <c r="AC85" s="39"/>
+      <c r="AD85" s="39"/>
+      <c r="AE85" s="39"/>
+      <c r="AF85" s="39"/>
+      <c r="AG85" s="39"/>
+      <c r="AH85" s="39"/>
+      <c r="AI85" s="39"/>
+      <c r="AJ85" s="39"/>
+      <c r="AK85" s="39"/>
+      <c r="AL85" s="39"/>
+      <c r="AM85" s="39"/>
+      <c r="AN85" s="39"/>
+      <c r="AO85" s="39"/>
+      <c r="AP85" s="39"/>
+      <c r="AQ85" s="39"/>
+      <c r="AR85" s="39"/>
+      <c r="AS85" s="39"/>
+      <c r="AT85" s="40"/>
+      <c r="AU85" s="37"/>
+      <c r="AV85" s="37"/>
+      <c r="AW85" s="37"/>
+      <c r="AX85" s="37"/>
+      <c r="AY85" s="37"/>
+      <c r="AZ85" s="37"/>
+      <c r="BA85" s="37"/>
+      <c r="BB85" s="17"/>
+      <c r="BC85" s="17"/>
+      <c r="BD85" s="17"/>
+    </row>
+    <row r="86" spans="1:56">
+      <c r="A86" s="36"/>
+      <c r="B86" s="41">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C86" s="40"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86" s="39"/>
+      <c r="Y86" s="39"/>
+      <c r="Z86" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA86" s="39"/>
+      <c r="AB86" s="39"/>
+      <c r="AC86" s="39"/>
+      <c r="AD86" s="39"/>
+      <c r="AE86" s="39"/>
+      <c r="AF86" s="39"/>
+      <c r="AG86" s="39"/>
+      <c r="AH86" s="39"/>
+      <c r="AI86" s="39"/>
+      <c r="AJ86" s="39"/>
+      <c r="AK86" s="39"/>
+      <c r="AL86" s="39"/>
+      <c r="AM86" s="39"/>
+      <c r="AN86" s="39"/>
+      <c r="AO86" s="39"/>
+      <c r="AP86" s="39"/>
+      <c r="AQ86" s="39"/>
+      <c r="AR86" s="39"/>
+      <c r="AS86" s="39"/>
+      <c r="AT86" s="40"/>
+      <c r="AU86" s="37"/>
+      <c r="AV86" s="37"/>
+      <c r="AW86" s="37"/>
+      <c r="AX86" s="37"/>
+      <c r="AY86" s="37"/>
+      <c r="AZ86" s="37"/>
+      <c r="BA86" s="37"/>
+      <c r="BB86" s="17"/>
+      <c r="BC86" s="17"/>
+      <c r="BD86" s="17"/>
+    </row>
+    <row r="87" spans="1:56">
+      <c r="A87" s="36"/>
+      <c r="B87" s="41">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="39"/>
+      <c r="Y87" s="39"/>
+      <c r="Z87" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA87" s="39"/>
+      <c r="AB87" s="39"/>
+      <c r="AC87" s="39"/>
+      <c r="AD87" s="39"/>
+      <c r="AE87" s="39"/>
+      <c r="AF87" s="39"/>
+      <c r="AG87" s="39"/>
+      <c r="AH87" s="39"/>
+      <c r="AI87" s="39"/>
+      <c r="AJ87" s="39"/>
+      <c r="AK87" s="39"/>
+      <c r="AL87" s="39"/>
+      <c r="AM87" s="39"/>
+      <c r="AN87" s="39"/>
+      <c r="AO87" s="39"/>
+      <c r="AP87" s="39"/>
+      <c r="AQ87" s="39"/>
+      <c r="AR87" s="39"/>
+      <c r="AS87" s="39"/>
+      <c r="AT87" s="40"/>
+      <c r="AU87" s="37"/>
+      <c r="AV87" s="37"/>
+      <c r="AW87" s="37"/>
+      <c r="AX87" s="37"/>
+      <c r="AY87" s="37"/>
+      <c r="AZ87" s="37"/>
+      <c r="BA87" s="37"/>
+      <c r="BB87" s="17"/>
+      <c r="BC87" s="17"/>
+      <c r="BD87" s="17"/>
+    </row>
+    <row r="88" spans="1:56">
+      <c r="A88" s="36"/>
+      <c r="B88" s="41">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C88" s="40"/>
+      <c r="D88" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
+      <c r="Z88" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA88" s="39"/>
+      <c r="AB88" s="39"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="39"/>
+      <c r="AE88" s="39"/>
+      <c r="AF88" s="39"/>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="39"/>
+      <c r="AJ88" s="39"/>
+      <c r="AK88" s="39"/>
+      <c r="AL88" s="39"/>
+      <c r="AM88" s="39"/>
+      <c r="AN88" s="39"/>
+      <c r="AO88" s="39"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="39"/>
+      <c r="AR88" s="39"/>
+      <c r="AS88" s="39"/>
+      <c r="AT88" s="40"/>
+      <c r="AU88" s="37"/>
+      <c r="AV88" s="37"/>
+      <c r="AW88" s="37"/>
+      <c r="AX88" s="37"/>
+      <c r="AY88" s="37"/>
+      <c r="AZ88" s="37"/>
+      <c r="BA88" s="37"/>
+      <c r="BB88" s="17"/>
+      <c r="BC88" s="17"/>
+      <c r="BD88" s="17"/>
+    </row>
+    <row r="89" spans="1:56">
+      <c r="A89" s="28"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="29"/>
+    </row>
+    <row r="90" spans="1:56">
+      <c r="A90" s="28"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10220,9 +10963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E07A0BC-516D-374A-A489-ACDC44361CFF}">
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -10232,13 +10973,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18">
       <c r="B2" s="47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18">
@@ -10246,10 +10987,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18">
@@ -10257,10 +10998,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18">
@@ -10268,10 +11009,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18">
@@ -10279,10 +11020,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18">
@@ -10290,10 +11031,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18">
@@ -10301,10 +11042,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18">
@@ -10312,10 +11053,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18">
@@ -10323,10 +11064,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18">
@@ -10334,10 +11075,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18">
@@ -10345,10 +11086,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18">
@@ -10356,10 +11097,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18">
@@ -10367,10 +11108,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18">
@@ -10378,10 +11119,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18">
@@ -10389,10 +11130,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18">
@@ -10400,10 +11141,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_マイページ画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_マイページ画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ED61F6-514E-EE4F-B32D-F3D47EA1F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C418964-AE93-40A3-A6A3-138EC98562AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72000" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-28920" yWindow="-450" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -32,8 +32,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -870,6 +873,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠山</t>
+    <rPh sb="0" eb="2">
+      <t>トオヤマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -878,7 +888,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1026,6 +1036,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="MeiryoUI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MeiryoUI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1201,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1355,6 +1372,51 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,50 +1444,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1445,15 +1471,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,6 +1488,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,7 +1547,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3967"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3969"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1555,6 +1578,50 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>124244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2CD7DB-6588-47D1-BC8F-5415CF07DC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="5429250"/>
+          <a:ext cx="4600575" cy="3000794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1583,13 +1650,13 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2940"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2942"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -1609,2123 +1676,48 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228097</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152652</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>50297</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>139952</xdr:rowOff>
+      <xdr:colOff>144113</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19816</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="95" name="グループ化 94">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7442E041-76A4-B044-8D0D-4CA1F1F5C78B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4466630F-5BAE-4BF6-AC25-F380A1252323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="228097" y="2933952"/>
-          <a:ext cx="10147300" cy="6489700"/>
-          <a:chOff x="177800" y="2895600"/>
-          <a:chExt cx="10121900" cy="6489700"/>
+          <a:off x="190500" y="2495550"/>
+          <a:ext cx="8869013" cy="5487166"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="42" name="図 41">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2810842F-B671-4C43-B31C-E4D70596B2B4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3555996" y="2895600"/>
-            <a:ext cx="3073400" cy="6451600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:effectLst>
-            <a:reflection blurRad="612574" stA="57000" endPos="41846" dist="849004" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="角丸四角形 42">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E11778-0049-2140-846A-C7EC48EDD686}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3594100" y="2984500"/>
-            <a:ext cx="3048000" cy="6337300"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:alpha val="38653"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="角丸四角形 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9571879F-6690-104C-AB89-67D706D421B2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4368800" y="4267200"/>
-            <a:ext cx="1409700" cy="469900"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>マイページ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="角丸四角形 44">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DD98C9-56AD-384E-ADC1-A33F29322120}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3771900" y="4889500"/>
-            <a:ext cx="2654300" cy="3962400"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>999999999</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ニックネーム</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>グローステトリス</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>パスワード</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>abcdefg0578</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>パスワード</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>確認</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>abcdefg0578</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>　　　　</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="46" name="直線コネクタ 45">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70390E7-2840-4648-B710-3EFDBA62A25A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4025900" y="6477000"/>
-            <a:ext cx="2133600" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="47" name="直線コネクタ 46">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AFF69E-B536-BF44-9199-C3C566E0D836}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4013200" y="7277100"/>
-            <a:ext cx="2133600" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="直線コネクタ 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3608123E-CADB-6A4C-A603-77ACE9D8270C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3975100" y="8026400"/>
-            <a:ext cx="2133600" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="角丸四角形 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CF2A62-1716-9343-AA5E-0BF3DAA73635}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3962400" y="8216900"/>
-            <a:ext cx="952500" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>変更する</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="52" name="図 51">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BFFF1C-7A5E-7843-8794-33C6AD496B0D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="177800" y="2959100"/>
-            <a:ext cx="2984500" cy="6362700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="53" name="図 52">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3950A26B-376B-B449-983B-3A0B70C21CFE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5791200" y="7061200"/>
-            <a:ext cx="279400" cy="139700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="64" name="図 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4C1D22-5566-4140-ADAC-70410D35A435}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5803900" y="7810500"/>
-            <a:ext cx="279400" cy="139700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="65" name="図 64">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C781BA-465B-DB49-8F19-C16D6B799E18}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7200900" y="2908300"/>
-            <a:ext cx="3073400" cy="6451600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:effectLst>
-            <a:reflection blurRad="612574" stA="57000" endPos="41846" dist="849004" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="角丸四角形 65">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0DF192-7481-DE42-AE77-44BE78E16DA0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7251700" y="2997200"/>
-            <a:ext cx="3048000" cy="6337300"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:alpha val="32000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="角丸四角形 66">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57738B97-4F68-0242-A94F-7AEC12E43CAA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7975600" y="3327400"/>
-            <a:ext cx="1409700" cy="469900"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>マイページ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="角丸四角形 67">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1343AEF3-9604-7840-ADA7-208093B6993E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7442200" y="5422900"/>
-            <a:ext cx="2654300" cy="3962400"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>999999999</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ニックネーム</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>グローステトリス💹</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>パスワード</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>abcdefg0578</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>パスワード</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>確認</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>abcdefg0578</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>　　　　</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="69" name="直線コネクタ 68">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF6CF44-7658-A845-8202-FCCB94559728}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7645400" y="7035800"/>
-            <a:ext cx="2133600" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="47625">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="70" name="直線コネクタ 69">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BDE23A-091E-FC46-99D0-E273A4AC754A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7645400" y="7835900"/>
-            <a:ext cx="2133600" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="47625">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="71" name="直線コネクタ 70">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AC7E4F-8967-764C-A630-2D7D5E45FB85}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7632700" y="8559800"/>
-            <a:ext cx="2133600" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="47625">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="73" name="図 72">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1F1F5E-A84E-734E-BFF3-228DFB82D84A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9474200" y="7620000"/>
-            <a:ext cx="279400" cy="139700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="74" name="図 73">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455439DF-1F5B-5E48-AAFB-7257B95D2BF5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9486900" y="8369300"/>
-            <a:ext cx="279400" cy="139700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="角丸四角形 74">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D370AE8B-C4F1-964F-AD88-4416A1275036}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7391400" y="3835400"/>
-            <a:ext cx="2743200" cy="1930400"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 0"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:alpha val="62125"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>・ニックネームは環境依存文字は使用できません</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>・パスワードは</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>6</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>桁以上</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>桁未満で入力してください</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>・パスワードは半角英語、半角数字、半角記号を全て使用して入力してください</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="角丸四角形 80">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB1DA3A-09E6-0241-98EB-5ED3BF8C6372}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4978400" y="8216900"/>
-            <a:ext cx="1206500" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>メニューに戻る</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="83" name="図 82">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA786FB-206E-4E47-A1CA-1B27439D63DD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="495300" y="8166100"/>
-            <a:ext cx="2171700" cy="495300"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="角丸四角形 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834FD5BF-1C20-4545-8220-9C6672BEC0B9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="431800" y="8191500"/>
-            <a:ext cx="952500" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>変更する</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="角丸四角形 79">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1F1AC0-20C5-6B46-9165-53F63EE49F0D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1485900" y="8191500"/>
-            <a:ext cx="1206500" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>メニューに戻る</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="角丸四角形 84">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9148773B-1DFC-A74B-9D27-D69A4BCCE87D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5651500" y="3365500"/>
-            <a:ext cx="850900" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ログアウト</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="角丸四角形 85">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A913541-79A9-0A40-A783-F612483368CF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9258300" y="3365500"/>
-            <a:ext cx="850900" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ログアウト</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="角丸四角形 86">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B450D48-741E-F240-883C-F48B0E1AD98F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2159000" y="3378200"/>
-            <a:ext cx="850900" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ログアウト</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="角丸四角形 91">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780DCBE0-4405-F149-A714-1ED8690EF912}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7607300" y="8712200"/>
-            <a:ext cx="952500" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>変更する</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="角丸四角形 92">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495E7537-725B-A843-AE4E-AE573E16D335}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8623300" y="8712200"/>
-            <a:ext cx="1206500" cy="330200"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>メニューに戻る</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="94" name="図 93">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127313EE-6524-9149-99F2-9B2A39CA57F3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="825500" y="4178300"/>
-            <a:ext cx="1524000" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4073,194 +2065,198 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="60" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="60" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="60" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="60" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="60" t="s">
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="62"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="53"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="63" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="69">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="60">
         <v>44577</v>
       </c>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="63" t="s">
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="65"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="60">
+        <v>44615</v>
+      </c>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="56"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="68"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="59"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -4277,6 +2273,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -4285,11 +2286,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4303,21 +2299,21 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="3.33203125" style="3"/>
-    <col min="7" max="7" width="3.33203125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="3.33203125" style="3"/>
+    <col min="1" max="6" width="3.28515625" style="3"/>
+    <col min="7" max="7" width="3.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="3.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="15">
+    <row r="1" spans="1:52" customFormat="1" ht="12">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:52" customFormat="1" ht="15"/>
-    <row r="3" spans="1:52" customFormat="1" ht="15"/>
-    <row r="4" spans="1:52" customFormat="1" ht="15"/>
-    <row r="5" spans="1:52" customFormat="1" ht="15"/>
-    <row r="7" spans="1:52" ht="18">
+    <row r="2" spans="1:52" customFormat="1" ht="12"/>
+    <row r="3" spans="1:52" customFormat="1" ht="12"/>
+    <row r="4" spans="1:52" customFormat="1" ht="12"/>
+    <row r="5" spans="1:52" customFormat="1" ht="12"/>
+    <row r="7" spans="1:52" ht="14.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -4389,118 +2385,118 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="75">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78">
         <v>44577</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78" t="s">
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="78" t="s">
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="79"/>
-      <c r="AT8" s="79"/>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="80"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="83"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="79"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="79"/>
-      <c r="AR9" s="79"/>
-      <c r="AS9" s="79"/>
-      <c r="AT9" s="79"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="79"/>
-      <c r="AW9" s="79"/>
-      <c r="AX9" s="79"/>
-      <c r="AY9" s="79"/>
-      <c r="AZ9" s="80"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="81"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="83"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -4508,56 +2504,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="80"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="80"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="81"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="83"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -4565,56 +2561,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="80"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="79"/>
-      <c r="AP11" s="79"/>
-      <c r="AQ11" s="79"/>
-      <c r="AR11" s="79"/>
-      <c r="AS11" s="79"/>
-      <c r="AT11" s="79"/>
-      <c r="AU11" s="79"/>
-      <c r="AV11" s="79"/>
-      <c r="AW11" s="79"/>
-      <c r="AX11" s="79"/>
-      <c r="AY11" s="79"/>
-      <c r="AZ11" s="80"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="81"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="83"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -4622,56 +2618,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="80"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="79"/>
-      <c r="AR12" s="79"/>
-      <c r="AS12" s="79"/>
-      <c r="AT12" s="79"/>
-      <c r="AU12" s="79"/>
-      <c r="AV12" s="79"/>
-      <c r="AW12" s="79"/>
-      <c r="AX12" s="79"/>
-      <c r="AY12" s="79"/>
-      <c r="AZ12" s="80"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="82"/>
+      <c r="AY12" s="82"/>
+      <c r="AZ12" s="83"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -4679,56 +2675,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="79"/>
-      <c r="AP13" s="79"/>
-      <c r="AQ13" s="79"/>
-      <c r="AR13" s="79"/>
-      <c r="AS13" s="79"/>
-      <c r="AT13" s="79"/>
-      <c r="AU13" s="79"/>
-      <c r="AV13" s="79"/>
-      <c r="AW13" s="79"/>
-      <c r="AX13" s="79"/>
-      <c r="AY13" s="79"/>
-      <c r="AZ13" s="80"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="83"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -4736,56 +2732,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="79"/>
-      <c r="AP14" s="79"/>
-      <c r="AQ14" s="79"/>
-      <c r="AR14" s="79"/>
-      <c r="AS14" s="79"/>
-      <c r="AT14" s="79"/>
-      <c r="AU14" s="79"/>
-      <c r="AV14" s="79"/>
-      <c r="AW14" s="79"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="79"/>
-      <c r="AZ14" s="80"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="82"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="83"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -4793,56 +2789,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="79"/>
-      <c r="AP15" s="79"/>
-      <c r="AQ15" s="79"/>
-      <c r="AR15" s="79"/>
-      <c r="AS15" s="79"/>
-      <c r="AT15" s="79"/>
-      <c r="AU15" s="79"/>
-      <c r="AV15" s="79"/>
-      <c r="AW15" s="79"/>
-      <c r="AX15" s="79"/>
-      <c r="AY15" s="79"/>
-      <c r="AZ15" s="80"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="81"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="83"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -4850,56 +2846,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
-      <c r="AR16" s="79"/>
-      <c r="AS16" s="79"/>
-      <c r="AT16" s="79"/>
-      <c r="AU16" s="79"/>
-      <c r="AV16" s="79"/>
-      <c r="AW16" s="79"/>
-      <c r="AX16" s="79"/>
-      <c r="AY16" s="79"/>
-      <c r="AZ16" s="80"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="82"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="82"/>
+      <c r="AY16" s="82"/>
+      <c r="AZ16" s="83"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -4907,56 +2903,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="79"/>
-      <c r="AP17" s="79"/>
-      <c r="AQ17" s="79"/>
-      <c r="AR17" s="79"/>
-      <c r="AS17" s="79"/>
-      <c r="AT17" s="79"/>
-      <c r="AU17" s="79"/>
-      <c r="AV17" s="79"/>
-      <c r="AW17" s="79"/>
-      <c r="AX17" s="79"/>
-      <c r="AY17" s="79"/>
-      <c r="AZ17" s="80"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="82"/>
+      <c r="AQ17" s="82"/>
+      <c r="AR17" s="82"/>
+      <c r="AS17" s="82"/>
+      <c r="AT17" s="82"/>
+      <c r="AU17" s="82"/>
+      <c r="AV17" s="82"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="82"/>
+      <c r="AY17" s="82"/>
+      <c r="AZ17" s="83"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -4964,56 +2960,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="80"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="79"/>
-      <c r="AS18" s="79"/>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="79"/>
-      <c r="AV18" s="79"/>
-      <c r="AW18" s="79"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="79"/>
-      <c r="AZ18" s="80"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="81"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="82"/>
+      <c r="AR18" s="82"/>
+      <c r="AS18" s="82"/>
+      <c r="AT18" s="82"/>
+      <c r="AU18" s="82"/>
+      <c r="AV18" s="82"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="82"/>
+      <c r="AY18" s="82"/>
+      <c r="AZ18" s="83"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -5021,56 +3017,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="80"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
-      <c r="AP19" s="79"/>
-      <c r="AQ19" s="79"/>
-      <c r="AR19" s="79"/>
-      <c r="AS19" s="79"/>
-      <c r="AT19" s="79"/>
-      <c r="AU19" s="79"/>
-      <c r="AV19" s="79"/>
-      <c r="AW19" s="79"/>
-      <c r="AX19" s="79"/>
-      <c r="AY19" s="79"/>
-      <c r="AZ19" s="80"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="81"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="82"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="82"/>
+      <c r="AR19" s="82"/>
+      <c r="AS19" s="82"/>
+      <c r="AT19" s="82"/>
+      <c r="AU19" s="82"/>
+      <c r="AV19" s="82"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="82"/>
+      <c r="AY19" s="82"/>
+      <c r="AZ19" s="83"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -5078,56 +3074,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="79"/>
-      <c r="AQ20" s="79"/>
-      <c r="AR20" s="79"/>
-      <c r="AS20" s="79"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="79"/>
-      <c r="AV20" s="79"/>
-      <c r="AW20" s="79"/>
-      <c r="AX20" s="79"/>
-      <c r="AY20" s="79"/>
-      <c r="AZ20" s="80"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="82"/>
+      <c r="AO20" s="82"/>
+      <c r="AP20" s="82"/>
+      <c r="AQ20" s="82"/>
+      <c r="AR20" s="82"/>
+      <c r="AS20" s="82"/>
+      <c r="AT20" s="82"/>
+      <c r="AU20" s="82"/>
+      <c r="AV20" s="82"/>
+      <c r="AW20" s="82"/>
+      <c r="AX20" s="82"/>
+      <c r="AY20" s="82"/>
+      <c r="AZ20" s="83"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -5135,56 +3131,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="80"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-      <c r="AP21" s="79"/>
-      <c r="AQ21" s="79"/>
-      <c r="AR21" s="79"/>
-      <c r="AS21" s="79"/>
-      <c r="AT21" s="79"/>
-      <c r="AU21" s="79"/>
-      <c r="AV21" s="79"/>
-      <c r="AW21" s="79"/>
-      <c r="AX21" s="79"/>
-      <c r="AY21" s="79"/>
-      <c r="AZ21" s="80"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="81"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="82"/>
+      <c r="AP21" s="82"/>
+      <c r="AQ21" s="82"/>
+      <c r="AR21" s="82"/>
+      <c r="AS21" s="82"/>
+      <c r="AT21" s="82"/>
+      <c r="AU21" s="82"/>
+      <c r="AV21" s="82"/>
+      <c r="AW21" s="82"/>
+      <c r="AX21" s="82"/>
+      <c r="AY21" s="82"/>
+      <c r="AZ21" s="83"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -5192,56 +3188,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="80"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="79"/>
-      <c r="AR22" s="79"/>
-      <c r="AS22" s="79"/>
-      <c r="AT22" s="79"/>
-      <c r="AU22" s="79"/>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="79"/>
-      <c r="AX22" s="79"/>
-      <c r="AY22" s="79"/>
-      <c r="AZ22" s="80"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
+      <c r="AR22" s="82"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="82"/>
+      <c r="AU22" s="82"/>
+      <c r="AV22" s="82"/>
+      <c r="AW22" s="82"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="83"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -5249,56 +3245,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="78"/>
-      <c r="AN23" s="79"/>
-      <c r="AO23" s="79"/>
-      <c r="AP23" s="79"/>
-      <c r="AQ23" s="79"/>
-      <c r="AR23" s="79"/>
-      <c r="AS23" s="79"/>
-      <c r="AT23" s="79"/>
-      <c r="AU23" s="79"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="79"/>
-      <c r="AZ23" s="80"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="81"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="83"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -5306,56 +3302,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="79"/>
-      <c r="AL24" s="80"/>
-      <c r="AM24" s="78"/>
-      <c r="AN24" s="79"/>
-      <c r="AO24" s="79"/>
-      <c r="AP24" s="79"/>
-      <c r="AQ24" s="79"/>
-      <c r="AR24" s="79"/>
-      <c r="AS24" s="79"/>
-      <c r="AT24" s="79"/>
-      <c r="AU24" s="79"/>
-      <c r="AV24" s="79"/>
-      <c r="AW24" s="79"/>
-      <c r="AX24" s="79"/>
-      <c r="AY24" s="79"/>
-      <c r="AZ24" s="80"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="81"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="82"/>
+      <c r="AW24" s="82"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="83"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -5363,56 +3359,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="78"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-      <c r="AP25" s="79"/>
-      <c r="AQ25" s="79"/>
-      <c r="AR25" s="79"/>
-      <c r="AS25" s="79"/>
-      <c r="AT25" s="79"/>
-      <c r="AU25" s="79"/>
-      <c r="AV25" s="79"/>
-      <c r="AW25" s="79"/>
-      <c r="AX25" s="79"/>
-      <c r="AY25" s="79"/>
-      <c r="AZ25" s="80"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="81"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="82"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="83"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -5420,56 +3416,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="80"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="79"/>
-      <c r="AV26" s="79"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="80"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="83"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="82"/>
+      <c r="AO26" s="82"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
+      <c r="AS26" s="82"/>
+      <c r="AT26" s="82"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="83"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -5477,56 +3473,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="79"/>
-      <c r="AS27" s="79"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="79"/>
-      <c r="AV27" s="79"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="79"/>
-      <c r="AY27" s="79"/>
-      <c r="AZ27" s="80"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="81"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="83"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -5534,56 +3530,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="80"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="80"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="83"/>
+      <c r="AM28" s="81"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="82"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="82"/>
+      <c r="AS28" s="82"/>
+      <c r="AT28" s="82"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="83"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -5591,56 +3587,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="78"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-      <c r="AP29" s="79"/>
-      <c r="AQ29" s="79"/>
-      <c r="AR29" s="79"/>
-      <c r="AS29" s="79"/>
-      <c r="AT29" s="79"/>
-      <c r="AU29" s="79"/>
-      <c r="AV29" s="79"/>
-      <c r="AW29" s="79"/>
-      <c r="AX29" s="79"/>
-      <c r="AY29" s="79"/>
-      <c r="AZ29" s="80"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="83"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -5648,56 +3644,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="80"/>
-      <c r="AM30" s="78"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-      <c r="AP30" s="79"/>
-      <c r="AQ30" s="79"/>
-      <c r="AR30" s="79"/>
-      <c r="AS30" s="79"/>
-      <c r="AT30" s="79"/>
-      <c r="AU30" s="79"/>
-      <c r="AV30" s="79"/>
-      <c r="AW30" s="79"/>
-      <c r="AX30" s="79"/>
-      <c r="AY30" s="79"/>
-      <c r="AZ30" s="80"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="83"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="82"/>
+      <c r="AO30" s="82"/>
+      <c r="AP30" s="82"/>
+      <c r="AQ30" s="82"/>
+      <c r="AR30" s="82"/>
+      <c r="AS30" s="82"/>
+      <c r="AT30" s="82"/>
+      <c r="AU30" s="82"/>
+      <c r="AV30" s="82"/>
+      <c r="AW30" s="82"/>
+      <c r="AX30" s="82"/>
+      <c r="AY30" s="82"/>
+      <c r="AZ30" s="83"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -5705,56 +3701,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="80"/>
-      <c r="AM31" s="78"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
-      <c r="AP31" s="79"/>
-      <c r="AQ31" s="79"/>
-      <c r="AR31" s="79"/>
-      <c r="AS31" s="79"/>
-      <c r="AT31" s="79"/>
-      <c r="AU31" s="79"/>
-      <c r="AV31" s="79"/>
-      <c r="AW31" s="79"/>
-      <c r="AX31" s="79"/>
-      <c r="AY31" s="79"/>
-      <c r="AZ31" s="80"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="83"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="83"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -5762,56 +3758,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="80"/>
-      <c r="AM32" s="78"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
-      <c r="AP32" s="79"/>
-      <c r="AQ32" s="79"/>
-      <c r="AR32" s="79"/>
-      <c r="AS32" s="79"/>
-      <c r="AT32" s="79"/>
-      <c r="AU32" s="79"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="79"/>
-      <c r="AX32" s="79"/>
-      <c r="AY32" s="79"/>
-      <c r="AZ32" s="80"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="82"/>
+      <c r="AL32" s="83"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="82"/>
+      <c r="AO32" s="82"/>
+      <c r="AP32" s="82"/>
+      <c r="AQ32" s="82"/>
+      <c r="AR32" s="82"/>
+      <c r="AS32" s="82"/>
+      <c r="AT32" s="82"/>
+      <c r="AU32" s="82"/>
+      <c r="AV32" s="82"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="82"/>
+      <c r="AZ32" s="83"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -5819,56 +3815,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="80"/>
-      <c r="AM33" s="78"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
-      <c r="AP33" s="79"/>
-      <c r="AQ33" s="79"/>
-      <c r="AR33" s="79"/>
-      <c r="AS33" s="79"/>
-      <c r="AT33" s="79"/>
-      <c r="AU33" s="79"/>
-      <c r="AV33" s="79"/>
-      <c r="AW33" s="79"/>
-      <c r="AX33" s="79"/>
-      <c r="AY33" s="79"/>
-      <c r="AZ33" s="80"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="82"/>
+      <c r="AC33" s="82"/>
+      <c r="AD33" s="82"/>
+      <c r="AE33" s="82"/>
+      <c r="AF33" s="82"/>
+      <c r="AG33" s="82"/>
+      <c r="AH33" s="82"/>
+      <c r="AI33" s="82"/>
+      <c r="AJ33" s="82"/>
+      <c r="AK33" s="82"/>
+      <c r="AL33" s="83"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="82"/>
+      <c r="AQ33" s="82"/>
+      <c r="AR33" s="82"/>
+      <c r="AS33" s="82"/>
+      <c r="AT33" s="82"/>
+      <c r="AU33" s="82"/>
+      <c r="AV33" s="82"/>
+      <c r="AW33" s="82"/>
+      <c r="AX33" s="82"/>
+      <c r="AY33" s="82"/>
+      <c r="AZ33" s="83"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -5876,56 +3872,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="80"/>
-      <c r="AM34" s="78"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="79"/>
-      <c r="AP34" s="79"/>
-      <c r="AQ34" s="79"/>
-      <c r="AR34" s="79"/>
-      <c r="AS34" s="79"/>
-      <c r="AT34" s="79"/>
-      <c r="AU34" s="79"/>
-      <c r="AV34" s="79"/>
-      <c r="AW34" s="79"/>
-      <c r="AX34" s="79"/>
-      <c r="AY34" s="79"/>
-      <c r="AZ34" s="80"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="82"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="82"/>
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="82"/>
+      <c r="AL34" s="83"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="82"/>
+      <c r="AO34" s="82"/>
+      <c r="AP34" s="82"/>
+      <c r="AQ34" s="82"/>
+      <c r="AR34" s="82"/>
+      <c r="AS34" s="82"/>
+      <c r="AT34" s="82"/>
+      <c r="AU34" s="82"/>
+      <c r="AV34" s="82"/>
+      <c r="AW34" s="82"/>
+      <c r="AX34" s="82"/>
+      <c r="AY34" s="82"/>
+      <c r="AZ34" s="83"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -5933,59 +3929,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="79"/>
-      <c r="AD35" s="79"/>
-      <c r="AE35" s="79"/>
-      <c r="AF35" s="79"/>
-      <c r="AG35" s="79"/>
-      <c r="AH35" s="79"/>
-      <c r="AI35" s="79"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="79"/>
-      <c r="AL35" s="80"/>
-      <c r="AM35" s="78"/>
-      <c r="AN35" s="79"/>
-      <c r="AO35" s="79"/>
-      <c r="AP35" s="79"/>
-      <c r="AQ35" s="79"/>
-      <c r="AR35" s="79"/>
-      <c r="AS35" s="79"/>
-      <c r="AT35" s="79"/>
-      <c r="AU35" s="79"/>
-      <c r="AV35" s="79"/>
-      <c r="AW35" s="79"/>
-      <c r="AX35" s="79"/>
-      <c r="AY35" s="79"/>
-      <c r="AZ35" s="80"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="83"/>
+      <c r="AM35" s="81"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="82"/>
+      <c r="AQ35" s="82"/>
+      <c r="AR35" s="82"/>
+      <c r="AS35" s="82"/>
+      <c r="AT35" s="82"/>
+      <c r="AU35" s="82"/>
+      <c r="AV35" s="82"/>
+      <c r="AW35" s="82"/>
+      <c r="AX35" s="82"/>
+      <c r="AY35" s="82"/>
+      <c r="AZ35" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -5996,136 +4122,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6139,21 +4135,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="13"/>
-    <col min="2" max="2" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="3.33203125" style="13"/>
-    <col min="10" max="10" width="2.5" style="13" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="13" customWidth="1"/>
-    <col min="12" max="34" width="3.33203125" style="13"/>
-    <col min="35" max="35" width="3.33203125" style="13" customWidth="1"/>
-    <col min="36" max="16384" width="3.33203125" style="13"/>
+    <col min="1" max="1" width="3.28515625" style="13"/>
+    <col min="2" max="2" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="3.28515625" style="13"/>
+    <col min="10" max="10" width="2.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="13" customWidth="1"/>
+    <col min="12" max="34" width="3.28515625" style="13"/>
+    <col min="35" max="35" width="3.28515625" style="13" customWidth="1"/>
+    <col min="36" max="16384" width="3.28515625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" customFormat="1" ht="15">
+    <row r="1" spans="1:51" customFormat="1" ht="12">
       <c r="A1" s="32"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -6199,7 +4197,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
     </row>
-    <row r="2" spans="1:51" customFormat="1" ht="15">
+    <row r="2" spans="1:51" customFormat="1" ht="12">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -6245,7 +4243,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
     </row>
-    <row r="3" spans="1:51" customFormat="1" ht="15">
+    <row r="3" spans="1:51" customFormat="1" ht="12">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -6291,7 +4289,7 @@
       <c r="AQ3" s="35"/>
       <c r="AR3" s="35"/>
     </row>
-    <row r="4" spans="1:51" customFormat="1" ht="15">
+    <row r="4" spans="1:51" customFormat="1" ht="12">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6337,7 +4335,7 @@
       <c r="AQ4" s="35"/>
       <c r="AR4" s="35"/>
     </row>
-    <row r="5" spans="1:51" customFormat="1" ht="15">
+    <row r="5" spans="1:51" customFormat="1" ht="12">
       <c r="A5" s="34" t="s">
         <v>15</v>
       </c>
@@ -9640,7 +7638,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="39"/>
       <c r="W68" s="40"/>
-      <c r="X68" s="38" t="s">
+      <c r="X68" s="91" t="s">
         <v>98</v>
       </c>
       <c r="Y68" s="39"/>
@@ -9693,7 +7691,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="39"/>
       <c r="W69" s="40"/>
-      <c r="X69" s="38" t="s">
+      <c r="X69" s="91" t="s">
         <v>94</v>
       </c>
       <c r="Y69" s="39"/>
@@ -9746,7 +7744,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="39"/>
       <c r="W70" s="40"/>
-      <c r="X70" s="38" t="s">
+      <c r="X70" s="91" t="s">
         <v>94</v>
       </c>
       <c r="Y70" s="39"/>
@@ -9799,7 +7797,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="39"/>
       <c r="W71" s="40"/>
-      <c r="X71" s="38" t="s">
+      <c r="X71" s="91" t="s">
         <v>96</v>
       </c>
       <c r="Y71" s="39"/>
@@ -9852,7 +7850,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="39"/>
       <c r="W72" s="40"/>
-      <c r="X72" s="38" t="s">
+      <c r="X72" s="91" t="s">
         <v>97</v>
       </c>
       <c r="Y72" s="39"/>
@@ -9973,7 +7971,7 @@
       <c r="AX74" s="21"/>
       <c r="AY74" s="21"/>
     </row>
-    <row r="75" spans="1:57" s="27" customFormat="1" ht="32" customHeight="1">
+    <row r="75" spans="1:57" s="27" customFormat="1" ht="32.1" customHeight="1">
       <c r="A75" s="36"/>
       <c r="B75" s="22" t="s">
         <v>17</v>
@@ -10081,10 +8079,10 @@
       <c r="W76" s="39"/>
       <c r="X76" s="39"/>
       <c r="Y76" s="39"/>
-      <c r="Z76" s="38" t="s">
+      <c r="Z76" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="AA76" s="39"/>
+      <c r="AA76" s="90"/>
       <c r="AB76" s="39"/>
       <c r="AC76" s="39"/>
       <c r="AD76" s="39"/>
@@ -10148,10 +8146,10 @@
       <c r="W77" s="39"/>
       <c r="X77" s="39"/>
       <c r="Y77" s="39"/>
-      <c r="Z77" s="38" t="s">
+      <c r="Z77" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="AA77" s="39"/>
+      <c r="AA77" s="90"/>
       <c r="AB77" s="39"/>
       <c r="AC77" s="39"/>
       <c r="AD77" s="39"/>
@@ -10219,10 +8217,10 @@
       <c r="W78" s="39"/>
       <c r="X78" s="39"/>
       <c r="Y78" s="39"/>
-      <c r="Z78" s="38" t="s">
+      <c r="Z78" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="AA78" s="39"/>
+      <c r="AA78" s="90"/>
       <c r="AB78" s="39"/>
       <c r="AC78" s="39"/>
       <c r="AD78" s="39"/>
@@ -10286,10 +8284,10 @@
       <c r="W79" s="39"/>
       <c r="X79" s="39"/>
       <c r="Y79" s="39"/>
-      <c r="Z79" s="38" t="s">
+      <c r="Z79" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="AA79" s="39"/>
+      <c r="AA79" s="90"/>
       <c r="AB79" s="39"/>
       <c r="AC79" s="39"/>
       <c r="AD79" s="39"/>
@@ -10353,10 +8351,10 @@
       <c r="W80" s="39"/>
       <c r="X80" s="39"/>
       <c r="Y80" s="39"/>
-      <c r="Z80" s="38" t="s">
+      <c r="Z80" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AA80" s="39"/>
+      <c r="AA80" s="90"/>
       <c r="AB80" s="39"/>
       <c r="AC80" s="39"/>
       <c r="AD80" s="39"/>
@@ -10420,10 +8418,10 @@
       <c r="W81" s="39"/>
       <c r="X81" s="39"/>
       <c r="Y81" s="39"/>
-      <c r="Z81" s="38" t="s">
+      <c r="Z81" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="AA81" s="39"/>
+      <c r="AA81" s="90"/>
       <c r="AB81" s="39"/>
       <c r="AC81" s="39"/>
       <c r="AD81" s="39"/>
@@ -10487,10 +8485,10 @@
       <c r="W82" s="39"/>
       <c r="X82" s="39"/>
       <c r="Y82" s="39"/>
-      <c r="Z82" s="38" t="s">
+      <c r="Z82" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="AA82" s="39"/>
+      <c r="AA82" s="90"/>
       <c r="AB82" s="39"/>
       <c r="AC82" s="39"/>
       <c r="AD82" s="39"/>
@@ -10558,10 +8556,10 @@
       <c r="W83" s="39"/>
       <c r="X83" s="39"/>
       <c r="Y83" s="39"/>
-      <c r="Z83" s="38" t="s">
+      <c r="Z83" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="AA83" s="39"/>
+      <c r="AA83" s="90"/>
       <c r="AB83" s="39"/>
       <c r="AC83" s="39"/>
       <c r="AD83" s="39"/>
@@ -10625,10 +8623,10 @@
       <c r="W84" s="39"/>
       <c r="X84" s="39"/>
       <c r="Y84" s="39"/>
-      <c r="Z84" s="38" t="s">
+      <c r="Z84" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="AA84" s="39"/>
+      <c r="AA84" s="90"/>
       <c r="AB84" s="39"/>
       <c r="AC84" s="39"/>
       <c r="AD84" s="39"/>
@@ -10692,10 +8690,10 @@
       <c r="W85" s="39"/>
       <c r="X85" s="39"/>
       <c r="Y85" s="39"/>
-      <c r="Z85" s="38" t="s">
+      <c r="Z85" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="AA85" s="39"/>
+      <c r="AA85" s="90"/>
       <c r="AB85" s="39"/>
       <c r="AC85" s="39"/>
       <c r="AD85" s="39"/>
@@ -10759,10 +8757,10 @@
       <c r="W86" s="39"/>
       <c r="X86" s="39"/>
       <c r="Y86" s="39"/>
-      <c r="Z86" s="38" t="s">
+      <c r="Z86" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="AA86" s="39"/>
+      <c r="AA86" s="90"/>
       <c r="AB86" s="39"/>
       <c r="AC86" s="39"/>
       <c r="AD86" s="39"/>
@@ -10826,10 +8824,10 @@
       <c r="W87" s="39"/>
       <c r="X87" s="39"/>
       <c r="Y87" s="39"/>
-      <c r="Z87" s="38" t="s">
+      <c r="Z87" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="AA87" s="39"/>
+      <c r="AA87" s="90"/>
       <c r="AB87" s="39"/>
       <c r="AC87" s="39"/>
       <c r="AD87" s="39"/>
@@ -10897,10 +8895,10 @@
       <c r="W88" s="39"/>
       <c r="X88" s="39"/>
       <c r="Y88" s="39"/>
-      <c r="Z88" s="38" t="s">
+      <c r="Z88" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="AA88" s="39"/>
+      <c r="AA88" s="90"/>
       <c r="AB88" s="39"/>
       <c r="AC88" s="39"/>
       <c r="AD88" s="39"/>
@@ -10931,12 +8929,12 @@
       <c r="BC88" s="17"/>
       <c r="BD88" s="17"/>
     </row>
-    <row r="89" spans="1:56">
+    <row r="89" spans="1:56" ht="14.25">
       <c r="A89" s="28"/>
       <c r="B89" s="30"/>
       <c r="C89" s="29"/>
     </row>
-    <row r="90" spans="1:56">
+    <row r="90" spans="1:56" ht="14.25">
       <c r="A90" s="28"/>
       <c r="B90" s="31"/>
       <c r="C90" s="29"/>
@@ -10965,10 +8963,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18">

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_マイページ画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_マイページ画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C418964-AE93-40A3-A6A3-138EC98562AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63AF848-1EE2-4ED5-83EF-87EAC7BFBFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-450" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="24330" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">マイページ画面!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">マイページ画面!$A$1:$AY$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">マイページ画面!$A$1:$AY$108</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -433,13 +433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン後共通ボタン</t>
-    <rPh sb="5" eb="7">
-      <t>キョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面タイトル</t>
     <rPh sb="0" eb="2">
       <t>ガメｎン</t>
@@ -880,6 +873,59 @@
     <t>遠山</t>
     <rPh sb="0" eb="2">
       <t>トオヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト確認ダイアログ</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面（メイン）</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ ログアウト確認ダイアログ画面</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイアログを閉じる</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトし、トップ画面へ遷移する</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -888,7 +934,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1036,13 +1082,20 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="MeiryoUI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="MeiryoUI"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="MeiryoUI"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1218,7 +1271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1372,6 +1425,33 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,42 +1497,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1469,6 +1513,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,10 +1542,34 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,7 +1624,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3969"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3977"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1578,50 +1655,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>124244</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2CD7DB-6588-47D1-BC8F-5415CF07DC7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314700" y="5429250"/>
-          <a:ext cx="4600575" cy="3000794"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1633,7 +1666,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>101852</xdr:colOff>
+          <xdr:colOff>73277</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>75084</xdr:rowOff>
         </xdr:to>
@@ -1650,13 +1683,13 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2942"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2950"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -1678,23 +1711,67 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>144113</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19816</xdr:rowOff>
+      <xdr:colOff>134585</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>143634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4466630F-5BAE-4BF6-AC25-F380A1252323}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D446366A-803D-474B-9B19-850B383FFDD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2495550"/>
+          <a:ext cx="8849960" cy="5439534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162307</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A7AE3-2347-43FB-9953-7F52E65A1A32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,8 +1787,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="2495550"/>
-          <a:ext cx="8869013" cy="5487166"/>
+          <a:off x="238125" y="8343900"/>
+          <a:ext cx="2734057" cy="1790950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2066,197 +2143,197 @@
   <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="51" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="51" t="s">
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="51" t="s">
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="53"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="62"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="54" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="69">
+        <v>44577</v>
+      </c>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="60">
-        <v>44577</v>
-      </c>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="60">
-        <v>44615</v>
-      </c>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="56"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="69">
+        <v>44619</v>
+      </c>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="65"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="59"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="68"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2273,11 +2350,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2286,6 +2358,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2385,118 +2462,118 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78">
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="75">
         <v>44577</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="81" t="s">
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="82"/>
-      <c r="AY8" s="82"/>
-      <c r="AZ8" s="83"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="79"/>
+      <c r="AQ8" s="79"/>
+      <c r="AR8" s="79"/>
+      <c r="AS8" s="79"/>
+      <c r="AT8" s="79"/>
+      <c r="AU8" s="79"/>
+      <c r="AV8" s="79"/>
+      <c r="AW8" s="79"/>
+      <c r="AX8" s="79"/>
+      <c r="AY8" s="79"/>
+      <c r="AZ8" s="80"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="81"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="82"/>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="82"/>
-      <c r="AY9" s="82"/>
-      <c r="AZ9" s="83"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="80"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -2504,56 +2581,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="81"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="83"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="80"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2561,56 +2638,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="81"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="82"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="82"/>
-      <c r="AX11" s="82"/>
-      <c r="AY11" s="82"/>
-      <c r="AZ11" s="83"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="80"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="80"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2618,56 +2695,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="81"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="82"/>
-      <c r="AZ12" s="83"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
+      <c r="AS12" s="79"/>
+      <c r="AT12" s="79"/>
+      <c r="AU12" s="79"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AX12" s="79"/>
+      <c r="AY12" s="79"/>
+      <c r="AZ12" s="80"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2675,56 +2752,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="83"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="83"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="80"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="79"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="80"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2732,56 +2809,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="81"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="82"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="83"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="79"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="79"/>
+      <c r="AT14" s="79"/>
+      <c r="AU14" s="79"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+      <c r="AY14" s="79"/>
+      <c r="AZ14" s="80"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -2789,56 +2866,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="83"/>
-      <c r="AM15" s="81"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="83"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
+      <c r="AS15" s="79"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="79"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="79"/>
+      <c r="AY15" s="79"/>
+      <c r="AZ15" s="80"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -2846,56 +2923,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="83"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="82"/>
-      <c r="AY16" s="82"/>
-      <c r="AZ16" s="83"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="79"/>
+      <c r="AS16" s="79"/>
+      <c r="AT16" s="79"/>
+      <c r="AU16" s="79"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+      <c r="AY16" s="79"/>
+      <c r="AZ16" s="80"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -2903,56 +2980,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="82"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="82"/>
-      <c r="AQ17" s="82"/>
-      <c r="AR17" s="82"/>
-      <c r="AS17" s="82"/>
-      <c r="AT17" s="82"/>
-      <c r="AU17" s="82"/>
-      <c r="AV17" s="82"/>
-      <c r="AW17" s="82"/>
-      <c r="AX17" s="82"/>
-      <c r="AY17" s="82"/>
-      <c r="AZ17" s="83"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="79"/>
+      <c r="AR17" s="79"/>
+      <c r="AS17" s="79"/>
+      <c r="AT17" s="79"/>
+      <c r="AU17" s="79"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="79"/>
+      <c r="AX17" s="79"/>
+      <c r="AY17" s="79"/>
+      <c r="AZ17" s="80"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -2960,56 +3037,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="83"/>
-      <c r="AM18" s="81"/>
-      <c r="AN18" s="82"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="82"/>
-      <c r="AQ18" s="82"/>
-      <c r="AR18" s="82"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="82"/>
-      <c r="AU18" s="82"/>
-      <c r="AV18" s="82"/>
-      <c r="AW18" s="82"/>
-      <c r="AX18" s="82"/>
-      <c r="AY18" s="82"/>
-      <c r="AZ18" s="83"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="79"/>
+      <c r="AT18" s="79"/>
+      <c r="AU18" s="79"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+      <c r="AY18" s="79"/>
+      <c r="AZ18" s="80"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3017,56 +3094,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="83"/>
-      <c r="AM19" s="81"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="82"/>
-      <c r="AP19" s="82"/>
-      <c r="AQ19" s="82"/>
-      <c r="AR19" s="82"/>
-      <c r="AS19" s="82"/>
-      <c r="AT19" s="82"/>
-      <c r="AU19" s="82"/>
-      <c r="AV19" s="82"/>
-      <c r="AW19" s="82"/>
-      <c r="AX19" s="82"/>
-      <c r="AY19" s="82"/>
-      <c r="AZ19" s="83"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="79"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="79"/>
+      <c r="AS19" s="79"/>
+      <c r="AT19" s="79"/>
+      <c r="AU19" s="79"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="79"/>
+      <c r="AY19" s="79"/>
+      <c r="AZ19" s="80"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3074,56 +3151,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="83"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="82"/>
-      <c r="AR20" s="82"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="82"/>
-      <c r="AU20" s="82"/>
-      <c r="AV20" s="82"/>
-      <c r="AW20" s="82"/>
-      <c r="AX20" s="82"/>
-      <c r="AY20" s="82"/>
-      <c r="AZ20" s="83"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="79"/>
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="79"/>
+      <c r="AR20" s="79"/>
+      <c r="AS20" s="79"/>
+      <c r="AT20" s="79"/>
+      <c r="AU20" s="79"/>
+      <c r="AV20" s="79"/>
+      <c r="AW20" s="79"/>
+      <c r="AX20" s="79"/>
+      <c r="AY20" s="79"/>
+      <c r="AZ20" s="80"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3131,56 +3208,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="83"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="82"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="82"/>
-      <c r="AU21" s="82"/>
-      <c r="AV21" s="82"/>
-      <c r="AW21" s="82"/>
-      <c r="AX21" s="82"/>
-      <c r="AY21" s="82"/>
-      <c r="AZ21" s="83"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="80"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3188,56 +3265,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="83"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="82"/>
-      <c r="AU22" s="82"/>
-      <c r="AV22" s="82"/>
-      <c r="AW22" s="82"/>
-      <c r="AX22" s="82"/>
-      <c r="AY22" s="82"/>
-      <c r="AZ22" s="83"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="80"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="80"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3245,56 +3322,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="83"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="82"/>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="82"/>
-      <c r="AU23" s="82"/>
-      <c r="AV23" s="82"/>
-      <c r="AW23" s="82"/>
-      <c r="AX23" s="82"/>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="83"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="80"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3302,56 +3379,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="83"/>
-      <c r="AM24" s="81"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="82"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="82"/>
-      <c r="AV24" s="82"/>
-      <c r="AW24" s="82"/>
-      <c r="AX24" s="82"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="83"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="80"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="79"/>
+      <c r="AO24" s="79"/>
+      <c r="AP24" s="79"/>
+      <c r="AQ24" s="79"/>
+      <c r="AR24" s="79"/>
+      <c r="AS24" s="79"/>
+      <c r="AT24" s="79"/>
+      <c r="AU24" s="79"/>
+      <c r="AV24" s="79"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="79"/>
+      <c r="AZ24" s="80"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3359,56 +3436,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="83"/>
-      <c r="AM25" s="81"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
-      <c r="AP25" s="82"/>
-      <c r="AQ25" s="82"/>
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="82"/>
-      <c r="AU25" s="82"/>
-      <c r="AV25" s="82"/>
-      <c r="AW25" s="82"/>
-      <c r="AX25" s="82"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="83"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="80"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="79"/>
+      <c r="AQ25" s="79"/>
+      <c r="AR25" s="79"/>
+      <c r="AS25" s="79"/>
+      <c r="AT25" s="79"/>
+      <c r="AU25" s="79"/>
+      <c r="AV25" s="79"/>
+      <c r="AW25" s="79"/>
+      <c r="AX25" s="79"/>
+      <c r="AY25" s="79"/>
+      <c r="AZ25" s="80"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -3416,56 +3493,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="83"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="82"/>
-      <c r="AS26" s="82"/>
-      <c r="AT26" s="82"/>
-      <c r="AU26" s="82"/>
-      <c r="AV26" s="82"/>
-      <c r="AW26" s="82"/>
-      <c r="AX26" s="82"/>
-      <c r="AY26" s="82"/>
-      <c r="AZ26" s="83"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="80"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3473,56 +3550,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="81"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="82"/>
-      <c r="AS27" s="82"/>
-      <c r="AT27" s="82"/>
-      <c r="AU27" s="82"/>
-      <c r="AV27" s="82"/>
-      <c r="AW27" s="82"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="82"/>
-      <c r="AZ27" s="83"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="80"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3530,56 +3607,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="83"/>
-      <c r="AM28" s="81"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="82"/>
-      <c r="AP28" s="82"/>
-      <c r="AQ28" s="82"/>
-      <c r="AR28" s="82"/>
-      <c r="AS28" s="82"/>
-      <c r="AT28" s="82"/>
-      <c r="AU28" s="82"/>
-      <c r="AV28" s="82"/>
-      <c r="AW28" s="82"/>
-      <c r="AX28" s="82"/>
-      <c r="AY28" s="82"/>
-      <c r="AZ28" s="83"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="80"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3587,56 +3664,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="82"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="83"/>
-      <c r="AM29" s="81"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
-      <c r="AP29" s="82"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="82"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="82"/>
-      <c r="AU29" s="82"/>
-      <c r="AV29" s="82"/>
-      <c r="AW29" s="82"/>
-      <c r="AX29" s="82"/>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="83"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="80"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3644,56 +3721,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="82"/>
-      <c r="AD30" s="82"/>
-      <c r="AE30" s="82"/>
-      <c r="AF30" s="82"/>
-      <c r="AG30" s="82"/>
-      <c r="AH30" s="82"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="82"/>
-      <c r="AK30" s="82"/>
-      <c r="AL30" s="83"/>
-      <c r="AM30" s="81"/>
-      <c r="AN30" s="82"/>
-      <c r="AO30" s="82"/>
-      <c r="AP30" s="82"/>
-      <c r="AQ30" s="82"/>
-      <c r="AR30" s="82"/>
-      <c r="AS30" s="82"/>
-      <c r="AT30" s="82"/>
-      <c r="AU30" s="82"/>
-      <c r="AV30" s="82"/>
-      <c r="AW30" s="82"/>
-      <c r="AX30" s="82"/>
-      <c r="AY30" s="82"/>
-      <c r="AZ30" s="83"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="79"/>
+      <c r="AT30" s="79"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="79"/>
+      <c r="AZ30" s="80"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3701,56 +3778,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="83"/>
-      <c r="AM31" s="81"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-      <c r="AR31" s="82"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="82"/>
-      <c r="AU31" s="82"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
-      <c r="AY31" s="82"/>
-      <c r="AZ31" s="83"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="80"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="79"/>
+      <c r="AP31" s="79"/>
+      <c r="AQ31" s="79"/>
+      <c r="AR31" s="79"/>
+      <c r="AS31" s="79"/>
+      <c r="AT31" s="79"/>
+      <c r="AU31" s="79"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="79"/>
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="79"/>
+      <c r="AZ31" s="80"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -3758,56 +3835,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="82"/>
-      <c r="AB32" s="82"/>
-      <c r="AC32" s="82"/>
-      <c r="AD32" s="82"/>
-      <c r="AE32" s="82"/>
-      <c r="AF32" s="82"/>
-      <c r="AG32" s="82"/>
-      <c r="AH32" s="82"/>
-      <c r="AI32" s="82"/>
-      <c r="AJ32" s="82"/>
-      <c r="AK32" s="82"/>
-      <c r="AL32" s="83"/>
-      <c r="AM32" s="81"/>
-      <c r="AN32" s="82"/>
-      <c r="AO32" s="82"/>
-      <c r="AP32" s="82"/>
-      <c r="AQ32" s="82"/>
-      <c r="AR32" s="82"/>
-      <c r="AS32" s="82"/>
-      <c r="AT32" s="82"/>
-      <c r="AU32" s="82"/>
-      <c r="AV32" s="82"/>
-      <c r="AW32" s="82"/>
-      <c r="AX32" s="82"/>
-      <c r="AY32" s="82"/>
-      <c r="AZ32" s="83"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="80"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="79"/>
+      <c r="AT32" s="79"/>
+      <c r="AU32" s="79"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="79"/>
+      <c r="AZ32" s="80"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -3815,56 +3892,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="82"/>
-      <c r="AC33" s="82"/>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="82"/>
-      <c r="AF33" s="82"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-      <c r="AI33" s="82"/>
-      <c r="AJ33" s="82"/>
-      <c r="AK33" s="82"/>
-      <c r="AL33" s="83"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="82"/>
-      <c r="AO33" s="82"/>
-      <c r="AP33" s="82"/>
-      <c r="AQ33" s="82"/>
-      <c r="AR33" s="82"/>
-      <c r="AS33" s="82"/>
-      <c r="AT33" s="82"/>
-      <c r="AU33" s="82"/>
-      <c r="AV33" s="82"/>
-      <c r="AW33" s="82"/>
-      <c r="AX33" s="82"/>
-      <c r="AY33" s="82"/>
-      <c r="AZ33" s="83"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="79"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="79"/>
+      <c r="AJ33" s="79"/>
+      <c r="AK33" s="79"/>
+      <c r="AL33" s="80"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="79"/>
+      <c r="AO33" s="79"/>
+      <c r="AP33" s="79"/>
+      <c r="AQ33" s="79"/>
+      <c r="AR33" s="79"/>
+      <c r="AS33" s="79"/>
+      <c r="AT33" s="79"/>
+      <c r="AU33" s="79"/>
+      <c r="AV33" s="79"/>
+      <c r="AW33" s="79"/>
+      <c r="AX33" s="79"/>
+      <c r="AY33" s="79"/>
+      <c r="AZ33" s="80"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -3872,56 +3949,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="82"/>
-      <c r="AB34" s="82"/>
-      <c r="AC34" s="82"/>
-      <c r="AD34" s="82"/>
-      <c r="AE34" s="82"/>
-      <c r="AF34" s="82"/>
-      <c r="AG34" s="82"/>
-      <c r="AH34" s="82"/>
-      <c r="AI34" s="82"/>
-      <c r="AJ34" s="82"/>
-      <c r="AK34" s="82"/>
-      <c r="AL34" s="83"/>
-      <c r="AM34" s="81"/>
-      <c r="AN34" s="82"/>
-      <c r="AO34" s="82"/>
-      <c r="AP34" s="82"/>
-      <c r="AQ34" s="82"/>
-      <c r="AR34" s="82"/>
-      <c r="AS34" s="82"/>
-      <c r="AT34" s="82"/>
-      <c r="AU34" s="82"/>
-      <c r="AV34" s="82"/>
-      <c r="AW34" s="82"/>
-      <c r="AX34" s="82"/>
-      <c r="AY34" s="82"/>
-      <c r="AZ34" s="83"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="80"/>
+      <c r="AM34" s="78"/>
+      <c r="AN34" s="79"/>
+      <c r="AO34" s="79"/>
+      <c r="AP34" s="79"/>
+      <c r="AQ34" s="79"/>
+      <c r="AR34" s="79"/>
+      <c r="AS34" s="79"/>
+      <c r="AT34" s="79"/>
+      <c r="AU34" s="79"/>
+      <c r="AV34" s="79"/>
+      <c r="AW34" s="79"/>
+      <c r="AX34" s="79"/>
+      <c r="AY34" s="79"/>
+      <c r="AZ34" s="80"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -3929,59 +4006,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="82"/>
-      <c r="AF35" s="82"/>
-      <c r="AG35" s="82"/>
-      <c r="AH35" s="82"/>
-      <c r="AI35" s="82"/>
-      <c r="AJ35" s="82"/>
-      <c r="AK35" s="82"/>
-      <c r="AL35" s="83"/>
-      <c r="AM35" s="81"/>
-      <c r="AN35" s="82"/>
-      <c r="AO35" s="82"/>
-      <c r="AP35" s="82"/>
-      <c r="AQ35" s="82"/>
-      <c r="AR35" s="82"/>
-      <c r="AS35" s="82"/>
-      <c r="AT35" s="82"/>
-      <c r="AU35" s="82"/>
-      <c r="AV35" s="82"/>
-      <c r="AW35" s="82"/>
-      <c r="AX35" s="82"/>
-      <c r="AY35" s="82"/>
-      <c r="AZ35" s="83"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
+      <c r="AL35" s="80"/>
+      <c r="AM35" s="78"/>
+      <c r="AN35" s="79"/>
+      <c r="AO35" s="79"/>
+      <c r="AP35" s="79"/>
+      <c r="AQ35" s="79"/>
+      <c r="AR35" s="79"/>
+      <c r="AS35" s="79"/>
+      <c r="AT35" s="79"/>
+      <c r="AU35" s="79"/>
+      <c r="AV35" s="79"/>
+      <c r="AW35" s="79"/>
+      <c r="AX35" s="79"/>
+      <c r="AY35" s="79"/>
+      <c r="AZ35" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:AL8"/>
@@ -3992,136 +4199,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,17 +4210,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BE90"/>
+  <dimension ref="A1:BG108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="13"/>
     <col min="2" max="2" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="3.28515625" style="13"/>
+    <col min="3" max="3" width="3.28515625" style="13"/>
+    <col min="4" max="4" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.28515625" style="13"/>
     <col min="10" max="10" width="2.42578125" style="13" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="13" customWidth="1"/>
     <col min="12" max="34" width="3.28515625" style="13"/>
@@ -4481,7 +4558,7 @@
     </row>
     <row r="8" spans="1:51">
       <c r="A8" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -6491,7 +6568,9 @@
     </row>
     <row r="49" spans="1:51">
       <c r="A49" s="36"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -6537,8 +6616,6 @@
       <c r="AS49" s="21"/>
       <c r="AT49" s="21"/>
       <c r="AU49" s="21"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="21"/>
     </row>
     <row r="50" spans="1:51">
       <c r="A50" s="36"/>
@@ -6588,63 +6665,55 @@
       <c r="AS50" s="21"/>
       <c r="AT50" s="21"/>
       <c r="AU50" s="21"/>
-      <c r="AV50" s="21"/>
-      <c r="AW50" s="21"/>
     </row>
     <row r="51" spans="1:51">
-      <c r="A51" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="15"/>
-      <c r="AH51" s="15"/>
-      <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15"/>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="15"/>
-      <c r="AQ51" s="15"/>
-      <c r="AR51" s="15"/>
-      <c r="AS51" s="15"/>
-      <c r="AT51" s="15"/>
-      <c r="AU51" s="15"/>
-      <c r="AV51" s="15"/>
-      <c r="AW51" s="15"/>
-      <c r="AX51" s="15"/>
-      <c r="AY51" s="15"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="21"/>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="21"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="21"/>
+      <c r="AQ51" s="21"/>
+      <c r="AR51" s="21"/>
+      <c r="AS51" s="21"/>
+      <c r="AT51" s="21"/>
+      <c r="AU51" s="21"/>
     </row>
     <row r="52" spans="1:51">
       <c r="A52" s="36"/>
@@ -6694,14 +6763,10 @@
       <c r="AS52" s="21"/>
       <c r="AT52" s="21"/>
       <c r="AU52" s="21"/>
-      <c r="AV52" s="21"/>
-      <c r="AW52" s="21"/>
     </row>
     <row r="53" spans="1:51">
       <c r="A53" s="36"/>
-      <c r="B53" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
@@ -6746,717 +6811,565 @@
       <c r="AR53" s="21"/>
       <c r="AS53" s="21"/>
       <c r="AT53" s="21"/>
-    </row>
-    <row r="54" spans="1:51" s="27" customFormat="1">
+      <c r="AU53" s="21"/>
+    </row>
+    <row r="54" spans="1:51">
       <c r="A54" s="36"/>
-      <c r="B54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="24"/>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="23"/>
-      <c r="AJ54" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK54" s="26"/>
-      <c r="AL54" s="26"/>
-      <c r="AM54" s="26"/>
-      <c r="AN54" s="24"/>
-      <c r="AO54" s="24"/>
-      <c r="AP54" s="25"/>
-      <c r="AQ54" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR54" s="24"/>
-      <c r="AS54" s="24"/>
-      <c r="AT54" s="24"/>
-      <c r="AU54" s="24"/>
-      <c r="AV54" s="24"/>
-      <c r="AW54" s="25"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
     </row>
     <row r="55" spans="1:51">
       <c r="A55" s="36"/>
-      <c r="B55" s="41">
-        <f>ROW()-54</f>
-        <v>1</v>
-      </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="40"/>
-      <c r="AE55" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="40"/>
-      <c r="AJ55" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
-      <c r="AP55" s="40"/>
-      <c r="AQ55" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="39"/>
-      <c r="AT55" s="39"/>
-      <c r="AU55" s="39"/>
-      <c r="AV55" s="39"/>
-      <c r="AW55" s="40"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="21"/>
     </row>
     <row r="56" spans="1:51">
       <c r="A56" s="36"/>
-      <c r="B56" s="41">
-        <f t="shared" ref="B56:B64" si="0">ROW()-54</f>
-        <v>2</v>
-      </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="40"/>
-      <c r="AE56" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="40"/>
-      <c r="AJ56" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="39"/>
-      <c r="AO56" s="39"/>
-      <c r="AP56" s="40"/>
-      <c r="AQ56" s="38"/>
-      <c r="AR56" s="39"/>
-      <c r="AS56" s="39"/>
-      <c r="AT56" s="39"/>
-      <c r="AU56" s="39"/>
-      <c r="AV56" s="39"/>
-      <c r="AW56" s="40"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="36"/>
-      <c r="B57" s="41">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="40"/>
-      <c r="AE57" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="39"/>
-      <c r="AI57" s="40"/>
-      <c r="AJ57" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="39"/>
-      <c r="AP57" s="40"/>
-      <c r="AQ57" s="38"/>
-      <c r="AR57" s="39"/>
-      <c r="AS57" s="39"/>
-      <c r="AT57" s="39"/>
-      <c r="AU57" s="39"/>
-      <c r="AV57" s="39"/>
-      <c r="AW57" s="40"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
+      <c r="AO57" s="21"/>
+      <c r="AP57" s="21"/>
+      <c r="AQ57" s="21"/>
+      <c r="AR57" s="21"/>
+      <c r="AS57" s="21"/>
+      <c r="AT57" s="21"/>
+      <c r="AU57" s="21"/>
     </row>
     <row r="58" spans="1:51">
       <c r="A58" s="36"/>
-      <c r="B58" s="41">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="40"/>
-      <c r="AE58" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="39"/>
-      <c r="AP58" s="40"/>
-      <c r="AQ58" s="38"/>
-      <c r="AR58" s="39"/>
-      <c r="AS58" s="39"/>
-      <c r="AT58" s="39"/>
-      <c r="AU58" s="39"/>
-      <c r="AV58" s="39"/>
-      <c r="AW58" s="40"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="21"/>
+      <c r="AL58" s="21"/>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="21"/>
+      <c r="AO58" s="21"/>
+      <c r="AP58" s="21"/>
+      <c r="AQ58" s="21"/>
+      <c r="AR58" s="21"/>
+      <c r="AS58" s="21"/>
+      <c r="AT58" s="21"/>
+      <c r="AU58" s="21"/>
     </row>
     <row r="59" spans="1:51">
       <c r="A59" s="36"/>
-      <c r="B59" s="41">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="40"/>
-      <c r="AE59" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="40"/>
-      <c r="AQ59" s="38"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="39"/>
-      <c r="AU59" s="39"/>
-      <c r="AV59" s="39"/>
-      <c r="AW59" s="40"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21"/>
+      <c r="AC59" s="21"/>
+      <c r="AD59" s="21"/>
+      <c r="AE59" s="21"/>
+      <c r="AF59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AH59" s="21"/>
+      <c r="AI59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AK59" s="21"/>
+      <c r="AL59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AN59" s="21"/>
+      <c r="AO59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AQ59" s="21"/>
+      <c r="AR59" s="21"/>
+      <c r="AS59" s="21"/>
+      <c r="AT59" s="21"/>
+      <c r="AU59" s="21"/>
     </row>
     <row r="60" spans="1:51">
       <c r="A60" s="36"/>
-      <c r="B60" s="41">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="40"/>
-      <c r="AE60" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="40"/>
-      <c r="AJ60" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
-      <c r="AP60" s="40"/>
-      <c r="AQ60" s="38"/>
-      <c r="AR60" s="39"/>
-      <c r="AS60" s="39"/>
-      <c r="AT60" s="39"/>
-      <c r="AU60" s="39"/>
-      <c r="AV60" s="39"/>
-      <c r="AW60" s="40"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="21"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="21"/>
+      <c r="AP60" s="21"/>
+      <c r="AQ60" s="21"/>
+      <c r="AR60" s="21"/>
+      <c r="AS60" s="21"/>
+      <c r="AT60" s="21"/>
+      <c r="AU60" s="21"/>
     </row>
     <row r="61" spans="1:51">
       <c r="A61" s="36"/>
-      <c r="B61" s="41">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="40"/>
-      <c r="AE61" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="39"/>
-      <c r="AI61" s="40"/>
-      <c r="AJ61" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="39"/>
-      <c r="AP61" s="40"/>
-      <c r="AQ61" s="38"/>
-      <c r="AR61" s="39"/>
-      <c r="AS61" s="39"/>
-      <c r="AT61" s="39"/>
-      <c r="AU61" s="39"/>
-      <c r="AV61" s="39"/>
-      <c r="AW61" s="40"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
     </row>
     <row r="62" spans="1:51">
       <c r="A62" s="36"/>
-      <c r="B62" s="41">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="39"/>
-      <c r="AB62" s="39"/>
-      <c r="AC62" s="39"/>
-      <c r="AD62" s="40"/>
-      <c r="AE62" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF62" s="39"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="39"/>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK62" s="39"/>
-      <c r="AL62" s="39"/>
-      <c r="AM62" s="39"/>
-      <c r="AN62" s="39"/>
-      <c r="AO62" s="39"/>
-      <c r="AP62" s="40"/>
-      <c r="AQ62" s="38"/>
-      <c r="AR62" s="39"/>
-      <c r="AS62" s="39"/>
-      <c r="AT62" s="39"/>
-      <c r="AU62" s="39"/>
-      <c r="AV62" s="39"/>
-      <c r="AW62" s="40"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="21"/>
+      <c r="AC62" s="21"/>
+      <c r="AD62" s="21"/>
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="21"/>
+      <c r="AG62" s="21"/>
+      <c r="AH62" s="21"/>
+      <c r="AI62" s="21"/>
+      <c r="AJ62" s="21"/>
+      <c r="AK62" s="21"/>
+      <c r="AL62" s="21"/>
+      <c r="AM62" s="21"/>
+      <c r="AN62" s="21"/>
+      <c r="AO62" s="21"/>
+      <c r="AP62" s="21"/>
+      <c r="AQ62" s="21"/>
+      <c r="AR62" s="21"/>
+      <c r="AS62" s="21"/>
+      <c r="AT62" s="21"/>
+      <c r="AU62" s="21"/>
+      <c r="AV62" s="21"/>
+      <c r="AW62" s="21"/>
     </row>
     <row r="63" spans="1:51">
-      <c r="A63" s="36"/>
-      <c r="B63" s="41">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="40"/>
-      <c r="AE63" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="39"/>
-      <c r="AI63" s="40"/>
-      <c r="AJ63" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK63" s="39"/>
-      <c r="AL63" s="39"/>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="39"/>
-      <c r="AP63" s="40"/>
-      <c r="AQ63" s="38"/>
-      <c r="AR63" s="39"/>
-      <c r="AS63" s="39"/>
-      <c r="AT63" s="39"/>
-      <c r="AU63" s="39"/>
-      <c r="AV63" s="39"/>
-      <c r="AW63" s="40"/>
+      <c r="A63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="15"/>
+      <c r="AH63" s="15"/>
+      <c r="AI63" s="15"/>
+      <c r="AJ63" s="15"/>
+      <c r="AK63" s="15"/>
+      <c r="AL63" s="15"/>
+      <c r="AM63" s="15"/>
+      <c r="AN63" s="15"/>
+      <c r="AO63" s="15"/>
+      <c r="AP63" s="15"/>
+      <c r="AQ63" s="15"/>
+      <c r="AR63" s="15"/>
+      <c r="AS63" s="15"/>
+      <c r="AT63" s="15"/>
+      <c r="AU63" s="15"/>
+      <c r="AV63" s="15"/>
+      <c r="AW63" s="15"/>
+      <c r="AX63" s="15"/>
+      <c r="AY63" s="15"/>
     </row>
     <row r="64" spans="1:51">
       <c r="A64" s="36"/>
-      <c r="B64" s="41">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="39"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="40"/>
-      <c r="AE64" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="39"/>
-      <c r="AI64" s="40"/>
-      <c r="AJ64" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK64" s="39"/>
-      <c r="AL64" s="39"/>
-      <c r="AM64" s="39"/>
-      <c r="AN64" s="39"/>
-      <c r="AO64" s="39"/>
-      <c r="AP64" s="40"/>
-      <c r="AQ64" s="38"/>
-      <c r="AR64" s="39"/>
-      <c r="AS64" s="39"/>
-      <c r="AT64" s="39"/>
-      <c r="AU64" s="39"/>
-      <c r="AV64" s="39"/>
-      <c r="AW64" s="40"/>
-    </row>
-    <row r="65" spans="1:57">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="21"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="21"/>
+      <c r="AO64" s="21"/>
+      <c r="AP64" s="21"/>
+      <c r="AQ64" s="21"/>
+      <c r="AR64" s="21"/>
+      <c r="AS64" s="21"/>
+      <c r="AT64" s="21"/>
+      <c r="AU64" s="21"/>
+      <c r="AV64" s="21"/>
+      <c r="AW64" s="21"/>
+      <c r="AX64" s="21"/>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="36"/>
-      <c r="B65" s="35"/>
+      <c r="B65" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
@@ -7502,112 +7415,125 @@
       <c r="AS65" s="21"/>
       <c r="AT65" s="21"/>
     </row>
-    <row r="66" spans="1:57">
+    <row r="66" spans="1:49" s="27" customFormat="1">
       <c r="A66" s="36"/>
-      <c r="B66" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="21"/>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="21"/>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="21"/>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="21"/>
-      <c r="AP66" s="21"/>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="21"/>
-      <c r="AT66" s="21"/>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="21"/>
-    </row>
-    <row r="67" spans="1:57" s="27" customFormat="1">
+      <c r="B66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="23"/>
+      <c r="AE66" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF66" s="26"/>
+      <c r="AG66" s="26"/>
+      <c r="AH66" s="26"/>
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK66" s="26"/>
+      <c r="AL66" s="26"/>
+      <c r="AM66" s="26"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="25"/>
+      <c r="AQ66" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="24"/>
+      <c r="AT66" s="24"/>
+      <c r="AU66" s="24"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="25"/>
+    </row>
+    <row r="67" spans="1:49" s="27" customFormat="1">
       <c r="A67" s="36"/>
-      <c r="B67" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="88"/>
-      <c r="V67" s="88"/>
-      <c r="W67" s="89"/>
-      <c r="X67" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="26"/>
-      <c r="AH67" s="26"/>
-      <c r="AI67" s="26"/>
-      <c r="AJ67" s="26"/>
-      <c r="AK67" s="26"/>
-      <c r="AL67" s="26"/>
-      <c r="AM67" s="26"/>
-      <c r="AN67" s="26"/>
-      <c r="AO67" s="26"/>
-      <c r="AP67" s="23"/>
-    </row>
-    <row r="68" spans="1:57">
+      <c r="B67" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
+      <c r="O67" s="92"/>
+      <c r="P67" s="92"/>
+      <c r="Q67" s="92"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="92"/>
+      <c r="T67" s="92"/>
+      <c r="U67" s="92"/>
+      <c r="V67" s="92"/>
+      <c r="W67" s="92"/>
+      <c r="X67" s="92"/>
+      <c r="Y67" s="92"/>
+      <c r="Z67" s="92"/>
+      <c r="AA67" s="92"/>
+      <c r="AB67" s="92"/>
+      <c r="AC67" s="92"/>
+      <c r="AD67" s="92"/>
+      <c r="AE67" s="92"/>
+      <c r="AF67" s="92"/>
+      <c r="AG67" s="92"/>
+      <c r="AH67" s="92"/>
+      <c r="AI67" s="92"/>
+      <c r="AJ67" s="92"/>
+      <c r="AK67" s="92"/>
+      <c r="AL67" s="92"/>
+      <c r="AM67" s="92"/>
+      <c r="AN67" s="92"/>
+      <c r="AO67" s="92"/>
+      <c r="AP67" s="92"/>
+      <c r="AQ67" s="92"/>
+      <c r="AR67" s="92"/>
+      <c r="AS67" s="92"/>
+      <c r="AT67" s="92"/>
+      <c r="AU67" s="92"/>
+      <c r="AV67" s="92"/>
+      <c r="AW67" s="93"/>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="36"/>
       <c r="B68" s="41">
         <f>ROW()-67</f>
@@ -7626,49 +7552,62 @@
       <c r="K68" s="39"/>
       <c r="L68" s="39"/>
       <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
-      <c r="AB68" s="39"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="39"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="39"/>
-      <c r="AL68" s="39"/>
-      <c r="AM68" s="39"/>
-      <c r="AN68" s="39"/>
-      <c r="AO68" s="39"/>
-      <c r="AP68" s="40"/>
-    </row>
-    <row r="69" spans="1:57">
+      <c r="N68" s="40"/>
+      <c r="O68" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" s="95"/>
+      <c r="Q68" s="95"/>
+      <c r="R68" s="95"/>
+      <c r="S68" s="95"/>
+      <c r="T68" s="96"/>
+      <c r="U68" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="V68" s="95"/>
+      <c r="W68" s="95"/>
+      <c r="X68" s="95"/>
+      <c r="Y68" s="95"/>
+      <c r="Z68" s="95"/>
+      <c r="AA68" s="95"/>
+      <c r="AB68" s="95"/>
+      <c r="AC68" s="95"/>
+      <c r="AD68" s="96"/>
+      <c r="AE68" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF68" s="95"/>
+      <c r="AG68" s="95"/>
+      <c r="AH68" s="95"/>
+      <c r="AI68" s="96"/>
+      <c r="AJ68" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK68" s="95"/>
+      <c r="AL68" s="95"/>
+      <c r="AM68" s="95"/>
+      <c r="AN68" s="95"/>
+      <c r="AO68" s="95"/>
+      <c r="AP68" s="96"/>
+      <c r="AQ68" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR68" s="95"/>
+      <c r="AS68" s="95"/>
+      <c r="AT68" s="95"/>
+      <c r="AU68" s="95"/>
+      <c r="AV68" s="95"/>
+      <c r="AW68" s="40"/>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="36"/>
       <c r="B69" s="41">
-        <f t="shared" ref="B69:B72" si="1">ROW()-67</f>
+        <f t="shared" ref="B69:B77" si="0">ROW()-67</f>
         <v>2</v>
       </c>
       <c r="C69" s="40"/>
       <c r="D69" s="38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="39"/>
@@ -7679,49 +7618,60 @@
       <c r="K69" s="39"/>
       <c r="L69" s="39"/>
       <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="39"/>
-      <c r="AB69" s="39"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="39"/>
-      <c r="AK69" s="39"/>
-      <c r="AL69" s="39"/>
-      <c r="AM69" s="39"/>
-      <c r="AN69" s="39"/>
-      <c r="AO69" s="39"/>
-      <c r="AP69" s="40"/>
-    </row>
-    <row r="70" spans="1:57">
+      <c r="N69" s="40"/>
+      <c r="O69" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="95"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="95"/>
+      <c r="T69" s="96"/>
+      <c r="U69" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="V69" s="95"/>
+      <c r="W69" s="95"/>
+      <c r="X69" s="95"/>
+      <c r="Y69" s="95"/>
+      <c r="Z69" s="95"/>
+      <c r="AA69" s="95"/>
+      <c r="AB69" s="95"/>
+      <c r="AC69" s="95"/>
+      <c r="AD69" s="96"/>
+      <c r="AE69" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF69" s="95"/>
+      <c r="AG69" s="95"/>
+      <c r="AH69" s="95"/>
+      <c r="AI69" s="96"/>
+      <c r="AJ69" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK69" s="95"/>
+      <c r="AL69" s="95"/>
+      <c r="AM69" s="95"/>
+      <c r="AN69" s="95"/>
+      <c r="AO69" s="95"/>
+      <c r="AP69" s="96"/>
+      <c r="AQ69" s="90"/>
+      <c r="AR69" s="95"/>
+      <c r="AS69" s="95"/>
+      <c r="AT69" s="95"/>
+      <c r="AU69" s="95"/>
+      <c r="AV69" s="95"/>
+      <c r="AW69" s="40"/>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="36"/>
       <c r="B70" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39"/>
@@ -7732,49 +7682,60 @@
       <c r="K70" s="39"/>
       <c r="L70" s="39"/>
       <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="39"/>
-      <c r="AB70" s="39"/>
-      <c r="AC70" s="39"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="39"/>
-      <c r="AG70" s="39"/>
-      <c r="AH70" s="39"/>
-      <c r="AI70" s="39"/>
-      <c r="AJ70" s="39"/>
-      <c r="AK70" s="39"/>
-      <c r="AL70" s="39"/>
-      <c r="AM70" s="39"/>
-      <c r="AN70" s="39"/>
-      <c r="AO70" s="39"/>
-      <c r="AP70" s="40"/>
-    </row>
-    <row r="71" spans="1:57">
+      <c r="N70" s="40"/>
+      <c r="O70" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" s="95"/>
+      <c r="Q70" s="95"/>
+      <c r="R70" s="95"/>
+      <c r="S70" s="95"/>
+      <c r="T70" s="96"/>
+      <c r="U70" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="V70" s="95"/>
+      <c r="W70" s="95"/>
+      <c r="X70" s="95"/>
+      <c r="Y70" s="95"/>
+      <c r="Z70" s="95"/>
+      <c r="AA70" s="95"/>
+      <c r="AB70" s="95"/>
+      <c r="AC70" s="95"/>
+      <c r="AD70" s="96"/>
+      <c r="AE70" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF70" s="95"/>
+      <c r="AG70" s="95"/>
+      <c r="AH70" s="95"/>
+      <c r="AI70" s="96"/>
+      <c r="AJ70" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK70" s="95"/>
+      <c r="AL70" s="95"/>
+      <c r="AM70" s="95"/>
+      <c r="AN70" s="95"/>
+      <c r="AO70" s="95"/>
+      <c r="AP70" s="96"/>
+      <c r="AQ70" s="90"/>
+      <c r="AR70" s="95"/>
+      <c r="AS70" s="95"/>
+      <c r="AT70" s="95"/>
+      <c r="AU70" s="95"/>
+      <c r="AV70" s="95"/>
+      <c r="AW70" s="40"/>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="36"/>
       <c r="B71" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C71" s="40"/>
       <c r="D71" s="38" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
@@ -7785,49 +7746,60 @@
       <c r="K71" s="39"/>
       <c r="L71" s="39"/>
       <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="39"/>
-      <c r="AA71" s="39"/>
-      <c r="AB71" s="39"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="39"/>
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="39"/>
-      <c r="AG71" s="39"/>
-      <c r="AH71" s="39"/>
-      <c r="AI71" s="39"/>
-      <c r="AJ71" s="39"/>
-      <c r="AK71" s="39"/>
-      <c r="AL71" s="39"/>
-      <c r="AM71" s="39"/>
-      <c r="AN71" s="39"/>
-      <c r="AO71" s="39"/>
-      <c r="AP71" s="40"/>
-    </row>
-    <row r="72" spans="1:57">
+      <c r="N71" s="40"/>
+      <c r="O71" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71" s="95"/>
+      <c r="Q71" s="95"/>
+      <c r="R71" s="95"/>
+      <c r="S71" s="95"/>
+      <c r="T71" s="96"/>
+      <c r="U71" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="V71" s="95"/>
+      <c r="W71" s="95"/>
+      <c r="X71" s="95"/>
+      <c r="Y71" s="95"/>
+      <c r="Z71" s="95"/>
+      <c r="AA71" s="95"/>
+      <c r="AB71" s="95"/>
+      <c r="AC71" s="95"/>
+      <c r="AD71" s="96"/>
+      <c r="AE71" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF71" s="95"/>
+      <c r="AG71" s="95"/>
+      <c r="AH71" s="95"/>
+      <c r="AI71" s="96"/>
+      <c r="AJ71" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK71" s="95"/>
+      <c r="AL71" s="95"/>
+      <c r="AM71" s="95"/>
+      <c r="AN71" s="95"/>
+      <c r="AO71" s="95"/>
+      <c r="AP71" s="96"/>
+      <c r="AQ71" s="90"/>
+      <c r="AR71" s="95"/>
+      <c r="AS71" s="95"/>
+      <c r="AT71" s="95"/>
+      <c r="AU71" s="95"/>
+      <c r="AV71" s="95"/>
+      <c r="AW71" s="40"/>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="36"/>
       <c r="B72" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C72" s="40"/>
       <c r="D72" s="38" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
@@ -7838,784 +7810,740 @@
       <c r="K72" s="39"/>
       <c r="L72" s="39"/>
       <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="39"/>
-      <c r="AA72" s="39"/>
-      <c r="AB72" s="39"/>
-      <c r="AC72" s="39"/>
-      <c r="AD72" s="39"/>
-      <c r="AE72" s="39"/>
-      <c r="AF72" s="39"/>
-      <c r="AG72" s="39"/>
-      <c r="AH72" s="39"/>
-      <c r="AI72" s="39"/>
-      <c r="AJ72" s="39"/>
-      <c r="AK72" s="39"/>
-      <c r="AL72" s="39"/>
-      <c r="AM72" s="39"/>
-      <c r="AN72" s="39"/>
-      <c r="AO72" s="39"/>
-      <c r="AP72" s="40"/>
-    </row>
-    <row r="73" spans="1:57">
+      <c r="N72" s="40"/>
+      <c r="O72" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="P72" s="95"/>
+      <c r="Q72" s="95"/>
+      <c r="R72" s="95"/>
+      <c r="S72" s="95"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="V72" s="95"/>
+      <c r="W72" s="95"/>
+      <c r="X72" s="95"/>
+      <c r="Y72" s="95"/>
+      <c r="Z72" s="95"/>
+      <c r="AA72" s="95"/>
+      <c r="AB72" s="95"/>
+      <c r="AC72" s="95"/>
+      <c r="AD72" s="96"/>
+      <c r="AE72" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF72" s="95"/>
+      <c r="AG72" s="95"/>
+      <c r="AH72" s="95"/>
+      <c r="AI72" s="96"/>
+      <c r="AJ72" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK72" s="95"/>
+      <c r="AL72" s="95"/>
+      <c r="AM72" s="95"/>
+      <c r="AN72" s="95"/>
+      <c r="AO72" s="95"/>
+      <c r="AP72" s="96"/>
+      <c r="AQ72" s="90"/>
+      <c r="AR72" s="95"/>
+      <c r="AS72" s="95"/>
+      <c r="AT72" s="95"/>
+      <c r="AU72" s="95"/>
+      <c r="AV72" s="95"/>
+      <c r="AW72" s="40"/>
+    </row>
+    <row r="73" spans="1:49">
       <c r="A73" s="36"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
-      <c r="AA73" s="21"/>
-      <c r="AB73" s="21"/>
-      <c r="AC73" s="21"/>
-      <c r="AD73" s="21"/>
-      <c r="AE73" s="21"/>
-      <c r="AF73" s="21"/>
-      <c r="AG73" s="21"/>
-      <c r="AH73" s="21"/>
-      <c r="AI73" s="21"/>
-      <c r="AJ73" s="21"/>
-      <c r="AK73" s="21"/>
-      <c r="AL73" s="21"/>
-      <c r="AM73" s="21"/>
-      <c r="AN73" s="21"/>
-      <c r="AO73" s="21"/>
-      <c r="AP73" s="21"/>
-    </row>
-    <row r="74" spans="1:57">
+      <c r="B73" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="95"/>
+      <c r="R73" s="95"/>
+      <c r="S73" s="95"/>
+      <c r="T73" s="96"/>
+      <c r="U73" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="V73" s="95"/>
+      <c r="W73" s="95"/>
+      <c r="X73" s="95"/>
+      <c r="Y73" s="95"/>
+      <c r="Z73" s="95"/>
+      <c r="AA73" s="95"/>
+      <c r="AB73" s="95"/>
+      <c r="AC73" s="95"/>
+      <c r="AD73" s="96"/>
+      <c r="AE73" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF73" s="95"/>
+      <c r="AG73" s="95"/>
+      <c r="AH73" s="95"/>
+      <c r="AI73" s="96"/>
+      <c r="AJ73" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK73" s="95"/>
+      <c r="AL73" s="95"/>
+      <c r="AM73" s="95"/>
+      <c r="AN73" s="95"/>
+      <c r="AO73" s="95"/>
+      <c r="AP73" s="96"/>
+      <c r="AQ73" s="90"/>
+      <c r="AR73" s="95"/>
+      <c r="AS73" s="95"/>
+      <c r="AT73" s="95"/>
+      <c r="AU73" s="95"/>
+      <c r="AV73" s="95"/>
+      <c r="AW73" s="40"/>
+    </row>
+    <row r="74" spans="1:49">
       <c r="A74" s="36"/>
-      <c r="B74" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-      <c r="AK74" s="21"/>
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
-      <c r="AN74" s="21"/>
-      <c r="AO74" s="21"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="21"/>
-      <c r="AR74" s="21"/>
-      <c r="AS74" s="21"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="21"/>
-      <c r="AV74" s="21"/>
-      <c r="AW74" s="21"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="21"/>
-    </row>
-    <row r="75" spans="1:57" s="27" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B74" s="41">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C74" s="40"/>
+      <c r="D74" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="95"/>
+      <c r="R74" s="95"/>
+      <c r="S74" s="95"/>
+      <c r="T74" s="96"/>
+      <c r="U74" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="V74" s="95"/>
+      <c r="W74" s="95"/>
+      <c r="X74" s="95"/>
+      <c r="Y74" s="95"/>
+      <c r="Z74" s="95"/>
+      <c r="AA74" s="95"/>
+      <c r="AB74" s="95"/>
+      <c r="AC74" s="95"/>
+      <c r="AD74" s="96"/>
+      <c r="AE74" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF74" s="95"/>
+      <c r="AG74" s="95"/>
+      <c r="AH74" s="95"/>
+      <c r="AI74" s="96"/>
+      <c r="AJ74" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK74" s="95"/>
+      <c r="AL74" s="95"/>
+      <c r="AM74" s="95"/>
+      <c r="AN74" s="95"/>
+      <c r="AO74" s="95"/>
+      <c r="AP74" s="96"/>
+      <c r="AQ74" s="90"/>
+      <c r="AR74" s="95"/>
+      <c r="AS74" s="95"/>
+      <c r="AT74" s="95"/>
+      <c r="AU74" s="95"/>
+      <c r="AV74" s="95"/>
+      <c r="AW74" s="40"/>
+    </row>
+    <row r="75" spans="1:49">
       <c r="A75" s="36"/>
-      <c r="B75" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="85"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
-      <c r="AC75" s="15"/>
-      <c r="AD75" s="15"/>
-      <c r="AE75" s="48"/>
-      <c r="AF75" s="48"/>
-      <c r="AG75" s="48"/>
-      <c r="AH75" s="48"/>
-      <c r="AI75" s="48"/>
-      <c r="AJ75" s="48"/>
-      <c r="AK75" s="48"/>
-      <c r="AL75" s="48"/>
-      <c r="AM75" s="48"/>
-      <c r="AN75" s="48"/>
-      <c r="AO75" s="48"/>
-      <c r="AP75" s="48"/>
-      <c r="AQ75" s="48"/>
-      <c r="AR75" s="48"/>
-      <c r="AS75" s="48"/>
-      <c r="AT75" s="49"/>
-      <c r="AU75" s="43"/>
-      <c r="AV75" s="43"/>
-      <c r="AW75" s="43"/>
-      <c r="AX75" s="43"/>
-      <c r="AY75" s="43"/>
-      <c r="AZ75" s="43"/>
-      <c r="BA75" s="43"/>
-      <c r="BB75" s="21"/>
-      <c r="BC75" s="21"/>
-      <c r="BD75" s="21"/>
-      <c r="BE75" s="13"/>
-    </row>
-    <row r="76" spans="1:57">
+      <c r="B75" s="41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C75" s="40"/>
+      <c r="D75" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="95"/>
+      <c r="R75" s="95"/>
+      <c r="S75" s="95"/>
+      <c r="T75" s="96"/>
+      <c r="U75" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="V75" s="95"/>
+      <c r="W75" s="95"/>
+      <c r="X75" s="95"/>
+      <c r="Y75" s="95"/>
+      <c r="Z75" s="95"/>
+      <c r="AA75" s="95"/>
+      <c r="AB75" s="95"/>
+      <c r="AC75" s="95"/>
+      <c r="AD75" s="96"/>
+      <c r="AE75" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF75" s="95"/>
+      <c r="AG75" s="95"/>
+      <c r="AH75" s="95"/>
+      <c r="AI75" s="96"/>
+      <c r="AJ75" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK75" s="95"/>
+      <c r="AL75" s="95"/>
+      <c r="AM75" s="95"/>
+      <c r="AN75" s="95"/>
+      <c r="AO75" s="95"/>
+      <c r="AP75" s="96"/>
+      <c r="AQ75" s="90"/>
+      <c r="AR75" s="95"/>
+      <c r="AS75" s="95"/>
+      <c r="AT75" s="95"/>
+      <c r="AU75" s="95"/>
+      <c r="AV75" s="95"/>
+      <c r="AW75" s="40"/>
+    </row>
+    <row r="76" spans="1:49">
       <c r="A76" s="36"/>
       <c r="B76" s="41">
-        <f>ROW()-75</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C76" s="40"/>
-      <c r="D76" s="38">
-        <v>4</v>
+      <c r="D76" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
-      <c r="G76" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="G76" s="39"/>
       <c r="H76" s="39"/>
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39"/>
       <c r="L76" s="39"/>
       <c r="M76" s="39"/>
-      <c r="N76" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA76" s="90"/>
-      <c r="AB76" s="39"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="39"/>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="39"/>
-      <c r="AK76" s="39"/>
-      <c r="AL76" s="39"/>
-      <c r="AM76" s="39"/>
-      <c r="AN76" s="39"/>
-      <c r="AO76" s="39"/>
-      <c r="AP76" s="39"/>
-      <c r="AQ76" s="39"/>
-      <c r="AR76" s="39"/>
-      <c r="AS76" s="39"/>
-      <c r="AT76" s="40"/>
-      <c r="AU76" s="37"/>
-      <c r="AV76" s="37"/>
-      <c r="AW76" s="37"/>
-      <c r="AX76" s="37"/>
-      <c r="AY76" s="37"/>
-      <c r="AZ76" s="37"/>
-      <c r="BA76" s="37"/>
-      <c r="BB76" s="17"/>
-      <c r="BC76" s="17"/>
-      <c r="BD76" s="17"/>
-    </row>
-    <row r="77" spans="1:57">
+      <c r="N76" s="40"/>
+      <c r="O76" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="P76" s="95"/>
+      <c r="Q76" s="95"/>
+      <c r="R76" s="95"/>
+      <c r="S76" s="95"/>
+      <c r="T76" s="96"/>
+      <c r="U76" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="V76" s="95"/>
+      <c r="W76" s="95"/>
+      <c r="X76" s="95"/>
+      <c r="Y76" s="95"/>
+      <c r="Z76" s="95"/>
+      <c r="AA76" s="95"/>
+      <c r="AB76" s="95"/>
+      <c r="AC76" s="95"/>
+      <c r="AD76" s="96"/>
+      <c r="AE76" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF76" s="95"/>
+      <c r="AG76" s="95"/>
+      <c r="AH76" s="95"/>
+      <c r="AI76" s="96"/>
+      <c r="AJ76" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK76" s="95"/>
+      <c r="AL76" s="95"/>
+      <c r="AM76" s="95"/>
+      <c r="AN76" s="95"/>
+      <c r="AO76" s="95"/>
+      <c r="AP76" s="96"/>
+      <c r="AQ76" s="90"/>
+      <c r="AR76" s="95"/>
+      <c r="AS76" s="95"/>
+      <c r="AT76" s="95"/>
+      <c r="AU76" s="95"/>
+      <c r="AV76" s="95"/>
+      <c r="AW76" s="40"/>
+    </row>
+    <row r="77" spans="1:49">
       <c r="A77" s="36"/>
       <c r="B77" s="41">
-        <f t="shared" ref="B77:B88" si="2">ROW()-75</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C77" s="40"/>
-      <c r="D77" s="38"/>
+      <c r="D77" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
-      <c r="G77" s="38"/>
+      <c r="G77" s="39"/>
       <c r="H77" s="39"/>
       <c r="I77" s="39"/>
       <c r="J77" s="39"/>
       <c r="K77" s="39"/>
       <c r="L77" s="39"/>
       <c r="M77" s="39"/>
-      <c r="N77" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA77" s="90"/>
-      <c r="AB77" s="39"/>
-      <c r="AC77" s="39"/>
-      <c r="AD77" s="39"/>
-      <c r="AE77" s="39"/>
-      <c r="AF77" s="39"/>
-      <c r="AG77" s="39"/>
-      <c r="AH77" s="39"/>
-      <c r="AI77" s="39"/>
-      <c r="AJ77" s="39"/>
-      <c r="AK77" s="39"/>
-      <c r="AL77" s="39"/>
-      <c r="AM77" s="39"/>
-      <c r="AN77" s="39"/>
-      <c r="AO77" s="39"/>
-      <c r="AP77" s="39"/>
-      <c r="AQ77" s="39"/>
-      <c r="AR77" s="39"/>
-      <c r="AS77" s="39"/>
-      <c r="AT77" s="40"/>
-      <c r="AU77" s="37"/>
-      <c r="AV77" s="37"/>
-      <c r="AW77" s="37"/>
-      <c r="AX77" s="37"/>
-      <c r="AY77" s="37"/>
-      <c r="AZ77" s="37"/>
-      <c r="BA77" s="37"/>
-      <c r="BB77" s="17"/>
-      <c r="BC77" s="17"/>
-      <c r="BD77" s="17"/>
-    </row>
-    <row r="78" spans="1:57">
+      <c r="N77" s="40"/>
+      <c r="O77" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="P77" s="95"/>
+      <c r="Q77" s="95"/>
+      <c r="R77" s="95"/>
+      <c r="S77" s="95"/>
+      <c r="T77" s="96"/>
+      <c r="U77" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="V77" s="95"/>
+      <c r="W77" s="95"/>
+      <c r="X77" s="95"/>
+      <c r="Y77" s="95"/>
+      <c r="Z77" s="95"/>
+      <c r="AA77" s="95"/>
+      <c r="AB77" s="95"/>
+      <c r="AC77" s="95"/>
+      <c r="AD77" s="96"/>
+      <c r="AE77" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF77" s="95"/>
+      <c r="AG77" s="95"/>
+      <c r="AH77" s="95"/>
+      <c r="AI77" s="96"/>
+      <c r="AJ77" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK77" s="95"/>
+      <c r="AL77" s="95"/>
+      <c r="AM77" s="95"/>
+      <c r="AN77" s="95"/>
+      <c r="AO77" s="95"/>
+      <c r="AP77" s="96"/>
+      <c r="AQ77" s="90"/>
+      <c r="AR77" s="95"/>
+      <c r="AS77" s="95"/>
+      <c r="AT77" s="95"/>
+      <c r="AU77" s="95"/>
+      <c r="AV77" s="95"/>
+      <c r="AW77" s="40"/>
+    </row>
+    <row r="78" spans="1:49" s="27" customFormat="1">
       <c r="A78" s="36"/>
-      <c r="B78" s="41">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="38">
-        <v>5</v>
-      </c>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA78" s="90"/>
-      <c r="AB78" s="39"/>
-      <c r="AC78" s="39"/>
-      <c r="AD78" s="39"/>
-      <c r="AE78" s="39"/>
-      <c r="AF78" s="39"/>
-      <c r="AG78" s="39"/>
-      <c r="AH78" s="39"/>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="39"/>
-      <c r="AK78" s="39"/>
-      <c r="AL78" s="39"/>
-      <c r="AM78" s="39"/>
-      <c r="AN78" s="39"/>
-      <c r="AO78" s="39"/>
-      <c r="AP78" s="39"/>
-      <c r="AQ78" s="39"/>
-      <c r="AR78" s="39"/>
-      <c r="AS78" s="39"/>
-      <c r="AT78" s="40"/>
-      <c r="AU78" s="37"/>
-      <c r="AV78" s="37"/>
-      <c r="AW78" s="37"/>
-      <c r="AX78" s="37"/>
-      <c r="AY78" s="37"/>
-      <c r="AZ78" s="37"/>
-      <c r="BA78" s="37"/>
-      <c r="BB78" s="17"/>
-      <c r="BC78" s="17"/>
-      <c r="BD78" s="17"/>
-    </row>
-    <row r="79" spans="1:57">
+      <c r="B78" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="94"/>
+      <c r="Q78" s="94"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="94"/>
+      <c r="T78" s="94"/>
+      <c r="U78" s="94"/>
+      <c r="V78" s="94"/>
+      <c r="W78" s="94"/>
+      <c r="X78" s="94"/>
+      <c r="Y78" s="94"/>
+      <c r="Z78" s="94"/>
+      <c r="AA78" s="94"/>
+      <c r="AB78" s="94"/>
+      <c r="AC78" s="94"/>
+      <c r="AD78" s="94"/>
+      <c r="AE78" s="94"/>
+      <c r="AF78" s="94"/>
+      <c r="AG78" s="94"/>
+      <c r="AH78" s="94"/>
+      <c r="AI78" s="94"/>
+      <c r="AJ78" s="94"/>
+      <c r="AK78" s="94"/>
+      <c r="AL78" s="94"/>
+      <c r="AM78" s="94"/>
+      <c r="AN78" s="94"/>
+      <c r="AO78" s="94"/>
+      <c r="AP78" s="94"/>
+      <c r="AQ78" s="94"/>
+      <c r="AR78" s="94"/>
+      <c r="AS78" s="94"/>
+      <c r="AT78" s="94"/>
+      <c r="AU78" s="94"/>
+      <c r="AV78" s="94"/>
+      <c r="AW78" s="93"/>
+    </row>
+    <row r="79" spans="1:49">
       <c r="A79" s="36"/>
       <c r="B79" s="41">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>ROW()-68</f>
+        <v>11</v>
       </c>
       <c r="C79" s="40"/>
-      <c r="D79" s="38"/>
+      <c r="D79" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="E79" s="39"/>
       <c r="F79" s="39"/>
-      <c r="G79" s="38"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="39"/>
       <c r="I79" s="39"/>
       <c r="J79" s="39"/>
       <c r="K79" s="39"/>
       <c r="L79" s="39"/>
       <c r="M79" s="39"/>
-      <c r="N79" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA79" s="90"/>
-      <c r="AB79" s="39"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="39"/>
-      <c r="AE79" s="39"/>
-      <c r="AF79" s="39"/>
-      <c r="AG79" s="39"/>
-      <c r="AH79" s="39"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="39"/>
-      <c r="AK79" s="39"/>
-      <c r="AL79" s="39"/>
-      <c r="AM79" s="39"/>
-      <c r="AN79" s="39"/>
-      <c r="AO79" s="39"/>
-      <c r="AP79" s="39"/>
-      <c r="AQ79" s="39"/>
-      <c r="AR79" s="39"/>
-      <c r="AS79" s="39"/>
-      <c r="AT79" s="40"/>
-      <c r="AU79" s="37"/>
-      <c r="AV79" s="37"/>
-      <c r="AW79" s="37"/>
-      <c r="AX79" s="37"/>
-      <c r="AY79" s="37"/>
-      <c r="AZ79" s="37"/>
-      <c r="BA79" s="37"/>
-      <c r="BB79" s="17"/>
-      <c r="BC79" s="17"/>
-      <c r="BD79" s="17"/>
-    </row>
-    <row r="80" spans="1:57">
+      <c r="N79" s="40"/>
+      <c r="O79" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="P79" s="95"/>
+      <c r="Q79" s="95"/>
+      <c r="R79" s="95"/>
+      <c r="S79" s="95"/>
+      <c r="T79" s="96"/>
+      <c r="U79" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="V79" s="95"/>
+      <c r="W79" s="95"/>
+      <c r="X79" s="95"/>
+      <c r="Y79" s="95"/>
+      <c r="Z79" s="95"/>
+      <c r="AA79" s="95"/>
+      <c r="AB79" s="95"/>
+      <c r="AC79" s="95"/>
+      <c r="AD79" s="96"/>
+      <c r="AE79" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF79" s="95"/>
+      <c r="AG79" s="95"/>
+      <c r="AH79" s="95"/>
+      <c r="AI79" s="96"/>
+      <c r="AJ79" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK79" s="95"/>
+      <c r="AL79" s="95"/>
+      <c r="AM79" s="95"/>
+      <c r="AN79" s="95"/>
+      <c r="AO79" s="95"/>
+      <c r="AP79" s="96"/>
+      <c r="AQ79" s="90"/>
+      <c r="AR79" s="95"/>
+      <c r="AS79" s="95"/>
+      <c r="AT79" s="95"/>
+      <c r="AU79" s="95"/>
+      <c r="AV79" s="95"/>
+      <c r="AW79" s="40"/>
+    </row>
+    <row r="80" spans="1:49">
       <c r="A80" s="36"/>
       <c r="B80" s="41">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>ROW()-68</f>
+        <v>12</v>
       </c>
       <c r="C80" s="40"/>
-      <c r="D80" s="38"/>
+      <c r="D80" s="38" t="s">
+        <v>138</v>
+      </c>
       <c r="E80" s="39"/>
       <c r="F80" s="39"/>
-      <c r="G80" s="38"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="39"/>
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
       <c r="K80" s="39"/>
       <c r="L80" s="39"/>
       <c r="M80" s="39"/>
-      <c r="N80" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA80" s="90"/>
-      <c r="AB80" s="39"/>
-      <c r="AC80" s="39"/>
-      <c r="AD80" s="39"/>
-      <c r="AE80" s="39"/>
-      <c r="AF80" s="39"/>
-      <c r="AG80" s="39"/>
-      <c r="AH80" s="39"/>
-      <c r="AI80" s="39"/>
-      <c r="AJ80" s="39"/>
-      <c r="AK80" s="39"/>
-      <c r="AL80" s="39"/>
-      <c r="AM80" s="39"/>
-      <c r="AN80" s="39"/>
-      <c r="AO80" s="39"/>
-      <c r="AP80" s="39"/>
-      <c r="AQ80" s="39"/>
-      <c r="AR80" s="39"/>
-      <c r="AS80" s="39"/>
-      <c r="AT80" s="40"/>
-      <c r="AU80" s="37"/>
-      <c r="AV80" s="37"/>
-      <c r="AW80" s="37"/>
-      <c r="AX80" s="37"/>
-      <c r="AY80" s="37"/>
-      <c r="AZ80" s="37"/>
-      <c r="BA80" s="37"/>
-      <c r="BB80" s="17"/>
-      <c r="BC80" s="17"/>
-      <c r="BD80" s="17"/>
-    </row>
-    <row r="81" spans="1:56">
+      <c r="N80" s="40"/>
+      <c r="O80" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="P80" s="95"/>
+      <c r="Q80" s="95"/>
+      <c r="R80" s="95"/>
+      <c r="S80" s="95"/>
+      <c r="T80" s="96"/>
+      <c r="U80" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="V80" s="95"/>
+      <c r="W80" s="95"/>
+      <c r="X80" s="95"/>
+      <c r="Y80" s="95"/>
+      <c r="Z80" s="95"/>
+      <c r="AA80" s="95"/>
+      <c r="AB80" s="95"/>
+      <c r="AC80" s="95"/>
+      <c r="AD80" s="96"/>
+      <c r="AE80" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF80" s="95"/>
+      <c r="AG80" s="95"/>
+      <c r="AH80" s="95"/>
+      <c r="AI80" s="96"/>
+      <c r="AJ80" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK80" s="95"/>
+      <c r="AL80" s="95"/>
+      <c r="AM80" s="95"/>
+      <c r="AN80" s="95"/>
+      <c r="AO80" s="95"/>
+      <c r="AP80" s="96"/>
+      <c r="AQ80" s="90"/>
+      <c r="AR80" s="95"/>
+      <c r="AS80" s="95"/>
+      <c r="AT80" s="95"/>
+      <c r="AU80" s="95"/>
+      <c r="AV80" s="95"/>
+      <c r="AW80" s="40"/>
+    </row>
+    <row r="81" spans="1:59">
       <c r="A81" s="36"/>
-      <c r="B81" s="41">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C81" s="40"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA81" s="90"/>
-      <c r="AB81" s="39"/>
-      <c r="AC81" s="39"/>
-      <c r="AD81" s="39"/>
-      <c r="AE81" s="39"/>
-      <c r="AF81" s="39"/>
-      <c r="AG81" s="39"/>
-      <c r="AH81" s="39"/>
-      <c r="AI81" s="39"/>
-      <c r="AJ81" s="39"/>
-      <c r="AK81" s="39"/>
-      <c r="AL81" s="39"/>
-      <c r="AM81" s="39"/>
-      <c r="AN81" s="39"/>
-      <c r="AO81" s="39"/>
-      <c r="AP81" s="39"/>
-      <c r="AQ81" s="39"/>
-      <c r="AR81" s="39"/>
-      <c r="AS81" s="39"/>
-      <c r="AT81" s="40"/>
-      <c r="AU81" s="37"/>
-      <c r="AV81" s="37"/>
-      <c r="AW81" s="37"/>
-      <c r="AX81" s="37"/>
-      <c r="AY81" s="37"/>
-      <c r="AZ81" s="37"/>
-      <c r="BA81" s="37"/>
-      <c r="BB81" s="17"/>
-      <c r="BC81" s="17"/>
-      <c r="BD81" s="17"/>
-    </row>
-    <row r="82" spans="1:56">
+      <c r="B81" s="35"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="21"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="21"/>
+      <c r="AC81" s="21"/>
+      <c r="AD81" s="21"/>
+      <c r="AE81" s="21"/>
+      <c r="AF81" s="21"/>
+      <c r="AG81" s="21"/>
+      <c r="AH81" s="21"/>
+      <c r="AI81" s="21"/>
+      <c r="AJ81" s="21"/>
+      <c r="AK81" s="21"/>
+      <c r="AL81" s="21"/>
+      <c r="AM81" s="21"/>
+      <c r="AN81" s="21"/>
+      <c r="AO81" s="21"/>
+      <c r="AP81" s="21"/>
+      <c r="AQ81" s="21"/>
+      <c r="AR81" s="21"/>
+      <c r="AS81" s="21"/>
+      <c r="AT81" s="21"/>
+    </row>
+    <row r="82" spans="1:59">
       <c r="A82" s="36"/>
-      <c r="B82" s="41">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
-      <c r="Z82" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA82" s="90"/>
-      <c r="AB82" s="39"/>
-      <c r="AC82" s="39"/>
-      <c r="AD82" s="39"/>
-      <c r="AE82" s="39"/>
-      <c r="AF82" s="39"/>
-      <c r="AG82" s="39"/>
-      <c r="AH82" s="39"/>
-      <c r="AI82" s="39"/>
-      <c r="AJ82" s="39"/>
-      <c r="AK82" s="39"/>
-      <c r="AL82" s="39"/>
-      <c r="AM82" s="39"/>
-      <c r="AN82" s="39"/>
-      <c r="AO82" s="39"/>
-      <c r="AP82" s="39"/>
-      <c r="AQ82" s="39"/>
-      <c r="AR82" s="39"/>
-      <c r="AS82" s="39"/>
-      <c r="AT82" s="40"/>
-      <c r="AU82" s="37"/>
-      <c r="AV82" s="37"/>
-      <c r="AW82" s="37"/>
-      <c r="AX82" s="37"/>
-      <c r="AY82" s="37"/>
-      <c r="AZ82" s="37"/>
-      <c r="BA82" s="37"/>
-      <c r="BB82" s="17"/>
-      <c r="BC82" s="17"/>
-      <c r="BD82" s="17"/>
-    </row>
-    <row r="83" spans="1:56">
+      <c r="B82" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="21"/>
+      <c r="AC82" s="21"/>
+      <c r="AD82" s="21"/>
+      <c r="AE82" s="21"/>
+      <c r="AF82" s="21"/>
+      <c r="AG82" s="21"/>
+      <c r="AH82" s="21"/>
+      <c r="AI82" s="21"/>
+      <c r="AJ82" s="21"/>
+      <c r="AK82" s="21"/>
+      <c r="AL82" s="21"/>
+      <c r="AM82" s="21"/>
+      <c r="AN82" s="21"/>
+      <c r="AO82" s="21"/>
+      <c r="AP82" s="21"/>
+      <c r="AQ82" s="21"/>
+      <c r="AR82" s="21"/>
+      <c r="AS82" s="21"/>
+      <c r="AT82" s="21"/>
+      <c r="AU82" s="21"/>
+      <c r="AV82" s="21"/>
+      <c r="AW82" s="21"/>
+    </row>
+    <row r="83" spans="1:59" s="27" customFormat="1" ht="22.5" customHeight="1">
       <c r="A83" s="36"/>
-      <c r="B83" s="41">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C83" s="40"/>
-      <c r="D83" s="38">
-        <v>6</v>
-      </c>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="38" t="s">
+      <c r="B83" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA83" s="90"/>
-      <c r="AB83" s="39"/>
-      <c r="AC83" s="39"/>
-      <c r="AD83" s="39"/>
-      <c r="AE83" s="39"/>
-      <c r="AF83" s="39"/>
-      <c r="AG83" s="39"/>
-      <c r="AH83" s="39"/>
-      <c r="AI83" s="39"/>
-      <c r="AJ83" s="39"/>
-      <c r="AK83" s="39"/>
-      <c r="AL83" s="39"/>
-      <c r="AM83" s="39"/>
-      <c r="AN83" s="39"/>
-      <c r="AO83" s="39"/>
-      <c r="AP83" s="39"/>
-      <c r="AQ83" s="39"/>
-      <c r="AR83" s="39"/>
-      <c r="AS83" s="39"/>
-      <c r="AT83" s="40"/>
-      <c r="AU83" s="37"/>
-      <c r="AV83" s="37"/>
-      <c r="AW83" s="37"/>
-      <c r="AX83" s="37"/>
-      <c r="AY83" s="37"/>
-      <c r="AZ83" s="37"/>
-      <c r="BA83" s="37"/>
-      <c r="BB83" s="17"/>
-      <c r="BC83" s="17"/>
-      <c r="BD83" s="17"/>
-    </row>
-    <row r="84" spans="1:56">
+      <c r="E83" s="85"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="T83" s="88"/>
+      <c r="U83" s="88"/>
+      <c r="V83" s="88"/>
+      <c r="W83" s="88"/>
+      <c r="X83" s="88"/>
+      <c r="Y83" s="88"/>
+      <c r="Z83" s="89"/>
+      <c r="AA83" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB83" s="24"/>
+      <c r="AC83" s="24"/>
+      <c r="AD83" s="24"/>
+      <c r="AE83" s="24"/>
+      <c r="AF83" s="24"/>
+      <c r="AG83" s="24"/>
+      <c r="AH83" s="24"/>
+      <c r="AI83" s="24"/>
+      <c r="AJ83" s="26"/>
+      <c r="AK83" s="26"/>
+      <c r="AL83" s="26"/>
+      <c r="AM83" s="26"/>
+      <c r="AN83" s="26"/>
+      <c r="AO83" s="26"/>
+      <c r="AP83" s="26"/>
+      <c r="AQ83" s="26"/>
+      <c r="AR83" s="26"/>
+      <c r="AS83" s="23"/>
+    </row>
+    <row r="84" spans="1:59">
       <c r="A84" s="36"/>
       <c r="B84" s="41">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>ROW()-83</f>
+        <v>1</v>
       </c>
       <c r="C84" s="40"/>
-      <c r="D84" s="38"/>
+      <c r="D84" s="41">
+        <f>$B$68</f>
+        <v>1</v>
+      </c>
       <c r="E84" s="39"/>
       <c r="F84" s="39"/>
-      <c r="G84" s="38"/>
+      <c r="G84" s="41" t="str">
+        <f>$D$68</f>
+        <v>ログアウト</v>
+      </c>
       <c r="H84" s="39"/>
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
       <c r="K84" s="39"/>
       <c r="L84" s="39"/>
       <c r="M84" s="39"/>
-      <c r="N84" s="38" t="s">
-        <v>113</v>
-      </c>
+      <c r="N84" s="39"/>
       <c r="O84" s="39"/>
       <c r="P84" s="39"/>
       <c r="Q84" s="39"/>
       <c r="R84" s="40"/>
-      <c r="S84" s="50" t="s">
-        <v>114</v>
+      <c r="S84" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="T84" s="39"/>
       <c r="U84" s="39"/>
@@ -8623,10 +8551,10 @@
       <c r="W84" s="39"/>
       <c r="X84" s="39"/>
       <c r="Y84" s="39"/>
-      <c r="Z84" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA84" s="90"/>
+      <c r="Z84" s="40"/>
+      <c r="AA84" s="50" t="s">
+        <v>97</v>
+      </c>
       <c r="AB84" s="39"/>
       <c r="AC84" s="39"/>
       <c r="AD84" s="39"/>
@@ -8644,45 +8572,38 @@
       <c r="AP84" s="39"/>
       <c r="AQ84" s="39"/>
       <c r="AR84" s="39"/>
-      <c r="AS84" s="39"/>
-      <c r="AT84" s="40"/>
-      <c r="AU84" s="37"/>
-      <c r="AV84" s="37"/>
-      <c r="AW84" s="37"/>
-      <c r="AX84" s="37"/>
-      <c r="AY84" s="37"/>
-      <c r="AZ84" s="37"/>
-      <c r="BA84" s="37"/>
-      <c r="BB84" s="17"/>
-      <c r="BC84" s="17"/>
-      <c r="BD84" s="17"/>
-    </row>
-    <row r="85" spans="1:56">
+      <c r="AS84" s="40"/>
+    </row>
+    <row r="85" spans="1:59">
       <c r="A85" s="36"/>
       <c r="B85" s="41">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" ref="B85:B90" si="1">ROW()-83</f>
+        <v>2</v>
       </c>
       <c r="C85" s="40"/>
-      <c r="D85" s="38"/>
+      <c r="D85" s="41">
+        <f>$B$73</f>
+        <v>6</v>
+      </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39"/>
-      <c r="G85" s="38"/>
+      <c r="G85" s="41" t="str">
+        <f>$D$73</f>
+        <v>パスワード表示アイコン</v>
+      </c>
       <c r="H85" s="39"/>
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
       <c r="K85" s="39"/>
       <c r="L85" s="39"/>
       <c r="M85" s="39"/>
-      <c r="N85" s="38" t="s">
-        <v>131</v>
-      </c>
+      <c r="N85" s="39"/>
       <c r="O85" s="39"/>
       <c r="P85" s="39"/>
       <c r="Q85" s="39"/>
       <c r="R85" s="40"/>
-      <c r="S85" s="50" t="s">
-        <v>128</v>
+      <c r="S85" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="T85" s="39"/>
       <c r="U85" s="39"/>
@@ -8690,10 +8611,10 @@
       <c r="W85" s="39"/>
       <c r="X85" s="39"/>
       <c r="Y85" s="39"/>
-      <c r="Z85" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA85" s="90"/>
+      <c r="Z85" s="40"/>
+      <c r="AA85" s="50" t="s">
+        <v>93</v>
+      </c>
       <c r="AB85" s="39"/>
       <c r="AC85" s="39"/>
       <c r="AD85" s="39"/>
@@ -8711,45 +8632,38 @@
       <c r="AP85" s="39"/>
       <c r="AQ85" s="39"/>
       <c r="AR85" s="39"/>
-      <c r="AS85" s="39"/>
-      <c r="AT85" s="40"/>
-      <c r="AU85" s="37"/>
-      <c r="AV85" s="37"/>
-      <c r="AW85" s="37"/>
-      <c r="AX85" s="37"/>
-      <c r="AY85" s="37"/>
-      <c r="AZ85" s="37"/>
-      <c r="BA85" s="37"/>
-      <c r="BB85" s="17"/>
-      <c r="BC85" s="17"/>
-      <c r="BD85" s="17"/>
-    </row>
-    <row r="86" spans="1:56">
+      <c r="AS85" s="40"/>
+    </row>
+    <row r="86" spans="1:59">
       <c r="A86" s="36"/>
       <c r="B86" s="41">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="C86" s="40"/>
-      <c r="D86" s="38"/>
+      <c r="D86" s="41">
+        <f>$B$75</f>
+        <v>8</v>
+      </c>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
-      <c r="G86" s="38"/>
+      <c r="G86" s="41" t="str">
+        <f>$D$75</f>
+        <v>パスワード表示アイコン(確認)</v>
+      </c>
       <c r="H86" s="39"/>
       <c r="I86" s="39"/>
       <c r="J86" s="39"/>
       <c r="K86" s="39"/>
       <c r="L86" s="39"/>
       <c r="M86" s="39"/>
-      <c r="N86" s="38" t="s">
-        <v>119</v>
-      </c>
+      <c r="N86" s="39"/>
       <c r="O86" s="39"/>
       <c r="P86" s="39"/>
       <c r="Q86" s="39"/>
       <c r="R86" s="40"/>
-      <c r="S86" s="50" t="s">
-        <v>128</v>
+      <c r="S86" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="T86" s="39"/>
       <c r="U86" s="39"/>
@@ -8757,10 +8671,10 @@
       <c r="W86" s="39"/>
       <c r="X86" s="39"/>
       <c r="Y86" s="39"/>
-      <c r="Z86" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA86" s="90"/>
+      <c r="Z86" s="40"/>
+      <c r="AA86" s="50" t="s">
+        <v>93</v>
+      </c>
       <c r="AB86" s="39"/>
       <c r="AC86" s="39"/>
       <c r="AD86" s="39"/>
@@ -8778,45 +8692,38 @@
       <c r="AP86" s="39"/>
       <c r="AQ86" s="39"/>
       <c r="AR86" s="39"/>
-      <c r="AS86" s="39"/>
-      <c r="AT86" s="40"/>
-      <c r="AU86" s="37"/>
-      <c r="AV86" s="37"/>
-      <c r="AW86" s="37"/>
-      <c r="AX86" s="37"/>
-      <c r="AY86" s="37"/>
-      <c r="AZ86" s="37"/>
-      <c r="BA86" s="37"/>
-      <c r="BB86" s="17"/>
-      <c r="BC86" s="17"/>
-      <c r="BD86" s="17"/>
-    </row>
-    <row r="87" spans="1:56">
+      <c r="AS86" s="40"/>
+    </row>
+    <row r="87" spans="1:59">
       <c r="A87" s="36"/>
       <c r="B87" s="41">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="C87" s="40"/>
-      <c r="D87" s="38"/>
+      <c r="D87" s="41">
+        <f>$B$76</f>
+        <v>9</v>
+      </c>
       <c r="E87" s="39"/>
       <c r="F87" s="39"/>
-      <c r="G87" s="38"/>
+      <c r="G87" s="41" t="str">
+        <f>$D$76</f>
+        <v>変更する</v>
+      </c>
       <c r="H87" s="39"/>
       <c r="I87" s="39"/>
       <c r="J87" s="39"/>
       <c r="K87" s="39"/>
       <c r="L87" s="39"/>
       <c r="M87" s="39"/>
-      <c r="N87" s="38" t="s">
-        <v>132</v>
-      </c>
+      <c r="N87" s="39"/>
       <c r="O87" s="39"/>
       <c r="P87" s="39"/>
       <c r="Q87" s="39"/>
       <c r="R87" s="40"/>
-      <c r="S87" s="50" t="s">
-        <v>129</v>
+      <c r="S87" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="T87" s="39"/>
       <c r="U87" s="39"/>
@@ -8824,10 +8731,10 @@
       <c r="W87" s="39"/>
       <c r="X87" s="39"/>
       <c r="Y87" s="39"/>
-      <c r="Z87" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA87" s="90"/>
+      <c r="Z87" s="40"/>
+      <c r="AA87" s="50" t="s">
+        <v>95</v>
+      </c>
       <c r="AB87" s="39"/>
       <c r="AC87" s="39"/>
       <c r="AD87" s="39"/>
@@ -8845,33 +8752,24 @@
       <c r="AP87" s="39"/>
       <c r="AQ87" s="39"/>
       <c r="AR87" s="39"/>
-      <c r="AS87" s="39"/>
-      <c r="AT87" s="40"/>
-      <c r="AU87" s="37"/>
-      <c r="AV87" s="37"/>
-      <c r="AW87" s="37"/>
-      <c r="AX87" s="37"/>
-      <c r="AY87" s="37"/>
-      <c r="AZ87" s="37"/>
-      <c r="BA87" s="37"/>
-      <c r="BB87" s="17"/>
-      <c r="BC87" s="17"/>
-      <c r="BD87" s="17"/>
-    </row>
-    <row r="88" spans="1:56">
+      <c r="AS87" s="40"/>
+    </row>
+    <row r="88" spans="1:59">
       <c r="A88" s="36"/>
       <c r="B88" s="41">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="C88" s="40"/>
-      <c r="D88" s="38" t="s">
-        <v>125</v>
+      <c r="D88" s="41">
+        <f>$B$77</f>
+        <v>10</v>
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
-      <c r="G88" s="38" t="s">
-        <v>126</v>
+      <c r="G88" s="41" t="str">
+        <f>$D$77</f>
+        <v>メニューに戻る</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="39"/>
@@ -8879,15 +8777,13 @@
       <c r="K88" s="39"/>
       <c r="L88" s="39"/>
       <c r="M88" s="39"/>
-      <c r="N88" s="38" t="s">
-        <v>127</v>
-      </c>
+      <c r="N88" s="39"/>
       <c r="O88" s="39"/>
       <c r="P88" s="39"/>
       <c r="Q88" s="39"/>
       <c r="R88" s="40"/>
-      <c r="S88" s="50" t="s">
-        <v>27</v>
+      <c r="S88" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="T88" s="39"/>
       <c r="U88" s="39"/>
@@ -8895,10 +8791,10 @@
       <c r="W88" s="39"/>
       <c r="X88" s="39"/>
       <c r="Y88" s="39"/>
-      <c r="Z88" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA88" s="90"/>
+      <c r="Z88" s="40"/>
+      <c r="AA88" s="50" t="s">
+        <v>96</v>
+      </c>
       <c r="AB88" s="39"/>
       <c r="AC88" s="39"/>
       <c r="AD88" s="39"/>
@@ -8916,33 +8812,1230 @@
       <c r="AP88" s="39"/>
       <c r="AQ88" s="39"/>
       <c r="AR88" s="39"/>
-      <c r="AS88" s="39"/>
-      <c r="AT88" s="40"/>
-      <c r="AU88" s="37"/>
-      <c r="AV88" s="37"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="37"/>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="37"/>
-      <c r="BA88" s="37"/>
-      <c r="BB88" s="17"/>
-      <c r="BC88" s="17"/>
-      <c r="BD88" s="17"/>
-    </row>
-    <row r="89" spans="1:56" ht="14.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="29"/>
-    </row>
-    <row r="90" spans="1:56" ht="14.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="29"/>
+      <c r="AS88" s="40"/>
+    </row>
+    <row r="89" spans="1:59">
+      <c r="A89" s="36"/>
+      <c r="B89" s="41">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C89" s="40"/>
+      <c r="D89" s="41">
+        <f>$B$79</f>
+        <v>11</v>
+      </c>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="41" t="str">
+        <f>$D$79</f>
+        <v>Cancel</v>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="40"/>
+      <c r="AA89" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB89" s="39"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="39"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="39"/>
+      <c r="AH89" s="39"/>
+      <c r="AI89" s="39"/>
+      <c r="AJ89" s="39"/>
+      <c r="AK89" s="39"/>
+      <c r="AL89" s="39"/>
+      <c r="AM89" s="39"/>
+      <c r="AN89" s="39"/>
+      <c r="AO89" s="39"/>
+      <c r="AP89" s="39"/>
+      <c r="AQ89" s="39"/>
+      <c r="AR89" s="39"/>
+      <c r="AS89" s="40"/>
+    </row>
+    <row r="90" spans="1:59">
+      <c r="A90" s="36"/>
+      <c r="B90" s="41">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C90" s="40"/>
+      <c r="D90" s="41">
+        <f>$B$80</f>
+        <v>12</v>
+      </c>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="41" t="str">
+        <f>$D$80</f>
+        <v>OK</v>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="40"/>
+      <c r="AA90" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB90" s="39"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="39"/>
+      <c r="AE90" s="39"/>
+      <c r="AF90" s="39"/>
+      <c r="AG90" s="39"/>
+      <c r="AH90" s="39"/>
+      <c r="AI90" s="39"/>
+      <c r="AJ90" s="39"/>
+      <c r="AK90" s="39"/>
+      <c r="AL90" s="39"/>
+      <c r="AM90" s="39"/>
+      <c r="AN90" s="39"/>
+      <c r="AO90" s="39"/>
+      <c r="AP90" s="39"/>
+      <c r="AQ90" s="39"/>
+      <c r="AR90" s="39"/>
+      <c r="AS90" s="40"/>
+    </row>
+    <row r="91" spans="1:59">
+      <c r="A91" s="36"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="21"/>
+      <c r="AH91" s="21"/>
+      <c r="AI91" s="21"/>
+      <c r="AJ91" s="21"/>
+      <c r="AK91" s="21"/>
+      <c r="AL91" s="21"/>
+      <c r="AM91" s="21"/>
+      <c r="AN91" s="21"/>
+      <c r="AO91" s="21"/>
+      <c r="AP91" s="21"/>
+    </row>
+    <row r="92" spans="1:59">
+      <c r="A92" s="36"/>
+      <c r="B92" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="21"/>
+      <c r="AC92" s="21"/>
+      <c r="AD92" s="21"/>
+      <c r="AE92" s="21"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="21"/>
+      <c r="AH92" s="21"/>
+      <c r="AI92" s="21"/>
+      <c r="AJ92" s="21"/>
+      <c r="AK92" s="21"/>
+      <c r="AL92" s="21"/>
+      <c r="AM92" s="21"/>
+      <c r="AN92" s="21"/>
+      <c r="AO92" s="21"/>
+      <c r="AP92" s="21"/>
+      <c r="AQ92" s="21"/>
+      <c r="AR92" s="21"/>
+      <c r="AS92" s="21"/>
+      <c r="AT92" s="21"/>
+      <c r="AU92" s="21"/>
+      <c r="AV92" s="21"/>
+      <c r="AW92" s="21"/>
+      <c r="AX92" s="21"/>
+      <c r="AY92" s="21"/>
+      <c r="AZ92" s="21"/>
+      <c r="BA92" s="21"/>
+    </row>
+    <row r="93" spans="1:59" s="27" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A93" s="36"/>
+      <c r="B93" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="85"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+      <c r="AA93" s="15"/>
+      <c r="AB93" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="48"/>
+      <c r="AH93" s="48"/>
+      <c r="AI93" s="48"/>
+      <c r="AJ93" s="48"/>
+      <c r="AK93" s="48"/>
+      <c r="AL93" s="48"/>
+      <c r="AM93" s="48"/>
+      <c r="AN93" s="48"/>
+      <c r="AO93" s="48"/>
+      <c r="AP93" s="48"/>
+      <c r="AQ93" s="48"/>
+      <c r="AR93" s="48"/>
+      <c r="AS93" s="48"/>
+      <c r="AT93" s="48"/>
+      <c r="AU93" s="48"/>
+      <c r="AV93" s="49"/>
+      <c r="AW93" s="43"/>
+      <c r="AX93" s="43"/>
+      <c r="AY93" s="43"/>
+      <c r="AZ93" s="43"/>
+      <c r="BA93" s="43"/>
+      <c r="BB93" s="43"/>
+      <c r="BC93" s="43"/>
+      <c r="BD93" s="21"/>
+      <c r="BE93" s="21"/>
+      <c r="BF93" s="21"/>
+      <c r="BG93" s="13"/>
+    </row>
+    <row r="94" spans="1:59">
+      <c r="A94" s="36"/>
+      <c r="B94" s="97">
+        <f>ROW()-75</f>
+        <v>19</v>
+      </c>
+      <c r="C94" s="98"/>
+      <c r="D94" s="97">
+        <v>4</v>
+      </c>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H94" s="99"/>
+      <c r="I94" s="99"/>
+      <c r="J94" s="99"/>
+      <c r="K94" s="99"/>
+      <c r="L94" s="99"/>
+      <c r="M94" s="99"/>
+      <c r="N94" s="99"/>
+      <c r="O94" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="P94" s="99"/>
+      <c r="Q94" s="99"/>
+      <c r="R94" s="99"/>
+      <c r="S94" s="99"/>
+      <c r="T94" s="98"/>
+      <c r="U94" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="V94" s="99"/>
+      <c r="W94" s="99"/>
+      <c r="X94" s="99"/>
+      <c r="Y94" s="99"/>
+      <c r="Z94" s="99"/>
+      <c r="AA94" s="99"/>
+      <c r="AB94" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC94" s="95"/>
+      <c r="AD94" s="99"/>
+      <c r="AE94" s="99"/>
+      <c r="AF94" s="99"/>
+      <c r="AG94" s="99"/>
+      <c r="AH94" s="99"/>
+      <c r="AI94" s="99"/>
+      <c r="AJ94" s="99"/>
+      <c r="AK94" s="99"/>
+      <c r="AL94" s="99"/>
+      <c r="AM94" s="99"/>
+      <c r="AN94" s="99"/>
+      <c r="AO94" s="99"/>
+      <c r="AP94" s="99"/>
+      <c r="AQ94" s="99"/>
+      <c r="AR94" s="99"/>
+      <c r="AS94" s="99"/>
+      <c r="AT94" s="99"/>
+      <c r="AU94" s="99"/>
+      <c r="AV94" s="98"/>
+      <c r="AW94" s="37"/>
+      <c r="AX94" s="37"/>
+      <c r="AY94" s="37"/>
+      <c r="AZ94" s="37"/>
+      <c r="BA94" s="37"/>
+      <c r="BB94" s="37"/>
+      <c r="BC94" s="37"/>
+      <c r="BD94" s="17"/>
+      <c r="BE94" s="17"/>
+      <c r="BF94" s="17"/>
+    </row>
+    <row r="95" spans="1:59">
+      <c r="A95" s="36"/>
+      <c r="B95" s="97">
+        <f t="shared" ref="B95:B106" si="2">ROW()-75</f>
+        <v>20</v>
+      </c>
+      <c r="C95" s="98"/>
+      <c r="D95" s="97"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="99"/>
+      <c r="K95" s="99"/>
+      <c r="L95" s="99"/>
+      <c r="M95" s="99"/>
+      <c r="N95" s="99"/>
+      <c r="O95" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="P95" s="99"/>
+      <c r="Q95" s="99"/>
+      <c r="R95" s="99"/>
+      <c r="S95" s="99"/>
+      <c r="T95" s="98"/>
+      <c r="U95" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="V95" s="99"/>
+      <c r="W95" s="99"/>
+      <c r="X95" s="99"/>
+      <c r="Y95" s="99"/>
+      <c r="Z95" s="99"/>
+      <c r="AA95" s="99"/>
+      <c r="AB95" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC95" s="95"/>
+      <c r="AD95" s="99"/>
+      <c r="AE95" s="99"/>
+      <c r="AF95" s="99"/>
+      <c r="AG95" s="99"/>
+      <c r="AH95" s="99"/>
+      <c r="AI95" s="99"/>
+      <c r="AJ95" s="99"/>
+      <c r="AK95" s="99"/>
+      <c r="AL95" s="99"/>
+      <c r="AM95" s="99"/>
+      <c r="AN95" s="99"/>
+      <c r="AO95" s="99"/>
+      <c r="AP95" s="99"/>
+      <c r="AQ95" s="99"/>
+      <c r="AR95" s="99"/>
+      <c r="AS95" s="99"/>
+      <c r="AT95" s="99"/>
+      <c r="AU95" s="99"/>
+      <c r="AV95" s="98"/>
+      <c r="AW95" s="37"/>
+      <c r="AX95" s="37"/>
+      <c r="AY95" s="37"/>
+      <c r="AZ95" s="37"/>
+      <c r="BA95" s="37"/>
+      <c r="BB95" s="37"/>
+      <c r="BC95" s="37"/>
+      <c r="BD95" s="17"/>
+      <c r="BE95" s="17"/>
+      <c r="BF95" s="17"/>
+    </row>
+    <row r="96" spans="1:59">
+      <c r="A96" s="36"/>
+      <c r="B96" s="97">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C96" s="98"/>
+      <c r="D96" s="97">
+        <v>5</v>
+      </c>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="H96" s="99"/>
+      <c r="I96" s="99"/>
+      <c r="J96" s="99"/>
+      <c r="K96" s="99"/>
+      <c r="L96" s="99"/>
+      <c r="M96" s="99"/>
+      <c r="N96" s="99"/>
+      <c r="O96" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="P96" s="99"/>
+      <c r="Q96" s="99"/>
+      <c r="R96" s="99"/>
+      <c r="S96" s="99"/>
+      <c r="T96" s="98"/>
+      <c r="U96" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="V96" s="99"/>
+      <c r="W96" s="99"/>
+      <c r="X96" s="99"/>
+      <c r="Y96" s="99"/>
+      <c r="Z96" s="99"/>
+      <c r="AA96" s="99"/>
+      <c r="AB96" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC96" s="95"/>
+      <c r="AD96" s="99"/>
+      <c r="AE96" s="99"/>
+      <c r="AF96" s="99"/>
+      <c r="AG96" s="99"/>
+      <c r="AH96" s="99"/>
+      <c r="AI96" s="99"/>
+      <c r="AJ96" s="99"/>
+      <c r="AK96" s="99"/>
+      <c r="AL96" s="99"/>
+      <c r="AM96" s="99"/>
+      <c r="AN96" s="99"/>
+      <c r="AO96" s="99"/>
+      <c r="AP96" s="99"/>
+      <c r="AQ96" s="99"/>
+      <c r="AR96" s="99"/>
+      <c r="AS96" s="99"/>
+      <c r="AT96" s="99"/>
+      <c r="AU96" s="99"/>
+      <c r="AV96" s="98"/>
+      <c r="AW96" s="37"/>
+      <c r="AX96" s="37"/>
+      <c r="AY96" s="37"/>
+      <c r="AZ96" s="37"/>
+      <c r="BA96" s="37"/>
+      <c r="BB96" s="37"/>
+      <c r="BC96" s="37"/>
+      <c r="BD96" s="17"/>
+      <c r="BE96" s="17"/>
+      <c r="BF96" s="17"/>
+    </row>
+    <row r="97" spans="1:58">
+      <c r="A97" s="36"/>
+      <c r="B97" s="97">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C97" s="98"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="97"/>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="99"/>
+      <c r="K97" s="99"/>
+      <c r="L97" s="99"/>
+      <c r="M97" s="99"/>
+      <c r="N97" s="99"/>
+      <c r="O97" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="P97" s="99"/>
+      <c r="Q97" s="99"/>
+      <c r="R97" s="99"/>
+      <c r="S97" s="99"/>
+      <c r="T97" s="98"/>
+      <c r="U97" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="V97" s="99"/>
+      <c r="W97" s="99"/>
+      <c r="X97" s="99"/>
+      <c r="Y97" s="99"/>
+      <c r="Z97" s="99"/>
+      <c r="AA97" s="99"/>
+      <c r="AB97" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC97" s="95"/>
+      <c r="AD97" s="99"/>
+      <c r="AE97" s="99"/>
+      <c r="AF97" s="99"/>
+      <c r="AG97" s="99"/>
+      <c r="AH97" s="99"/>
+      <c r="AI97" s="99"/>
+      <c r="AJ97" s="99"/>
+      <c r="AK97" s="99"/>
+      <c r="AL97" s="99"/>
+      <c r="AM97" s="99"/>
+      <c r="AN97" s="99"/>
+      <c r="AO97" s="99"/>
+      <c r="AP97" s="99"/>
+      <c r="AQ97" s="99"/>
+      <c r="AR97" s="99"/>
+      <c r="AS97" s="99"/>
+      <c r="AT97" s="99"/>
+      <c r="AU97" s="99"/>
+      <c r="AV97" s="98"/>
+      <c r="AW97" s="37"/>
+      <c r="AX97" s="37"/>
+      <c r="AY97" s="37"/>
+      <c r="AZ97" s="37"/>
+      <c r="BA97" s="37"/>
+      <c r="BB97" s="37"/>
+      <c r="BC97" s="37"/>
+      <c r="BD97" s="17"/>
+      <c r="BE97" s="17"/>
+      <c r="BF97" s="17"/>
+    </row>
+    <row r="98" spans="1:58">
+      <c r="A98" s="36"/>
+      <c r="B98" s="97">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C98" s="98"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="97"/>
+      <c r="H98" s="99"/>
+      <c r="I98" s="99"/>
+      <c r="J98" s="99"/>
+      <c r="K98" s="99"/>
+      <c r="L98" s="99"/>
+      <c r="M98" s="99"/>
+      <c r="N98" s="99"/>
+      <c r="O98" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="P98" s="99"/>
+      <c r="Q98" s="99"/>
+      <c r="R98" s="99"/>
+      <c r="S98" s="99"/>
+      <c r="T98" s="98"/>
+      <c r="U98" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="V98" s="99"/>
+      <c r="W98" s="99"/>
+      <c r="X98" s="99"/>
+      <c r="Y98" s="99"/>
+      <c r="Z98" s="99"/>
+      <c r="AA98" s="99"/>
+      <c r="AB98" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC98" s="95"/>
+      <c r="AD98" s="99"/>
+      <c r="AE98" s="99"/>
+      <c r="AF98" s="99"/>
+      <c r="AG98" s="99"/>
+      <c r="AH98" s="99"/>
+      <c r="AI98" s="99"/>
+      <c r="AJ98" s="99"/>
+      <c r="AK98" s="99"/>
+      <c r="AL98" s="99"/>
+      <c r="AM98" s="99"/>
+      <c r="AN98" s="99"/>
+      <c r="AO98" s="99"/>
+      <c r="AP98" s="99"/>
+      <c r="AQ98" s="99"/>
+      <c r="AR98" s="99"/>
+      <c r="AS98" s="99"/>
+      <c r="AT98" s="99"/>
+      <c r="AU98" s="99"/>
+      <c r="AV98" s="98"/>
+      <c r="AW98" s="37"/>
+      <c r="AX98" s="37"/>
+      <c r="AY98" s="37"/>
+      <c r="AZ98" s="37"/>
+      <c r="BA98" s="37"/>
+      <c r="BB98" s="37"/>
+      <c r="BC98" s="37"/>
+      <c r="BD98" s="17"/>
+      <c r="BE98" s="17"/>
+      <c r="BF98" s="17"/>
+    </row>
+    <row r="99" spans="1:58">
+      <c r="A99" s="36"/>
+      <c r="B99" s="97">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C99" s="98"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="99"/>
+      <c r="J99" s="99"/>
+      <c r="K99" s="99"/>
+      <c r="L99" s="99"/>
+      <c r="M99" s="99"/>
+      <c r="N99" s="99"/>
+      <c r="O99" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="P99" s="99"/>
+      <c r="Q99" s="99"/>
+      <c r="R99" s="99"/>
+      <c r="S99" s="99"/>
+      <c r="T99" s="98"/>
+      <c r="U99" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="V99" s="99"/>
+      <c r="W99" s="99"/>
+      <c r="X99" s="99"/>
+      <c r="Y99" s="99"/>
+      <c r="Z99" s="99"/>
+      <c r="AA99" s="99"/>
+      <c r="AB99" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC99" s="95"/>
+      <c r="AD99" s="99"/>
+      <c r="AE99" s="99"/>
+      <c r="AF99" s="99"/>
+      <c r="AG99" s="99"/>
+      <c r="AH99" s="99"/>
+      <c r="AI99" s="99"/>
+      <c r="AJ99" s="99"/>
+      <c r="AK99" s="99"/>
+      <c r="AL99" s="99"/>
+      <c r="AM99" s="99"/>
+      <c r="AN99" s="99"/>
+      <c r="AO99" s="99"/>
+      <c r="AP99" s="99"/>
+      <c r="AQ99" s="99"/>
+      <c r="AR99" s="99"/>
+      <c r="AS99" s="99"/>
+      <c r="AT99" s="99"/>
+      <c r="AU99" s="99"/>
+      <c r="AV99" s="98"/>
+      <c r="AW99" s="37"/>
+      <c r="AX99" s="37"/>
+      <c r="AY99" s="37"/>
+      <c r="AZ99" s="37"/>
+      <c r="BA99" s="37"/>
+      <c r="BB99" s="37"/>
+      <c r="BC99" s="37"/>
+      <c r="BD99" s="17"/>
+      <c r="BE99" s="17"/>
+      <c r="BF99" s="17"/>
+    </row>
+    <row r="100" spans="1:58">
+      <c r="A100" s="36"/>
+      <c r="B100" s="97">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C100" s="98"/>
+      <c r="D100" s="97"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="97"/>
+      <c r="H100" s="99"/>
+      <c r="I100" s="99"/>
+      <c r="J100" s="99"/>
+      <c r="K100" s="99"/>
+      <c r="L100" s="99"/>
+      <c r="M100" s="99"/>
+      <c r="N100" s="99"/>
+      <c r="O100" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="P100" s="99"/>
+      <c r="Q100" s="99"/>
+      <c r="R100" s="99"/>
+      <c r="S100" s="99"/>
+      <c r="T100" s="98"/>
+      <c r="U100" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="V100" s="99"/>
+      <c r="W100" s="99"/>
+      <c r="X100" s="99"/>
+      <c r="Y100" s="99"/>
+      <c r="Z100" s="99"/>
+      <c r="AA100" s="99"/>
+      <c r="AB100" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC100" s="95"/>
+      <c r="AD100" s="99"/>
+      <c r="AE100" s="99"/>
+      <c r="AF100" s="99"/>
+      <c r="AG100" s="99"/>
+      <c r="AH100" s="99"/>
+      <c r="AI100" s="99"/>
+      <c r="AJ100" s="99"/>
+      <c r="AK100" s="99"/>
+      <c r="AL100" s="99"/>
+      <c r="AM100" s="99"/>
+      <c r="AN100" s="99"/>
+      <c r="AO100" s="99"/>
+      <c r="AP100" s="99"/>
+      <c r="AQ100" s="99"/>
+      <c r="AR100" s="99"/>
+      <c r="AS100" s="99"/>
+      <c r="AT100" s="99"/>
+      <c r="AU100" s="99"/>
+      <c r="AV100" s="98"/>
+      <c r="AW100" s="37"/>
+      <c r="AX100" s="37"/>
+      <c r="AY100" s="37"/>
+      <c r="AZ100" s="37"/>
+      <c r="BA100" s="37"/>
+      <c r="BB100" s="37"/>
+      <c r="BC100" s="37"/>
+      <c r="BD100" s="17"/>
+      <c r="BE100" s="17"/>
+      <c r="BF100" s="17"/>
+    </row>
+    <row r="101" spans="1:58">
+      <c r="A101" s="36"/>
+      <c r="B101" s="97">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C101" s="98"/>
+      <c r="D101" s="97">
+        <v>6</v>
+      </c>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="99"/>
+      <c r="L101" s="99"/>
+      <c r="M101" s="99"/>
+      <c r="N101" s="99"/>
+      <c r="O101" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="P101" s="99"/>
+      <c r="Q101" s="99"/>
+      <c r="R101" s="99"/>
+      <c r="S101" s="99"/>
+      <c r="T101" s="98"/>
+      <c r="U101" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="V101" s="99"/>
+      <c r="W101" s="99"/>
+      <c r="X101" s="99"/>
+      <c r="Y101" s="99"/>
+      <c r="Z101" s="99"/>
+      <c r="AA101" s="99"/>
+      <c r="AB101" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC101" s="95"/>
+      <c r="AD101" s="99"/>
+      <c r="AE101" s="99"/>
+      <c r="AF101" s="99"/>
+      <c r="AG101" s="99"/>
+      <c r="AH101" s="99"/>
+      <c r="AI101" s="99"/>
+      <c r="AJ101" s="99"/>
+      <c r="AK101" s="99"/>
+      <c r="AL101" s="99"/>
+      <c r="AM101" s="99"/>
+      <c r="AN101" s="99"/>
+      <c r="AO101" s="99"/>
+      <c r="AP101" s="99"/>
+      <c r="AQ101" s="99"/>
+      <c r="AR101" s="99"/>
+      <c r="AS101" s="99"/>
+      <c r="AT101" s="99"/>
+      <c r="AU101" s="99"/>
+      <c r="AV101" s="98"/>
+      <c r="AW101" s="37"/>
+      <c r="AX101" s="37"/>
+      <c r="AY101" s="37"/>
+      <c r="AZ101" s="37"/>
+      <c r="BA101" s="37"/>
+      <c r="BB101" s="37"/>
+      <c r="BC101" s="37"/>
+      <c r="BD101" s="17"/>
+      <c r="BE101" s="17"/>
+      <c r="BF101" s="17"/>
+    </row>
+    <row r="102" spans="1:58">
+      <c r="A102" s="36"/>
+      <c r="B102" s="97">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C102" s="98"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="97"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="99"/>
+      <c r="J102" s="99"/>
+      <c r="K102" s="99"/>
+      <c r="L102" s="99"/>
+      <c r="M102" s="99"/>
+      <c r="N102" s="99"/>
+      <c r="O102" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="P102" s="99"/>
+      <c r="Q102" s="99"/>
+      <c r="R102" s="99"/>
+      <c r="S102" s="99"/>
+      <c r="T102" s="98"/>
+      <c r="U102" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="V102" s="99"/>
+      <c r="W102" s="99"/>
+      <c r="X102" s="99"/>
+      <c r="Y102" s="99"/>
+      <c r="Z102" s="99"/>
+      <c r="AA102" s="99"/>
+      <c r="AB102" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC102" s="95"/>
+      <c r="AD102" s="99"/>
+      <c r="AE102" s="99"/>
+      <c r="AF102" s="99"/>
+      <c r="AG102" s="99"/>
+      <c r="AH102" s="99"/>
+      <c r="AI102" s="99"/>
+      <c r="AJ102" s="99"/>
+      <c r="AK102" s="99"/>
+      <c r="AL102" s="99"/>
+      <c r="AM102" s="99"/>
+      <c r="AN102" s="99"/>
+      <c r="AO102" s="99"/>
+      <c r="AP102" s="99"/>
+      <c r="AQ102" s="99"/>
+      <c r="AR102" s="99"/>
+      <c r="AS102" s="99"/>
+      <c r="AT102" s="99"/>
+      <c r="AU102" s="99"/>
+      <c r="AV102" s="98"/>
+      <c r="AW102" s="37"/>
+      <c r="AX102" s="37"/>
+      <c r="AY102" s="37"/>
+      <c r="AZ102" s="37"/>
+      <c r="BA102" s="37"/>
+      <c r="BB102" s="37"/>
+      <c r="BC102" s="37"/>
+      <c r="BD102" s="17"/>
+      <c r="BE102" s="17"/>
+      <c r="BF102" s="17"/>
+    </row>
+    <row r="103" spans="1:58">
+      <c r="A103" s="36"/>
+      <c r="B103" s="97">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C103" s="98"/>
+      <c r="D103" s="97"/>
+      <c r="E103" s="99"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="97"/>
+      <c r="H103" s="99"/>
+      <c r="I103" s="99"/>
+      <c r="J103" s="99"/>
+      <c r="K103" s="99"/>
+      <c r="L103" s="99"/>
+      <c r="M103" s="99"/>
+      <c r="N103" s="99"/>
+      <c r="O103" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="P103" s="99"/>
+      <c r="Q103" s="99"/>
+      <c r="R103" s="99"/>
+      <c r="S103" s="99"/>
+      <c r="T103" s="98"/>
+      <c r="U103" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="V103" s="99"/>
+      <c r="W103" s="99"/>
+      <c r="X103" s="99"/>
+      <c r="Y103" s="99"/>
+      <c r="Z103" s="99"/>
+      <c r="AA103" s="99"/>
+      <c r="AB103" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC103" s="95"/>
+      <c r="AD103" s="99"/>
+      <c r="AE103" s="99"/>
+      <c r="AF103" s="99"/>
+      <c r="AG103" s="99"/>
+      <c r="AH103" s="99"/>
+      <c r="AI103" s="99"/>
+      <c r="AJ103" s="99"/>
+      <c r="AK103" s="99"/>
+      <c r="AL103" s="99"/>
+      <c r="AM103" s="99"/>
+      <c r="AN103" s="99"/>
+      <c r="AO103" s="99"/>
+      <c r="AP103" s="99"/>
+      <c r="AQ103" s="99"/>
+      <c r="AR103" s="99"/>
+      <c r="AS103" s="99"/>
+      <c r="AT103" s="99"/>
+      <c r="AU103" s="99"/>
+      <c r="AV103" s="98"/>
+      <c r="AW103" s="37"/>
+      <c r="AX103" s="37"/>
+      <c r="AY103" s="37"/>
+      <c r="AZ103" s="37"/>
+      <c r="BA103" s="37"/>
+      <c r="BB103" s="37"/>
+      <c r="BC103" s="37"/>
+      <c r="BD103" s="17"/>
+      <c r="BE103" s="17"/>
+      <c r="BF103" s="17"/>
+    </row>
+    <row r="104" spans="1:58">
+      <c r="A104" s="36"/>
+      <c r="B104" s="97">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C104" s="98"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="97"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="99"/>
+      <c r="J104" s="99"/>
+      <c r="K104" s="99"/>
+      <c r="L104" s="99"/>
+      <c r="M104" s="99"/>
+      <c r="N104" s="99"/>
+      <c r="O104" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="P104" s="99"/>
+      <c r="Q104" s="99"/>
+      <c r="R104" s="99"/>
+      <c r="S104" s="99"/>
+      <c r="T104" s="98"/>
+      <c r="U104" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="V104" s="99"/>
+      <c r="W104" s="99"/>
+      <c r="X104" s="99"/>
+      <c r="Y104" s="99"/>
+      <c r="Z104" s="99"/>
+      <c r="AA104" s="99"/>
+      <c r="AB104" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC104" s="95"/>
+      <c r="AD104" s="99"/>
+      <c r="AE104" s="99"/>
+      <c r="AF104" s="99"/>
+      <c r="AG104" s="99"/>
+      <c r="AH104" s="99"/>
+      <c r="AI104" s="99"/>
+      <c r="AJ104" s="99"/>
+      <c r="AK104" s="99"/>
+      <c r="AL104" s="99"/>
+      <c r="AM104" s="99"/>
+      <c r="AN104" s="99"/>
+      <c r="AO104" s="99"/>
+      <c r="AP104" s="99"/>
+      <c r="AQ104" s="99"/>
+      <c r="AR104" s="99"/>
+      <c r="AS104" s="99"/>
+      <c r="AT104" s="99"/>
+      <c r="AU104" s="99"/>
+      <c r="AV104" s="98"/>
+      <c r="AW104" s="37"/>
+      <c r="AX104" s="37"/>
+      <c r="AY104" s="37"/>
+      <c r="AZ104" s="37"/>
+      <c r="BA104" s="37"/>
+      <c r="BB104" s="37"/>
+      <c r="BC104" s="37"/>
+      <c r="BD104" s="17"/>
+      <c r="BE104" s="17"/>
+      <c r="BF104" s="17"/>
+    </row>
+    <row r="105" spans="1:58">
+      <c r="A105" s="36"/>
+      <c r="B105" s="97">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C105" s="98"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="97"/>
+      <c r="H105" s="99"/>
+      <c r="I105" s="99"/>
+      <c r="J105" s="99"/>
+      <c r="K105" s="99"/>
+      <c r="L105" s="99"/>
+      <c r="M105" s="99"/>
+      <c r="N105" s="99"/>
+      <c r="O105" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="P105" s="99"/>
+      <c r="Q105" s="99"/>
+      <c r="R105" s="99"/>
+      <c r="S105" s="99"/>
+      <c r="T105" s="98"/>
+      <c r="U105" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="V105" s="99"/>
+      <c r="W105" s="99"/>
+      <c r="X105" s="99"/>
+      <c r="Y105" s="99"/>
+      <c r="Z105" s="99"/>
+      <c r="AA105" s="99"/>
+      <c r="AB105" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC105" s="95"/>
+      <c r="AD105" s="99"/>
+      <c r="AE105" s="99"/>
+      <c r="AF105" s="99"/>
+      <c r="AG105" s="99"/>
+      <c r="AH105" s="99"/>
+      <c r="AI105" s="99"/>
+      <c r="AJ105" s="99"/>
+      <c r="AK105" s="99"/>
+      <c r="AL105" s="99"/>
+      <c r="AM105" s="99"/>
+      <c r="AN105" s="99"/>
+      <c r="AO105" s="99"/>
+      <c r="AP105" s="99"/>
+      <c r="AQ105" s="99"/>
+      <c r="AR105" s="99"/>
+      <c r="AS105" s="99"/>
+      <c r="AT105" s="99"/>
+      <c r="AU105" s="99"/>
+      <c r="AV105" s="98"/>
+      <c r="AW105" s="37"/>
+      <c r="AX105" s="37"/>
+      <c r="AY105" s="37"/>
+      <c r="AZ105" s="37"/>
+      <c r="BA105" s="37"/>
+      <c r="BB105" s="37"/>
+      <c r="BC105" s="37"/>
+      <c r="BD105" s="17"/>
+      <c r="BE105" s="17"/>
+      <c r="BF105" s="17"/>
+    </row>
+    <row r="106" spans="1:58">
+      <c r="A106" s="36"/>
+      <c r="B106" s="97">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C106" s="98"/>
+      <c r="D106" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="H106" s="99"/>
+      <c r="I106" s="99"/>
+      <c r="J106" s="99"/>
+      <c r="K106" s="99"/>
+      <c r="L106" s="99"/>
+      <c r="M106" s="99"/>
+      <c r="N106" s="99"/>
+      <c r="O106" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="P106" s="99"/>
+      <c r="Q106" s="99"/>
+      <c r="R106" s="99"/>
+      <c r="S106" s="99"/>
+      <c r="T106" s="98"/>
+      <c r="U106" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="V106" s="99"/>
+      <c r="W106" s="99"/>
+      <c r="X106" s="99"/>
+      <c r="Y106" s="99"/>
+      <c r="Z106" s="99"/>
+      <c r="AA106" s="99"/>
+      <c r="AB106" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC106" s="95"/>
+      <c r="AD106" s="99"/>
+      <c r="AE106" s="99"/>
+      <c r="AF106" s="99"/>
+      <c r="AG106" s="99"/>
+      <c r="AH106" s="99"/>
+      <c r="AI106" s="99"/>
+      <c r="AJ106" s="99"/>
+      <c r="AK106" s="99"/>
+      <c r="AL106" s="99"/>
+      <c r="AM106" s="99"/>
+      <c r="AN106" s="99"/>
+      <c r="AO106" s="99"/>
+      <c r="AP106" s="99"/>
+      <c r="AQ106" s="99"/>
+      <c r="AR106" s="99"/>
+      <c r="AS106" s="99"/>
+      <c r="AT106" s="99"/>
+      <c r="AU106" s="99"/>
+      <c r="AV106" s="98"/>
+      <c r="AW106" s="37"/>
+      <c r="AX106" s="37"/>
+      <c r="AY106" s="37"/>
+      <c r="AZ106" s="37"/>
+      <c r="BA106" s="37"/>
+      <c r="BB106" s="37"/>
+      <c r="BC106" s="37"/>
+      <c r="BD106" s="17"/>
+      <c r="BE106" s="17"/>
+      <c r="BF106" s="17"/>
+    </row>
+    <row r="107" spans="1:58" ht="14.25">
+      <c r="A107" s="28"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="29"/>
+    </row>
+    <row r="108" spans="1:58" ht="14.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="P67:W67"/>
+  <mergeCells count="3">
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="S83:Z83"/>
+    <mergeCell ref="D83:F83"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9148,5 +10241,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_マイページ画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_マイページ画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8587249-155B-4FFB-A1BF-D7AEEF5E51AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15A0B6-D028-41C4-8301-7F39370617B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="24330" windowHeight="15990" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-28920" yWindow="-450" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">マイページ画面!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">マイページ画面!$A$1:$AX$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">マイページ画面!$A$1:$AX$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -477,6 +477,33 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ニックネーム表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6文字以上三点リーダーで表示</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -924,6 +951,75 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,32 +1065,23 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1005,24 +1092,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1031,48 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,7 +1148,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3409"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3410"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1180,7 +1207,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2380"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2381"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2083,194 +2110,194 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="48" t="s">
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="48" t="s">
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="50"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="73"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="51" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="57">
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="80">
         <v>44619</v>
       </c>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="51" t="s">
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="53"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="76"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="56"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="85"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="79"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2287,11 +2314,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2300,6 +2322,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2399,64 +2426,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75">
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="86">
         <v>44619</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78" t="s">
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="78" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="79"/>
-      <c r="AT8" s="79"/>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="80"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="91"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9" t="str">
@@ -2464,56 +2491,56 @@
         <v/>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="79"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="79"/>
-      <c r="AR9" s="79"/>
-      <c r="AS9" s="79"/>
-      <c r="AT9" s="79"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="79"/>
-      <c r="AW9" s="79"/>
-      <c r="AX9" s="79"/>
-      <c r="AY9" s="79"/>
-      <c r="AZ9" s="80"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="91"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -2521,56 +2548,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="80"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="80"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="91"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2578,56 +2605,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="80"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="79"/>
-      <c r="AP11" s="79"/>
-      <c r="AQ11" s="79"/>
-      <c r="AR11" s="79"/>
-      <c r="AS11" s="79"/>
-      <c r="AT11" s="79"/>
-      <c r="AU11" s="79"/>
-      <c r="AV11" s="79"/>
-      <c r="AW11" s="79"/>
-      <c r="AX11" s="79"/>
-      <c r="AY11" s="79"/>
-      <c r="AZ11" s="80"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="91"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2635,56 +2662,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="80"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="79"/>
-      <c r="AR12" s="79"/>
-      <c r="AS12" s="79"/>
-      <c r="AT12" s="79"/>
-      <c r="AU12" s="79"/>
-      <c r="AV12" s="79"/>
-      <c r="AW12" s="79"/>
-      <c r="AX12" s="79"/>
-      <c r="AY12" s="79"/>
-      <c r="AZ12" s="80"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="91"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2692,56 +2719,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="79"/>
-      <c r="AP13" s="79"/>
-      <c r="AQ13" s="79"/>
-      <c r="AR13" s="79"/>
-      <c r="AS13" s="79"/>
-      <c r="AT13" s="79"/>
-      <c r="AU13" s="79"/>
-      <c r="AV13" s="79"/>
-      <c r="AW13" s="79"/>
-      <c r="AX13" s="79"/>
-      <c r="AY13" s="79"/>
-      <c r="AZ13" s="80"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="91"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2749,56 +2776,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="79"/>
-      <c r="AP14" s="79"/>
-      <c r="AQ14" s="79"/>
-      <c r="AR14" s="79"/>
-      <c r="AS14" s="79"/>
-      <c r="AT14" s="79"/>
-      <c r="AU14" s="79"/>
-      <c r="AV14" s="79"/>
-      <c r="AW14" s="79"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="79"/>
-      <c r="AZ14" s="80"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="91"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -2806,56 +2833,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="79"/>
-      <c r="AP15" s="79"/>
-      <c r="AQ15" s="79"/>
-      <c r="AR15" s="79"/>
-      <c r="AS15" s="79"/>
-      <c r="AT15" s="79"/>
-      <c r="AU15" s="79"/>
-      <c r="AV15" s="79"/>
-      <c r="AW15" s="79"/>
-      <c r="AX15" s="79"/>
-      <c r="AY15" s="79"/>
-      <c r="AZ15" s="80"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="90"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="91"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -2863,56 +2890,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
-      <c r="AR16" s="79"/>
-      <c r="AS16" s="79"/>
-      <c r="AT16" s="79"/>
-      <c r="AU16" s="79"/>
-      <c r="AV16" s="79"/>
-      <c r="AW16" s="79"/>
-      <c r="AX16" s="79"/>
-      <c r="AY16" s="79"/>
-      <c r="AZ16" s="80"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="90"/>
+      <c r="AZ16" s="91"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -2920,56 +2947,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="79"/>
-      <c r="AP17" s="79"/>
-      <c r="AQ17" s="79"/>
-      <c r="AR17" s="79"/>
-      <c r="AS17" s="79"/>
-      <c r="AT17" s="79"/>
-      <c r="AU17" s="79"/>
-      <c r="AV17" s="79"/>
-      <c r="AW17" s="79"/>
-      <c r="AX17" s="79"/>
-      <c r="AY17" s="79"/>
-      <c r="AZ17" s="80"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="90"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="91"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -2977,56 +3004,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="80"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="79"/>
-      <c r="AS18" s="79"/>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="79"/>
-      <c r="AV18" s="79"/>
-      <c r="AW18" s="79"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="79"/>
-      <c r="AZ18" s="80"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="91"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="91"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3034,56 +3061,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="80"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
-      <c r="AP19" s="79"/>
-      <c r="AQ19" s="79"/>
-      <c r="AR19" s="79"/>
-      <c r="AS19" s="79"/>
-      <c r="AT19" s="79"/>
-      <c r="AU19" s="79"/>
-      <c r="AV19" s="79"/>
-      <c r="AW19" s="79"/>
-      <c r="AX19" s="79"/>
-      <c r="AY19" s="79"/>
-      <c r="AZ19" s="80"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90"/>
+      <c r="AX19" s="90"/>
+      <c r="AY19" s="90"/>
+      <c r="AZ19" s="91"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3091,56 +3118,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="79"/>
-      <c r="AQ20" s="79"/>
-      <c r="AR20" s="79"/>
-      <c r="AS20" s="79"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="79"/>
-      <c r="AV20" s="79"/>
-      <c r="AW20" s="79"/>
-      <c r="AX20" s="79"/>
-      <c r="AY20" s="79"/>
-      <c r="AZ20" s="80"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="90"/>
+      <c r="AZ20" s="91"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3148,56 +3175,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="80"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-      <c r="AP21" s="79"/>
-      <c r="AQ21" s="79"/>
-      <c r="AR21" s="79"/>
-      <c r="AS21" s="79"/>
-      <c r="AT21" s="79"/>
-      <c r="AU21" s="79"/>
-      <c r="AV21" s="79"/>
-      <c r="AW21" s="79"/>
-      <c r="AX21" s="79"/>
-      <c r="AY21" s="79"/>
-      <c r="AZ21" s="80"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="91"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3205,56 +3232,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="80"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="79"/>
-      <c r="AR22" s="79"/>
-      <c r="AS22" s="79"/>
-      <c r="AT22" s="79"/>
-      <c r="AU22" s="79"/>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="79"/>
-      <c r="AX22" s="79"/>
-      <c r="AY22" s="79"/>
-      <c r="AZ22" s="80"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="90"/>
+      <c r="AK22" s="90"/>
+      <c r="AL22" s="91"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="90"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="91"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3262,56 +3289,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="78"/>
-      <c r="AN23" s="79"/>
-      <c r="AO23" s="79"/>
-      <c r="AP23" s="79"/>
-      <c r="AQ23" s="79"/>
-      <c r="AR23" s="79"/>
-      <c r="AS23" s="79"/>
-      <c r="AT23" s="79"/>
-      <c r="AU23" s="79"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="79"/>
-      <c r="AZ23" s="80"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="91"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="90"/>
+      <c r="AZ23" s="91"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3319,56 +3346,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="79"/>
-      <c r="AL24" s="80"/>
-      <c r="AM24" s="78"/>
-      <c r="AN24" s="79"/>
-      <c r="AO24" s="79"/>
-      <c r="AP24" s="79"/>
-      <c r="AQ24" s="79"/>
-      <c r="AR24" s="79"/>
-      <c r="AS24" s="79"/>
-      <c r="AT24" s="79"/>
-      <c r="AU24" s="79"/>
-      <c r="AV24" s="79"/>
-      <c r="AW24" s="79"/>
-      <c r="AX24" s="79"/>
-      <c r="AY24" s="79"/>
-      <c r="AZ24" s="80"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="91"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3376,56 +3403,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="78"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-      <c r="AP25" s="79"/>
-      <c r="AQ25" s="79"/>
-      <c r="AR25" s="79"/>
-      <c r="AS25" s="79"/>
-      <c r="AT25" s="79"/>
-      <c r="AU25" s="79"/>
-      <c r="AV25" s="79"/>
-      <c r="AW25" s="79"/>
-      <c r="AX25" s="79"/>
-      <c r="AY25" s="79"/>
-      <c r="AZ25" s="80"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="91"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="91"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -3433,56 +3460,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="80"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="79"/>
-      <c r="AV26" s="79"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="80"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="90"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="91"/>
+      <c r="AM26" s="89"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="90"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="90"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="90"/>
+      <c r="AZ26" s="91"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3490,56 +3517,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="79"/>
-      <c r="AS27" s="79"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="79"/>
-      <c r="AV27" s="79"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="79"/>
-      <c r="AY27" s="79"/>
-      <c r="AZ27" s="80"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="91"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3547,56 +3574,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="80"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="80"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="90"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="90"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="91"/>
+      <c r="AM28" s="89"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="90"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="90"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="91"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3604,56 +3631,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="78"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-      <c r="AP29" s="79"/>
-      <c r="AQ29" s="79"/>
-      <c r="AR29" s="79"/>
-      <c r="AS29" s="79"/>
-      <c r="AT29" s="79"/>
-      <c r="AU29" s="79"/>
-      <c r="AV29" s="79"/>
-      <c r="AW29" s="79"/>
-      <c r="AX29" s="79"/>
-      <c r="AY29" s="79"/>
-      <c r="AZ29" s="80"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="89"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="91"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3661,56 +3688,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="80"/>
-      <c r="AM30" s="78"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-      <c r="AP30" s="79"/>
-      <c r="AQ30" s="79"/>
-      <c r="AR30" s="79"/>
-      <c r="AS30" s="79"/>
-      <c r="AT30" s="79"/>
-      <c r="AU30" s="79"/>
-      <c r="AV30" s="79"/>
-      <c r="AW30" s="79"/>
-      <c r="AX30" s="79"/>
-      <c r="AY30" s="79"/>
-      <c r="AZ30" s="80"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="90"/>
+      <c r="AJ30" s="90"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="91"/>
+      <c r="AM30" s="89"/>
+      <c r="AN30" s="90"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="90"/>
+      <c r="AQ30" s="90"/>
+      <c r="AR30" s="90"/>
+      <c r="AS30" s="90"/>
+      <c r="AT30" s="90"/>
+      <c r="AU30" s="90"/>
+      <c r="AV30" s="90"/>
+      <c r="AW30" s="90"/>
+      <c r="AX30" s="90"/>
+      <c r="AY30" s="90"/>
+      <c r="AZ30" s="91"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3718,56 +3745,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="80"/>
-      <c r="AM31" s="78"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
-      <c r="AP31" s="79"/>
-      <c r="AQ31" s="79"/>
-      <c r="AR31" s="79"/>
-      <c r="AS31" s="79"/>
-      <c r="AT31" s="79"/>
-      <c r="AU31" s="79"/>
-      <c r="AV31" s="79"/>
-      <c r="AW31" s="79"/>
-      <c r="AX31" s="79"/>
-      <c r="AY31" s="79"/>
-      <c r="AZ31" s="80"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="91"/>
+      <c r="AM31" s="89"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="90"/>
+      <c r="AV31" s="90"/>
+      <c r="AW31" s="90"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="90"/>
+      <c r="AZ31" s="91"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -3775,56 +3802,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="80"/>
-      <c r="AM32" s="78"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
-      <c r="AP32" s="79"/>
-      <c r="AQ32" s="79"/>
-      <c r="AR32" s="79"/>
-      <c r="AS32" s="79"/>
-      <c r="AT32" s="79"/>
-      <c r="AU32" s="79"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="79"/>
-      <c r="AX32" s="79"/>
-      <c r="AY32" s="79"/>
-      <c r="AZ32" s="80"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="90"/>
+      <c r="AK32" s="90"/>
+      <c r="AL32" s="91"/>
+      <c r="AM32" s="89"/>
+      <c r="AN32" s="90"/>
+      <c r="AO32" s="90"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="90"/>
+      <c r="AR32" s="90"/>
+      <c r="AS32" s="90"/>
+      <c r="AT32" s="90"/>
+      <c r="AU32" s="90"/>
+      <c r="AV32" s="90"/>
+      <c r="AW32" s="90"/>
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="90"/>
+      <c r="AZ32" s="91"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -3832,56 +3859,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="80"/>
-      <c r="AM33" s="78"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
-      <c r="AP33" s="79"/>
-      <c r="AQ33" s="79"/>
-      <c r="AR33" s="79"/>
-      <c r="AS33" s="79"/>
-      <c r="AT33" s="79"/>
-      <c r="AU33" s="79"/>
-      <c r="AV33" s="79"/>
-      <c r="AW33" s="79"/>
-      <c r="AX33" s="79"/>
-      <c r="AY33" s="79"/>
-      <c r="AZ33" s="80"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="90"/>
+      <c r="AJ33" s="90"/>
+      <c r="AK33" s="90"/>
+      <c r="AL33" s="91"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="90"/>
+      <c r="AO33" s="90"/>
+      <c r="AP33" s="90"/>
+      <c r="AQ33" s="90"/>
+      <c r="AR33" s="90"/>
+      <c r="AS33" s="90"/>
+      <c r="AT33" s="90"/>
+      <c r="AU33" s="90"/>
+      <c r="AV33" s="90"/>
+      <c r="AW33" s="90"/>
+      <c r="AX33" s="90"/>
+      <c r="AY33" s="90"/>
+      <c r="AZ33" s="91"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -3889,59 +3916,184 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="80"/>
-      <c r="AM34" s="78"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="79"/>
-      <c r="AP34" s="79"/>
-      <c r="AQ34" s="79"/>
-      <c r="AR34" s="79"/>
-      <c r="AS34" s="79"/>
-      <c r="AT34" s="79"/>
-      <c r="AU34" s="79"/>
-      <c r="AV34" s="79"/>
-      <c r="AW34" s="79"/>
-      <c r="AX34" s="79"/>
-      <c r="AY34" s="79"/>
-      <c r="AZ34" s="80"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="90"/>
+      <c r="AE34" s="90"/>
+      <c r="AF34" s="90"/>
+      <c r="AG34" s="90"/>
+      <c r="AH34" s="90"/>
+      <c r="AI34" s="90"/>
+      <c r="AJ34" s="90"/>
+      <c r="AK34" s="90"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="89"/>
+      <c r="AN34" s="90"/>
+      <c r="AO34" s="90"/>
+      <c r="AP34" s="90"/>
+      <c r="AQ34" s="90"/>
+      <c r="AR34" s="90"/>
+      <c r="AS34" s="90"/>
+      <c r="AT34" s="90"/>
+      <c r="AU34" s="90"/>
+      <c r="AV34" s="90"/>
+      <c r="AW34" s="90"/>
+      <c r="AX34" s="90"/>
+      <c r="AY34" s="90"/>
+      <c r="AZ34" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:AL8"/>
@@ -3952,131 +4104,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4088,9 +4115,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BA84"/>
+  <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
   <cols>
@@ -6949,24 +6976,24 @@
       <c r="D55" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="85"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="49"/>
       <c r="P55" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="85"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="49"/>
       <c r="U55" s="20" t="s">
         <v>45</v>
       </c>
@@ -7007,56 +7034,56 @@
     </row>
     <row r="56" spans="1:50" s="25" customFormat="1">
       <c r="A56" s="35"/>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="88"/>
-      <c r="AC56" s="88"/>
-      <c r="AD56" s="88"/>
-      <c r="AE56" s="88"/>
-      <c r="AF56" s="88"/>
-      <c r="AG56" s="88"/>
-      <c r="AH56" s="88"/>
-      <c r="AI56" s="88"/>
-      <c r="AJ56" s="88"/>
-      <c r="AK56" s="88"/>
-      <c r="AL56" s="88"/>
-      <c r="AM56" s="88"/>
-      <c r="AN56" s="88"/>
-      <c r="AO56" s="88"/>
-      <c r="AP56" s="88"/>
-      <c r="AQ56" s="88"/>
-      <c r="AR56" s="88"/>
-      <c r="AS56" s="88"/>
-      <c r="AT56" s="88"/>
-      <c r="AU56" s="88"/>
-      <c r="AV56" s="88"/>
-      <c r="AW56" s="89"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+      <c r="AD56" s="52"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="52"/>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="52"/>
+      <c r="AN56" s="52"/>
+      <c r="AO56" s="52"/>
+      <c r="AP56" s="52"/>
+      <c r="AQ56" s="52"/>
+      <c r="AR56" s="52"/>
+      <c r="AS56" s="52"/>
+      <c r="AT56" s="52"/>
+      <c r="AU56" s="52"/>
+      <c r="AV56" s="52"/>
+      <c r="AW56" s="53"/>
     </row>
     <row r="57" spans="1:50">
       <c r="A57" s="35"/>
@@ -7065,7 +7092,7 @@
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="37" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
@@ -7077,48 +7104,50 @@
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" s="39"/>
-      <c r="O57" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="91"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="92"/>
-      <c r="U57" s="90" t="s">
+      <c r="O57" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="91"/>
-      <c r="Y57" s="91"/>
-      <c r="Z57" s="91"/>
-      <c r="AA57" s="91"/>
-      <c r="AB57" s="91"/>
-      <c r="AC57" s="91"/>
-      <c r="AD57" s="92"/>
-      <c r="AE57" s="90" t="s">
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="91"/>
-      <c r="AI57" s="92"/>
-      <c r="AJ57" s="90" t="s">
+      <c r="AF57" s="55"/>
+      <c r="AG57" s="55"/>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="56"/>
+      <c r="AJ57" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AK57" s="91"/>
-      <c r="AL57" s="91"/>
-      <c r="AM57" s="91"/>
-      <c r="AN57" s="91"/>
-      <c r="AO57" s="91"/>
-      <c r="AP57" s="92"/>
-      <c r="AQ57" s="90"/>
-      <c r="AR57" s="91"/>
-      <c r="AS57" s="91"/>
-      <c r="AT57" s="91"/>
-      <c r="AU57" s="91"/>
-      <c r="AV57" s="91"/>
+      <c r="AK57" s="55"/>
+      <c r="AL57" s="55"/>
+      <c r="AM57" s="55"/>
+      <c r="AN57" s="55"/>
+      <c r="AO57" s="55"/>
+      <c r="AP57" s="56"/>
+      <c r="AQ57" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR57" s="55"/>
+      <c r="AS57" s="55"/>
+      <c r="AT57" s="55"/>
+      <c r="AU57" s="55"/>
+      <c r="AV57" s="55"/>
       <c r="AW57" s="39"/>
       <c r="AX57" s="36"/>
     </row>
@@ -7129,7 +7158,7 @@
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
@@ -7141,50 +7170,50 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" s="39"/>
-      <c r="O58" s="90" t="s">
+      <c r="O58" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="P58" s="91"/>
-      <c r="Q58" s="91"/>
-      <c r="R58" s="91"/>
-      <c r="S58" s="91"/>
-      <c r="T58" s="92"/>
-      <c r="U58" s="90" t="s">
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
-      <c r="X58" s="91"/>
-      <c r="Y58" s="91"/>
-      <c r="Z58" s="91"/>
-      <c r="AA58" s="91"/>
-      <c r="AB58" s="91"/>
-      <c r="AC58" s="91"/>
-      <c r="AD58" s="92"/>
-      <c r="AE58" s="90" t="s">
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="55"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="91"/>
-      <c r="AH58" s="91"/>
-      <c r="AI58" s="92"/>
-      <c r="AJ58" s="90" t="s">
+      <c r="AF58" s="55"/>
+      <c r="AG58" s="55"/>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="56"/>
+      <c r="AJ58" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AK58" s="91"/>
-      <c r="AL58" s="91"/>
-      <c r="AM58" s="91"/>
-      <c r="AN58" s="91"/>
-      <c r="AO58" s="91"/>
-      <c r="AP58" s="92"/>
-      <c r="AQ58" s="90"/>
-      <c r="AR58" s="91"/>
-      <c r="AS58" s="91"/>
-      <c r="AT58" s="91"/>
-      <c r="AU58" s="91"/>
-      <c r="AV58" s="91"/>
+      <c r="AK58" s="55"/>
+      <c r="AL58" s="55"/>
+      <c r="AM58" s="55"/>
+      <c r="AN58" s="55"/>
+      <c r="AO58" s="55"/>
+      <c r="AP58" s="56"/>
+      <c r="AQ58" s="54"/>
+      <c r="AR58" s="55"/>
+      <c r="AS58" s="55"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="55"/>
       <c r="AW58" s="39"/>
-      <c r="AX58" s="19"/>
+      <c r="AX58" s="36"/>
     </row>
     <row r="59" spans="1:50">
       <c r="A59" s="35"/>
@@ -7193,7 +7222,7 @@
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
@@ -7205,50 +7234,50 @@
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
       <c r="N59" s="39"/>
-      <c r="O59" s="90" t="s">
+      <c r="O59" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="P59" s="91"/>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="91"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="92"/>
-      <c r="U59" s="90" t="s">
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="V59" s="91"/>
-      <c r="W59" s="91"/>
-      <c r="X59" s="91"/>
-      <c r="Y59" s="91"/>
-      <c r="Z59" s="91"/>
-      <c r="AA59" s="91"/>
-      <c r="AB59" s="91"/>
-      <c r="AC59" s="91"/>
-      <c r="AD59" s="92"/>
-      <c r="AE59" s="90" t="s">
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="55"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="56"/>
+      <c r="AE59" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AF59" s="91"/>
-      <c r="AG59" s="91"/>
-      <c r="AH59" s="91"/>
-      <c r="AI59" s="92"/>
-      <c r="AJ59" s="90" t="s">
+      <c r="AF59" s="55"/>
+      <c r="AG59" s="55"/>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="56"/>
+      <c r="AJ59" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AK59" s="91"/>
-      <c r="AL59" s="91"/>
-      <c r="AM59" s="91"/>
-      <c r="AN59" s="91"/>
-      <c r="AO59" s="91"/>
-      <c r="AP59" s="92"/>
-      <c r="AQ59" s="90"/>
-      <c r="AR59" s="91"/>
-      <c r="AS59" s="91"/>
-      <c r="AT59" s="91"/>
-      <c r="AU59" s="91"/>
-      <c r="AV59" s="91"/>
+      <c r="AK59" s="55"/>
+      <c r="AL59" s="55"/>
+      <c r="AM59" s="55"/>
+      <c r="AN59" s="55"/>
+      <c r="AO59" s="55"/>
+      <c r="AP59" s="56"/>
+      <c r="AQ59" s="54"/>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="55"/>
+      <c r="AT59" s="55"/>
+      <c r="AU59" s="55"/>
+      <c r="AV59" s="55"/>
       <c r="AW59" s="39"/>
-      <c r="AX59" s="36"/>
+      <c r="AX59" s="19"/>
     </row>
     <row r="60" spans="1:50">
       <c r="A60" s="35"/>
@@ -7257,7 +7286,7 @@
       </c>
       <c r="C60" s="39"/>
       <c r="D60" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
@@ -7269,166 +7298,167 @@
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" s="39"/>
-      <c r="O60" s="90" t="s">
+      <c r="O60" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="P60" s="91"/>
-      <c r="Q60" s="91"/>
-      <c r="R60" s="91"/>
-      <c r="S60" s="91"/>
-      <c r="T60" s="92"/>
-      <c r="U60" s="90" t="s">
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="V60" s="91"/>
-      <c r="W60" s="91"/>
-      <c r="X60" s="91"/>
-      <c r="Y60" s="91"/>
-      <c r="Z60" s="91"/>
-      <c r="AA60" s="91"/>
-      <c r="AB60" s="91"/>
-      <c r="AC60" s="91"/>
-      <c r="AD60" s="92"/>
-      <c r="AE60" s="90" t="s">
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="55"/>
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AF60" s="91"/>
-      <c r="AG60" s="91"/>
-      <c r="AH60" s="91"/>
-      <c r="AI60" s="92"/>
-      <c r="AJ60" s="90" t="s">
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+      <c r="AH60" s="55"/>
+      <c r="AI60" s="56"/>
+      <c r="AJ60" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AK60" s="91"/>
-      <c r="AL60" s="91"/>
-      <c r="AM60" s="91"/>
-      <c r="AN60" s="91"/>
-      <c r="AO60" s="91"/>
-      <c r="AP60" s="92"/>
-      <c r="AQ60" s="90"/>
-      <c r="AR60" s="91"/>
-      <c r="AS60" s="91"/>
-      <c r="AT60" s="91"/>
-      <c r="AU60" s="91"/>
-      <c r="AV60" s="91"/>
+      <c r="AK60" s="55"/>
+      <c r="AL60" s="55"/>
+      <c r="AM60" s="55"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="55"/>
+      <c r="AP60" s="56"/>
+      <c r="AQ60" s="54"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="55"/>
+      <c r="AT60" s="55"/>
+      <c r="AU60" s="55"/>
+      <c r="AV60" s="55"/>
       <c r="AW60" s="39"/>
-      <c r="AX60" s="19"/>
-    </row>
-    <row r="61" spans="1:50" s="25" customFormat="1">
+      <c r="AX60" s="36"/>
+    </row>
+    <row r="61" spans="1:50">
       <c r="A61" s="35"/>
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="42">
+        <v>5</v>
+      </c>
+      <c r="C61" s="39"/>
+      <c r="D61" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+      <c r="Z61" s="55"/>
+      <c r="AA61" s="55"/>
+      <c r="AB61" s="55"/>
+      <c r="AC61" s="55"/>
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="55"/>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="56"/>
+      <c r="AJ61" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK61" s="55"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="55"/>
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="55"/>
+      <c r="AP61" s="56"/>
+      <c r="AQ61" s="54"/>
+      <c r="AR61" s="55"/>
+      <c r="AS61" s="55"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="55"/>
+      <c r="AV61" s="55"/>
+      <c r="AW61" s="39"/>
+      <c r="AX61" s="19"/>
+    </row>
+    <row r="62" spans="1:50" s="25" customFormat="1">
+      <c r="A62" s="35"/>
+      <c r="B62" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88"/>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-      <c r="AA61" s="88"/>
-      <c r="AB61" s="88"/>
-      <c r="AC61" s="88"/>
-      <c r="AD61" s="88"/>
-      <c r="AE61" s="88"/>
-      <c r="AF61" s="88"/>
-      <c r="AG61" s="88"/>
-      <c r="AH61" s="88"/>
-      <c r="AI61" s="88"/>
-      <c r="AJ61" s="88"/>
-      <c r="AK61" s="88"/>
-      <c r="AL61" s="88"/>
-      <c r="AM61" s="88"/>
-      <c r="AN61" s="88"/>
-      <c r="AO61" s="88"/>
-      <c r="AP61" s="88"/>
-      <c r="AQ61" s="88"/>
-      <c r="AR61" s="88"/>
-      <c r="AS61" s="88"/>
-      <c r="AT61" s="88"/>
-      <c r="AU61" s="88"/>
-      <c r="AV61" s="88"/>
-      <c r="AW61" s="89"/>
-    </row>
-    <row r="62" spans="1:50">
-      <c r="A62" s="35"/>
-      <c r="B62" s="42">
-        <v>5</v>
-      </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="P62" s="91"/>
-      <c r="Q62" s="91"/>
-      <c r="R62" s="91"/>
-      <c r="S62" s="91"/>
-      <c r="T62" s="92"/>
-      <c r="U62" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="V62" s="91"/>
-      <c r="W62" s="91"/>
-      <c r="X62" s="91"/>
-      <c r="Y62" s="91"/>
-      <c r="Z62" s="91"/>
-      <c r="AA62" s="91"/>
-      <c r="AB62" s="91"/>
-      <c r="AC62" s="91"/>
-      <c r="AD62" s="92"/>
-      <c r="AE62" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="91"/>
-      <c r="AH62" s="91"/>
-      <c r="AI62" s="92"/>
-      <c r="AJ62" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK62" s="91"/>
-      <c r="AL62" s="91"/>
-      <c r="AM62" s="91"/>
-      <c r="AN62" s="91"/>
-      <c r="AO62" s="91"/>
-      <c r="AP62" s="92"/>
-      <c r="AQ62" s="90"/>
-      <c r="AR62" s="91"/>
-      <c r="AS62" s="91"/>
-      <c r="AT62" s="91"/>
-      <c r="AU62" s="91"/>
-      <c r="AV62" s="91"/>
-      <c r="AW62" s="39"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+      <c r="AC62" s="52"/>
+      <c r="AD62" s="52"/>
+      <c r="AE62" s="52"/>
+      <c r="AF62" s="52"/>
+      <c r="AG62" s="52"/>
+      <c r="AH62" s="52"/>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="52"/>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="52"/>
+      <c r="AM62" s="52"/>
+      <c r="AN62" s="52"/>
+      <c r="AO62" s="52"/>
+      <c r="AP62" s="52"/>
+      <c r="AQ62" s="52"/>
+      <c r="AR62" s="52"/>
+      <c r="AS62" s="52"/>
+      <c r="AT62" s="52"/>
+      <c r="AU62" s="52"/>
+      <c r="AV62" s="52"/>
+      <c r="AW62" s="53"/>
     </row>
     <row r="63" spans="1:50">
       <c r="A63" s="35"/>
@@ -7437,7 +7467,7 @@
       </c>
       <c r="C63" s="39"/>
       <c r="D63" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
@@ -7449,107 +7479,116 @@
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
       <c r="N63" s="39"/>
-      <c r="O63" s="90" t="s">
+      <c r="O63" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="P63" s="91"/>
-      <c r="Q63" s="91"/>
-      <c r="R63" s="91"/>
-      <c r="S63" s="91"/>
-      <c r="T63" s="92"/>
-      <c r="U63" s="90" t="s">
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="V63" s="91"/>
-      <c r="W63" s="91"/>
-      <c r="X63" s="91"/>
-      <c r="Y63" s="91"/>
-      <c r="Z63" s="91"/>
-      <c r="AA63" s="91"/>
-      <c r="AB63" s="91"/>
-      <c r="AC63" s="91"/>
-      <c r="AD63" s="92"/>
-      <c r="AE63" s="90" t="s">
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="56"/>
+      <c r="AE63" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AF63" s="91"/>
-      <c r="AG63" s="91"/>
-      <c r="AH63" s="91"/>
-      <c r="AI63" s="92"/>
-      <c r="AJ63" s="90" t="s">
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="56"/>
+      <c r="AJ63" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AK63" s="91"/>
-      <c r="AL63" s="91"/>
-      <c r="AM63" s="91"/>
-      <c r="AN63" s="91"/>
-      <c r="AO63" s="91"/>
-      <c r="AP63" s="92"/>
-      <c r="AQ63" s="90"/>
-      <c r="AR63" s="91"/>
-      <c r="AS63" s="91"/>
-      <c r="AT63" s="91"/>
-      <c r="AU63" s="91"/>
-      <c r="AV63" s="91"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="55"/>
+      <c r="AO63" s="55"/>
+      <c r="AP63" s="56"/>
+      <c r="AQ63" s="54"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
       <c r="AW63" s="39"/>
     </row>
     <row r="64" spans="1:50">
       <c r="A64" s="35"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="19"/>
-      <c r="Z64" s="19"/>
-      <c r="AA64" s="19"/>
-      <c r="AB64" s="19"/>
-      <c r="AC64" s="19"/>
-      <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="19"/>
-      <c r="AG64" s="19"/>
-      <c r="AH64" s="19"/>
-      <c r="AI64" s="19"/>
-      <c r="AJ64" s="19"/>
-      <c r="AK64" s="19"/>
-      <c r="AL64" s="19"/>
-      <c r="AM64" s="19"/>
-      <c r="AN64" s="19"/>
-      <c r="AO64" s="19"/>
-      <c r="AP64" s="19"/>
-      <c r="AQ64" s="19"/>
-      <c r="AR64" s="19"/>
-      <c r="AS64" s="19"/>
-      <c r="AT64" s="19"/>
-      <c r="AU64" s="19"/>
-      <c r="AV64" s="19"/>
-      <c r="AW64" s="19"/>
-      <c r="AX64" s="19"/>
+      <c r="B64" s="42">
+        <v>7</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="55"/>
+      <c r="Y64" s="55"/>
+      <c r="Z64" s="55"/>
+      <c r="AA64" s="55"/>
+      <c r="AB64" s="55"/>
+      <c r="AC64" s="55"/>
+      <c r="AD64" s="56"/>
+      <c r="AE64" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF64" s="55"/>
+      <c r="AG64" s="55"/>
+      <c r="AH64" s="55"/>
+      <c r="AI64" s="56"/>
+      <c r="AJ64" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK64" s="55"/>
+      <c r="AL64" s="55"/>
+      <c r="AM64" s="55"/>
+      <c r="AN64" s="55"/>
+      <c r="AO64" s="55"/>
+      <c r="AP64" s="56"/>
+      <c r="AQ64" s="54"/>
+      <c r="AR64" s="55"/>
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="39"/>
     </row>
     <row r="65" spans="1:50">
       <c r="A65" s="35"/>
-      <c r="B65" s="34" t="s">
-        <v>33</v>
-      </c>
+      <c r="B65" s="34"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -7599,178 +7638,173 @@
       <c r="AW65" s="19"/>
       <c r="AX65" s="19"/>
     </row>
-    <row r="66" spans="1:50" s="25" customFormat="1">
+    <row r="66" spans="1:50">
       <c r="A66" s="35"/>
-      <c r="B66" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q66" s="82"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="82"/>
-      <c r="T66" s="82"/>
-      <c r="U66" s="82"/>
-      <c r="V66" s="82"/>
-      <c r="W66" s="83"/>
-      <c r="X66" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="24"/>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="24"/>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="21"/>
+      <c r="B66" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="19"/>
+      <c r="AH66" s="19"/>
+      <c r="AI66" s="19"/>
+      <c r="AJ66" s="19"/>
+      <c r="AK66" s="19"/>
+      <c r="AL66" s="19"/>
+      <c r="AM66" s="19"/>
+      <c r="AN66" s="19"/>
+      <c r="AO66" s="19"/>
+      <c r="AP66" s="19"/>
+      <c r="AQ66" s="19"/>
+      <c r="AR66" s="19"/>
+      <c r="AS66" s="19"/>
+      <c r="AT66" s="19"/>
+      <c r="AU66" s="19"/>
+      <c r="AV66" s="19"/>
+      <c r="AW66" s="19"/>
+      <c r="AX66" s="19"/>
     </row>
     <row r="67" spans="1:50" s="25" customFormat="1">
       <c r="A67" s="35"/>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="96"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="96"/>
+      <c r="U67" s="96"/>
+      <c r="V67" s="96"/>
+      <c r="W67" s="97"/>
+      <c r="X67" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="24"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="21"/>
+    </row>
+    <row r="68" spans="1:50" s="25" customFormat="1">
+      <c r="A68" s="35"/>
+      <c r="B68" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="87"/>
-      <c r="K67" s="87"/>
-      <c r="L67" s="87"/>
-      <c r="M67" s="87"/>
-      <c r="N67" s="87"/>
-      <c r="O67" s="87"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="88"/>
-      <c r="V67" s="88"/>
-      <c r="W67" s="88"/>
-      <c r="X67" s="88"/>
-      <c r="Y67" s="88"/>
-      <c r="Z67" s="88"/>
-      <c r="AA67" s="88"/>
-      <c r="AB67" s="88"/>
-      <c r="AC67" s="88"/>
-      <c r="AD67" s="88"/>
-      <c r="AE67" s="88"/>
-      <c r="AF67" s="88"/>
-      <c r="AG67" s="88"/>
-      <c r="AH67" s="88"/>
-      <c r="AI67" s="88"/>
-      <c r="AJ67" s="88"/>
-      <c r="AK67" s="88"/>
-      <c r="AL67" s="88"/>
-      <c r="AM67" s="88"/>
-      <c r="AN67" s="88"/>
-      <c r="AO67" s="88"/>
-      <c r="AP67" s="88"/>
-      <c r="AQ67" s="93"/>
-      <c r="AR67" s="94"/>
-      <c r="AS67" s="94"/>
-      <c r="AT67" s="94"/>
-      <c r="AU67" s="94"/>
-      <c r="AV67" s="94"/>
-      <c r="AW67" s="95"/>
-    </row>
-    <row r="68" spans="1:50">
-      <c r="A68" s="35"/>
-      <c r="B68" s="42">
-        <v>1</v>
-      </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="38"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="38"/>
-      <c r="AG68" s="38"/>
-      <c r="AH68" s="38"/>
-      <c r="AI68" s="38"/>
-      <c r="AJ68" s="38"/>
-      <c r="AK68" s="38"/>
-      <c r="AL68" s="38"/>
-      <c r="AM68" s="38"/>
-      <c r="AN68" s="38"/>
-      <c r="AO68" s="38"/>
-      <c r="AP68" s="38"/>
-      <c r="AQ68" s="96"/>
-      <c r="AR68" s="97"/>
-      <c r="AS68" s="97"/>
-      <c r="AT68" s="97"/>
-      <c r="AU68" s="97"/>
-      <c r="AV68" s="97"/>
-      <c r="AW68" s="97"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="52"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="52"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="52"/>
+      <c r="Y68" s="52"/>
+      <c r="Z68" s="52"/>
+      <c r="AA68" s="52"/>
+      <c r="AB68" s="52"/>
+      <c r="AC68" s="52"/>
+      <c r="AD68" s="52"/>
+      <c r="AE68" s="52"/>
+      <c r="AF68" s="52"/>
+      <c r="AG68" s="52"/>
+      <c r="AH68" s="52"/>
+      <c r="AI68" s="52"/>
+      <c r="AJ68" s="52"/>
+      <c r="AK68" s="52"/>
+      <c r="AL68" s="52"/>
+      <c r="AM68" s="52"/>
+      <c r="AN68" s="52"/>
+      <c r="AO68" s="52"/>
+      <c r="AP68" s="52"/>
+      <c r="AQ68" s="57"/>
+      <c r="AR68" s="58"/>
+      <c r="AS68" s="58"/>
+      <c r="AT68" s="58"/>
+      <c r="AU68" s="58"/>
+      <c r="AV68" s="58"/>
+      <c r="AW68" s="59"/>
     </row>
     <row r="69" spans="1:50">
       <c r="A69" s="35"/>
       <c r="B69" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
@@ -7794,7 +7828,7 @@
       <c r="V69" s="38"/>
       <c r="W69" s="39"/>
       <c r="X69" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y69" s="38"/>
       <c r="Z69" s="38"/>
@@ -7814,22 +7848,22 @@
       <c r="AN69" s="38"/>
       <c r="AO69" s="38"/>
       <c r="AP69" s="38"/>
-      <c r="AQ69" s="96"/>
-      <c r="AR69" s="97"/>
-      <c r="AS69" s="97"/>
-      <c r="AT69" s="97"/>
-      <c r="AU69" s="97"/>
-      <c r="AV69" s="97"/>
-      <c r="AW69" s="97"/>
+      <c r="AQ69" s="60"/>
+      <c r="AR69" s="61"/>
+      <c r="AS69" s="61"/>
+      <c r="AT69" s="61"/>
+      <c r="AU69" s="61"/>
+      <c r="AV69" s="61"/>
+      <c r="AW69" s="61"/>
     </row>
     <row r="70" spans="1:50">
       <c r="A70" s="35"/>
       <c r="B70" s="42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="39"/>
       <c r="D70" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
@@ -7853,7 +7887,7 @@
       <c r="V70" s="38"/>
       <c r="W70" s="39"/>
       <c r="X70" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y70" s="38"/>
       <c r="Z70" s="38"/>
@@ -7872,16 +7906,23 @@
       <c r="AM70" s="38"/>
       <c r="AN70" s="38"/>
       <c r="AO70" s="38"/>
-      <c r="AP70" s="39"/>
+      <c r="AP70" s="38"/>
+      <c r="AQ70" s="60"/>
+      <c r="AR70" s="61"/>
+      <c r="AS70" s="61"/>
+      <c r="AT70" s="61"/>
+      <c r="AU70" s="61"/>
+      <c r="AV70" s="61"/>
+      <c r="AW70" s="61"/>
     </row>
     <row r="71" spans="1:50">
       <c r="A71" s="35"/>
       <c r="B71" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="39"/>
       <c r="D71" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38"/>
@@ -7905,7 +7946,7 @@
       <c r="V71" s="38"/>
       <c r="W71" s="39"/>
       <c r="X71" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y71" s="38"/>
       <c r="Z71" s="38"/>
@@ -7926,119 +7967,119 @@
       <c r="AO71" s="38"/>
       <c r="AP71" s="39"/>
     </row>
-    <row r="72" spans="1:50" s="25" customFormat="1">
+    <row r="72" spans="1:50">
       <c r="A72" s="35"/>
-      <c r="B72" s="86" t="s">
+      <c r="B72" s="42">
+        <v>4</v>
+      </c>
+      <c r="C72" s="39"/>
+      <c r="D72" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="38"/>
+      <c r="AM72" s="38"/>
+      <c r="AN72" s="38"/>
+      <c r="AO72" s="38"/>
+      <c r="AP72" s="39"/>
+    </row>
+    <row r="73" spans="1:50" s="25" customFormat="1">
+      <c r="A73" s="35"/>
+      <c r="B73" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="87"/>
-      <c r="J72" s="87"/>
-      <c r="K72" s="87"/>
-      <c r="L72" s="87"/>
-      <c r="M72" s="87"/>
-      <c r="N72" s="87"/>
-      <c r="O72" s="87"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="88"/>
-      <c r="V72" s="88"/>
-      <c r="W72" s="88"/>
-      <c r="X72" s="88"/>
-      <c r="Y72" s="88"/>
-      <c r="Z72" s="88"/>
-      <c r="AA72" s="88"/>
-      <c r="AB72" s="88"/>
-      <c r="AC72" s="88"/>
-      <c r="AD72" s="88"/>
-      <c r="AE72" s="88"/>
-      <c r="AF72" s="88"/>
-      <c r="AG72" s="88"/>
-      <c r="AH72" s="88"/>
-      <c r="AI72" s="88"/>
-      <c r="AJ72" s="88"/>
-      <c r="AK72" s="88"/>
-      <c r="AL72" s="88"/>
-      <c r="AM72" s="88"/>
-      <c r="AN72" s="88"/>
-      <c r="AO72" s="88"/>
-      <c r="AP72" s="88"/>
-      <c r="AQ72" s="93"/>
-      <c r="AR72" s="94"/>
-      <c r="AS72" s="94"/>
-      <c r="AT72" s="94"/>
-      <c r="AU72" s="94"/>
-      <c r="AV72" s="94"/>
-      <c r="AW72" s="95"/>
-    </row>
-    <row r="73" spans="1:50">
-      <c r="A73" s="35"/>
-      <c r="B73" s="42">
-        <v>5</v>
-      </c>
-      <c r="C73" s="39"/>
-      <c r="D73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="38"/>
-      <c r="AA73" s="38"/>
-      <c r="AB73" s="38"/>
-      <c r="AC73" s="38"/>
-      <c r="AD73" s="38"/>
-      <c r="AE73" s="38"/>
-      <c r="AF73" s="38"/>
-      <c r="AG73" s="38"/>
-      <c r="AH73" s="38"/>
-      <c r="AI73" s="38"/>
-      <c r="AJ73" s="38"/>
-      <c r="AK73" s="38"/>
-      <c r="AL73" s="38"/>
-      <c r="AM73" s="38"/>
-      <c r="AN73" s="38"/>
-      <c r="AO73" s="38"/>
-      <c r="AP73" s="39"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="52"/>
+      <c r="U73" s="52"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="52"/>
+      <c r="Y73" s="52"/>
+      <c r="Z73" s="52"/>
+      <c r="AA73" s="52"/>
+      <c r="AB73" s="52"/>
+      <c r="AC73" s="52"/>
+      <c r="AD73" s="52"/>
+      <c r="AE73" s="52"/>
+      <c r="AF73" s="52"/>
+      <c r="AG73" s="52"/>
+      <c r="AH73" s="52"/>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="52"/>
+      <c r="AK73" s="52"/>
+      <c r="AL73" s="52"/>
+      <c r="AM73" s="52"/>
+      <c r="AN73" s="52"/>
+      <c r="AO73" s="52"/>
+      <c r="AP73" s="52"/>
+      <c r="AQ73" s="57"/>
+      <c r="AR73" s="58"/>
+      <c r="AS73" s="58"/>
+      <c r="AT73" s="58"/>
+      <c r="AU73" s="58"/>
+      <c r="AV73" s="58"/>
+      <c r="AW73" s="59"/>
     </row>
     <row r="74" spans="1:50">
       <c r="A74" s="35"/>
       <c r="B74" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="39"/>
       <c r="D74" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
@@ -8062,7 +8103,7 @@
       <c r="V74" s="38"/>
       <c r="W74" s="39"/>
       <c r="X74" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y74" s="38"/>
       <c r="Z74" s="38"/>
@@ -8084,10 +8125,14 @@
       <c r="AP74" s="39"/>
     </row>
     <row r="75" spans="1:50">
-      <c r="A75" s="40"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="38"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="42">
+        <v>6</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -8098,16 +8143,20 @@
       <c r="L75" s="38"/>
       <c r="M75" s="38"/>
       <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="37" t="s">
+        <v>32</v>
+      </c>
       <c r="Q75" s="38"/>
       <c r="R75" s="38"/>
       <c r="S75" s="38"/>
       <c r="T75" s="38"/>
       <c r="U75" s="38"/>
       <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="Y75" s="38"/>
       <c r="Z75" s="38"/>
       <c r="AA75" s="38"/>
@@ -8125,64 +8174,108 @@
       <c r="AM75" s="38"/>
       <c r="AN75" s="38"/>
       <c r="AO75" s="38"/>
-      <c r="AP75" s="38"/>
-      <c r="AQ75" s="38"/>
-      <c r="AR75" s="38"/>
-      <c r="AS75" s="38"/>
-      <c r="AT75" s="38"/>
-      <c r="AU75" s="38"/>
-      <c r="AV75" s="38"/>
-      <c r="AW75" s="38"/>
-      <c r="AX75" s="38"/>
-    </row>
-    <row r="76" spans="1:50" ht="14.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-    </row>
-    <row r="77" spans="1:50" ht="18.75" customHeight="1">
+      <c r="AP75" s="39"/>
+    </row>
+    <row r="76" spans="1:50">
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="38"/>
+      <c r="AG76" s="38"/>
+      <c r="AH76" s="38"/>
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="38"/>
+      <c r="AL76" s="38"/>
+      <c r="AM76" s="38"/>
+      <c r="AN76" s="38"/>
+      <c r="AO76" s="38"/>
+      <c r="AP76" s="38"/>
+      <c r="AQ76" s="38"/>
+      <c r="AR76" s="38"/>
+      <c r="AS76" s="38"/>
+      <c r="AT76" s="38"/>
+      <c r="AU76" s="38"/>
+      <c r="AV76" s="38"/>
+      <c r="AW76" s="38"/>
+      <c r="AX76" s="38"/>
+    </row>
+    <row r="77" spans="1:50" ht="14.25">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
     </row>
-    <row r="78" spans="1:50" ht="14.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27"/>
+    <row r="78" spans="1:50" ht="18.75" customHeight="1">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
     </row>
     <row r="79" spans="1:50" ht="14.25">
       <c r="A79" s="26"/>
-      <c r="B79" s="27"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="27"/>
     </row>
     <row r="80" spans="1:50" ht="14.25">
       <c r="A80" s="26"/>
-      <c r="B80" s="29"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="27"/>
     </row>
     <row r="81" spans="1:3" ht="14.25">
       <c r="A81" s="26"/>
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="27"/>
     </row>
     <row r="82" spans="1:3" ht="14.25">
       <c r="A82" s="26"/>
-      <c r="B82" s="27"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="27"/>
     </row>
     <row r="83" spans="1:3" ht="14.25">
       <c r="A83" s="26"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="27"/>
     </row>
     <row r="84" spans="1:3" ht="14.25">
       <c r="A84" s="26"/>
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="27"/>
+    </row>
+    <row r="85" spans="1:3" ht="14.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P66:W66"/>
+    <mergeCell ref="P67:W67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
